--- a/database/sidis/expdata/3444.xlsx
+++ b/database/sidis/expdata/3444.xlsx
@@ -559,13 +559,13 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>4.054390350347251e-05</v>
+        <v>0.000136650854537641</v>
       </c>
       <c r="O2" t="n">
         <v>0.000598</v>
       </c>
       <c r="P2" t="n">
-        <v>3.823290100377457e-05</v>
+        <v>0.0001288617558289954</v>
       </c>
     </row>
     <row r="3">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.374320950423582e-05</v>
+        <v>8.461426043446697e-05</v>
       </c>
       <c r="O3" t="n">
         <v>0.000822</v>
       </c>
       <c r="P3" t="n">
-        <v>6.291950518622491e-05</v>
+        <v>0.0002242277901513375</v>
       </c>
     </row>
     <row r="4">
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.125445357933598e-05</v>
+        <v>6.193824205434375e-05</v>
       </c>
       <c r="O4" t="n">
         <v>0.00108</v>
       </c>
       <c r="P4" t="n">
-        <v>1.980783829963133e-05</v>
+        <v>0.000109011306015645</v>
       </c>
     </row>
     <row r="5">
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>6.775441560484487e-05</v>
+        <v>0.0001635391931759773</v>
       </c>
       <c r="O5" t="n">
         <v>0.000414</v>
       </c>
       <c r="P5" t="n">
-        <v>1.944551727859048e-05</v>
+        <v>4.693574844150548e-05</v>
       </c>
     </row>
     <row r="6">
@@ -791,13 +791,13 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.122709258773725e-05</v>
+        <v>0.0001206840922103747</v>
       </c>
       <c r="O6" t="n">
         <v>0.000565</v>
       </c>
       <c r="P6" t="n">
-        <v>8.987506184126721e-06</v>
+        <v>2.630913210186169e-05</v>
       </c>
     </row>
     <row r="7">
@@ -849,13 +849,13 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.979522232162311e-05</v>
+        <v>9.537637663114054e-05</v>
       </c>
       <c r="O7" t="n">
         <v>0.000729</v>
       </c>
       <c r="P7" t="n">
-        <v>2.434812345559642e-05</v>
+        <v>0.0001173129432563029</v>
       </c>
     </row>
     <row r="8">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0001174084386336619</v>
+        <v>0.0001623717342414675</v>
       </c>
       <c r="O8" t="n">
         <v>0.000534</v>
       </c>
       <c r="P8" t="n">
-        <v>9.944494752271164e-05</v>
+        <v>0.0001375288589025229</v>
       </c>
     </row>
     <row r="9">
@@ -965,13 +965,13 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>7.508791868345192e-05</v>
+        <v>0.0001566422644968254</v>
       </c>
       <c r="O9" t="n">
         <v>0.0007069999999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0002950955204259661</v>
+        <v>0.0006156040994725237</v>
       </c>
     </row>
     <row r="10">
@@ -1023,13 +1023,13 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.641362511411801e-05</v>
+        <v>0.0001382911715655913</v>
       </c>
       <c r="O10" t="n">
         <v>0.000907</v>
       </c>
       <c r="P10" t="n">
-        <v>1.86073624333143e-05</v>
+        <v>7.066678867001714e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0002005279020184732</v>
+        <v>0.0001695524848816315</v>
       </c>
       <c r="O11" t="n">
         <v>0.000789</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0004511877795415647</v>
+        <v>0.000381493090983671</v>
       </c>
     </row>
     <row r="12">
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0001375407416739304</v>
+        <v>0.0001968708538069813</v>
       </c>
       <c r="O12" t="n">
         <v>0.00103</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0015817185292502</v>
+        <v>0.002264014818780284</v>
       </c>
     </row>
     <row r="13">
@@ -1197,13 +1197,13 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>6.704363052104667e-05</v>
+        <v>0.0001902606461815901</v>
       </c>
       <c r="O13" t="n">
         <v>0.00133</v>
       </c>
       <c r="P13" t="n">
-        <v>3.003554647342891e-05</v>
+        <v>8.523676948935237e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>5.132227994277254e-05</v>
+        <v>0.0001651835247375599</v>
       </c>
       <c r="O14" t="n">
         <v>0.00164</v>
       </c>
       <c r="P14" t="n">
-        <v>2.868915448800985e-05</v>
+        <v>9.233759032829601e-05</v>
       </c>
     </row>
     <row r="15">
@@ -1313,13 +1313,13 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.0001288216884827524</v>
+        <v>0.0003062827550194738</v>
       </c>
       <c r="O15" t="n">
         <v>0.000571</v>
       </c>
       <c r="P15" t="n">
-        <v>8.231705894047878e-05</v>
+        <v>0.0001957146804574438</v>
       </c>
     </row>
     <row r="16">
@@ -1371,13 +1371,13 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>7.556239671930975e-05</v>
+        <v>0.0001936229964890027</v>
       </c>
       <c r="O16" t="n">
         <v>0.000788</v>
       </c>
       <c r="P16" t="n">
-        <v>9.067487606317171e-05</v>
+        <v>0.0002323475957868032</v>
       </c>
     </row>
     <row r="17">
@@ -1429,13 +1429,13 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.542423875284455e-05</v>
+        <v>0.0001317673401029561</v>
       </c>
       <c r="O17" t="n">
         <v>0.00103</v>
       </c>
       <c r="P17" t="n">
-        <v>4.994817664151081e-05</v>
+        <v>0.0001857919495451681</v>
       </c>
     </row>
     <row r="18">
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.783413484548768e-05</v>
+        <v>9.629429911125901e-05</v>
       </c>
       <c r="O18" t="n">
         <v>0.0013</v>
       </c>
       <c r="P18" t="n">
-        <v>5.928670722088875e-05</v>
+        <v>0.0002051068571069817</v>
       </c>
     </row>
     <row r="19">
@@ -1545,13 +1545,13 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.0002177440397710953</v>
+        <v>0.000383552706762595</v>
       </c>
       <c r="O19" t="n">
         <v>0.0004</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0005247631358483398</v>
+        <v>0.0009243620232978539</v>
       </c>
     </row>
     <row r="20">
@@ -1603,13 +1603,13 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.0001315994064501918</v>
+        <v>0.0002812687615768599</v>
       </c>
       <c r="O20" t="n">
         <v>0.000549</v>
       </c>
       <c r="P20" t="n">
-        <v>3.05310622964445e-05</v>
+        <v>6.52543526858315e-05</v>
       </c>
     </row>
     <row r="21">
@@ -1661,13 +1661,13 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>6.195001836666927e-05</v>
+        <v>0.0002024163856461549</v>
       </c>
       <c r="O21" t="n">
         <v>0.000706</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0001065540315906711</v>
+        <v>0.0003481561833113864</v>
       </c>
     </row>
     <row r="22">
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>4.832913251077196e-05</v>
+        <v>0.000152529409601557</v>
       </c>
       <c r="O22" t="n">
         <v>0.000876</v>
       </c>
       <c r="P22" t="n">
-        <v>3.687512810571901e-05</v>
+        <v>0.000116379939525988</v>
       </c>
     </row>
     <row r="23">
@@ -1777,13 +1777,13 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0.0003838088964592353</v>
+        <v>0.0004223660985630904</v>
       </c>
       <c r="O23" t="n">
         <v>0.000522</v>
       </c>
       <c r="P23" t="n">
-        <v>0.001316464514855177</v>
+        <v>0.0014487157180714</v>
       </c>
     </row>
     <row r="24">
@@ -1835,13 +1835,13 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0.0002447944207952133</v>
+        <v>0.0003837608193438058</v>
       </c>
       <c r="O24" t="n">
         <v>0.000695</v>
       </c>
       <c r="P24" t="n">
-        <v>1.919188259034473e-06</v>
+        <v>3.008684823655437e-06</v>
       </c>
     </row>
     <row r="25">
@@ -1893,13 +1893,13 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0.000115925096897554</v>
+        <v>0.0003009172547463243</v>
       </c>
       <c r="O25" t="n">
         <v>0.000889</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0001333138614321871</v>
+        <v>0.0003460548429582729</v>
       </c>
     </row>
     <row r="26">
@@ -1951,13 +1951,13 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>8.868643294658329e-05</v>
+        <v>0.000237791257051239</v>
       </c>
       <c r="O26" t="n">
         <v>0.0011</v>
       </c>
       <c r="P26" t="n">
-        <v>7.227944285146537e-05</v>
+        <v>0.0001937998744967598</v>
       </c>
     </row>
     <row r="27">
@@ -2009,13 +2009,13 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0.0006887485145877936</v>
+        <v>0.0005127590300472829</v>
       </c>
       <c r="O27" t="n">
         <v>0.000777</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0001894058415116432</v>
+        <v>0.0001410087332630028</v>
       </c>
     </row>
     <row r="28">
@@ -2067,13 +2067,13 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0.0004617175890040912</v>
+        <v>0.0005230870933710462</v>
       </c>
       <c r="O28" t="n">
         <v>0.00101</v>
       </c>
       <c r="P28" t="n">
-        <v>0.01412855822352519</v>
+        <v>0.01600646505715402</v>
       </c>
     </row>
     <row r="29">
@@ -2125,13 +2125,13 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0.000220321447157408</v>
+        <v>0.0004333547238084371</v>
       </c>
       <c r="O29" t="n">
         <v>0.00129</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0001436495835466301</v>
+        <v>0.000282547279923101</v>
       </c>
     </row>
     <row r="30">
@@ -2183,13 +2183,13 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0.0001617608923529792</v>
+        <v>0.0003570510007549225</v>
       </c>
       <c r="O30" t="n">
         <v>0.00161</v>
       </c>
       <c r="P30" t="n">
-        <v>5.548398607707185e-05</v>
+        <v>0.0001224684932589384</v>
       </c>
     </row>
     <row r="31">
@@ -2241,13 +2241,13 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0.0003988924609981623</v>
+        <v>0.000730427698571942</v>
       </c>
       <c r="O31" t="n">
         <v>0.00056</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0008057627712162878</v>
+        <v>0.001475463951115323</v>
       </c>
     </row>
     <row r="32">
@@ -2299,13 +2299,13 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>0.0002363568003755699</v>
+        <v>0.0004735110587165628</v>
       </c>
       <c r="O32" t="n">
         <v>0.00076</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0001739586050764195</v>
+        <v>0.0003485041392153902</v>
       </c>
     </row>
     <row r="33">
@@ -2357,13 +2357,13 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0.0001103814907950581</v>
+        <v>0.0002999306749781755</v>
       </c>
       <c r="O33" t="n">
         <v>0.000995</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0001479111976653778</v>
+        <v>0.0004019071044707551</v>
       </c>
     </row>
     <row r="34">
@@ -2415,13 +2415,13 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>8.501301365673631e-05</v>
+        <v>0.0002165054878939177</v>
       </c>
       <c r="O34" t="n">
         <v>0.00126</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0001275195204851045</v>
+        <v>0.0003247582318408766</v>
       </c>
     </row>
     <row r="35">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>0.0006867727449074656</v>
+        <v>0.000969918749855818</v>
       </c>
       <c r="O35" t="n">
         <v>0.000399</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0005514785141606949</v>
+        <v>0.000778844756134222</v>
       </c>
     </row>
     <row r="36">
@@ -2531,13 +2531,13 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>0.0004130939240390013</v>
+        <v>0.0007053736710833919</v>
       </c>
       <c r="O36" t="n">
         <v>0.0005330000000000001</v>
       </c>
       <c r="P36" t="n">
-        <v>0.001020341992376333</v>
+        <v>0.001742272967575978</v>
       </c>
     </row>
     <row r="37">
@@ -2589,13 +2589,13 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0.0001951995632475948</v>
+        <v>0.0004680689440015399</v>
       </c>
       <c r="O37" t="n">
         <v>0.000679</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0005192308382386023</v>
+        <v>0.001245063391044096</v>
       </c>
     </row>
     <row r="38">
@@ -2647,13 +2647,13 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>0.0001491882111401788</v>
+        <v>0.0003479215077424679</v>
       </c>
       <c r="O38" t="n">
         <v>0.000845</v>
       </c>
       <c r="P38" t="n">
-        <v>5.788502592238938e-05</v>
+        <v>0.0001349935450040776</v>
       </c>
     </row>
     <row r="39">
@@ -2705,13 +2705,13 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>0.001272698132077175</v>
+        <v>0.00121229334664528</v>
       </c>
       <c r="O39" t="n">
         <v>0.000528</v>
       </c>
       <c r="P39" t="n">
-        <v>1.057612147756132e-05</v>
+        <v>1.007415771062228e-05</v>
       </c>
     </row>
     <row r="40">
@@ -2763,13 +2763,13 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>0.0007956991529298469</v>
+        <v>0.001030733175285578</v>
       </c>
       <c r="O40" t="n">
         <v>0.0006890000000000001</v>
       </c>
       <c r="P40" t="n">
-        <v>0.001623226271976888</v>
+        <v>0.00210269567758258</v>
       </c>
     </row>
     <row r="41">
@@ -2821,13 +2821,13 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0.00037188497368302</v>
+        <v>0.000717658092838774</v>
       </c>
       <c r="O41" t="n">
         <v>0.000875</v>
       </c>
       <c r="P41" t="n">
-        <v>0.004797316160510958</v>
+        <v>0.009257789397620186</v>
       </c>
     </row>
     <row r="42">
@@ -2879,13 +2879,13 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>0.0002764140492272108</v>
+        <v>0.0005511024728164969</v>
       </c>
       <c r="O42" t="n">
         <v>0.00106</v>
       </c>
       <c r="P42" t="n">
-        <v>9.121663624497956e-06</v>
+        <v>1.81863816029444e-05</v>
       </c>
     </row>
     <row r="43">
@@ -2937,13 +2937,13 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>0.002441326284152107</v>
+        <v>0.001680498800666076</v>
       </c>
       <c r="O43" t="n">
         <v>0.000792</v>
       </c>
       <c r="P43" t="n">
-        <v>0.006030075921855705</v>
+        <v>0.004150832037645207</v>
       </c>
     </row>
     <row r="44">
@@ -2995,13 +2995,13 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>0.001564955695680294</v>
+        <v>0.001526659936408046</v>
       </c>
       <c r="O44" t="n">
         <v>0.00103</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0007073599744474931</v>
+        <v>0.0006900502912564368</v>
       </c>
     </row>
     <row r="45">
@@ -3053,13 +3053,13 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>0.0007169607730113819</v>
+        <v>0.001075251674764926</v>
       </c>
       <c r="O45" t="n">
         <v>0.00129</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0006323594017960388</v>
+        <v>0.0009483719771426649</v>
       </c>
     </row>
     <row r="46">
@@ -3111,13 +3111,13 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>0.0005109378146768477</v>
+        <v>0.0008490761472829716</v>
       </c>
       <c r="O46" t="n">
         <v>0.00159</v>
       </c>
       <c r="P46" t="n">
-        <v>0.00113939132672937</v>
+        <v>0.001893439808441027</v>
       </c>
     </row>
     <row r="47">
@@ -3169,13 +3169,13 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>0.001258789138126971</v>
+        <v>0.001932101407291629</v>
       </c>
       <c r="O47" t="n">
         <v>0.000572</v>
       </c>
       <c r="P47" t="n">
-        <v>0.003914834219574879</v>
+        <v>0.006008835376676965</v>
       </c>
     </row>
     <row r="48">
@@ -3227,13 +3227,13 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>0.0007345104104573124</v>
+        <v>0.001241669623843548</v>
       </c>
       <c r="O48" t="n">
         <v>0.000764</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0007859261391893243</v>
+        <v>0.001328586497512597</v>
       </c>
     </row>
     <row r="49">
@@ -3285,13 +3285,13 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>0.0003414662610944394</v>
+        <v>0.0007321374817859705</v>
       </c>
       <c r="O49" t="n">
         <v>0.0009890000000000001</v>
       </c>
       <c r="P49" t="n">
-        <v>0.000744396449185878</v>
+        <v>0.001596059710293416</v>
       </c>
     </row>
     <row r="50">
@@ -3343,13 +3343,13 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>0.0002567619854834988</v>
+        <v>0.0005251023413601517</v>
       </c>
       <c r="O50" t="n">
         <v>0.00123</v>
       </c>
       <c r="P50" t="n">
-        <v>0.0005314973099508425</v>
+        <v>0.001086961846615514</v>
       </c>
     </row>
     <row r="51">
@@ -3401,13 +3401,13 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>0.0022066256992563</v>
+        <v>0.002703440439880868</v>
       </c>
       <c r="O51" t="n">
         <v>0.000411</v>
       </c>
       <c r="P51" t="n">
-        <v>0.00507523910828949</v>
+        <v>0.006217913011725995</v>
       </c>
     </row>
     <row r="52">
@@ -3459,13 +3459,13 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>0.001302582686104928</v>
+        <v>0.0019019938673465</v>
       </c>
       <c r="O52" t="n">
         <v>0.000539</v>
       </c>
       <c r="P52" t="n">
-        <v>0.005562028069668043</v>
+        <v>0.008121513813569556</v>
       </c>
     </row>
     <row r="53">
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>0.0006092752894359913</v>
+        <v>0.001162391900574541</v>
       </c>
       <c r="O53" t="n">
         <v>0.000675</v>
       </c>
       <c r="P53" t="n">
-        <v>0.0003424127126630271</v>
+        <v>0.0006532642481228922</v>
       </c>
     </row>
     <row r="54">
@@ -3575,13 +3575,13 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>0.0004510217402917931</v>
+        <v>0.0008503236855948526</v>
       </c>
       <c r="O54" t="n">
         <v>0.00083</v>
       </c>
       <c r="P54" t="n">
-        <v>5.773078275734952e-06</v>
+        <v>1.088414317561412e-05</v>
       </c>
     </row>
     <row r="55">
@@ -3633,13 +3633,13 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>0.00426715499058425</v>
+        <v>0.003735975734375271</v>
       </c>
       <c r="O55" t="n">
         <v>0.000545</v>
       </c>
       <c r="P55" t="n">
-        <v>0.00136548959698696</v>
+        <v>0.001195512235000087</v>
       </c>
     </row>
     <row r="56">
@@ -3691,13 +3691,13 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>0.002583358803343377</v>
+        <v>0.002943049345595935</v>
       </c>
       <c r="O56" t="n">
         <v>0.000701</v>
       </c>
       <c r="P56" t="n">
-        <v>0.007310905413461757</v>
+        <v>0.008328829648036497</v>
       </c>
     </row>
     <row r="57">
@@ -3749,13 +3749,13 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>0.001165134739001128</v>
+        <v>0.001820168556440029</v>
       </c>
       <c r="O57" t="n">
         <v>0.000867</v>
       </c>
       <c r="P57" t="n">
-        <v>0.004800355124684645</v>
+        <v>0.00749909445253292</v>
       </c>
     </row>
     <row r="58">
@@ -3807,13 +3807,13 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>0.0008342621746909744</v>
+        <v>0.001359599288348163</v>
       </c>
       <c r="O58" t="n">
         <v>0.00104</v>
       </c>
       <c r="P58" t="n">
-        <v>0.001017799853122989</v>
+        <v>0.001658711131784759</v>
       </c>
     </row>
     <row r="59">
@@ -3865,13 +3865,13 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>0.008884839549843844</v>
+        <v>0.005752135158686329</v>
       </c>
       <c r="O59" t="n">
         <v>0.000826</v>
       </c>
       <c r="P59" t="n">
-        <v>0.001439344007074703</v>
+        <v>0.0009318458957071853</v>
       </c>
     </row>
     <row r="60">
@@ -3923,13 +3923,13 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>0.005389932888757757</v>
+        <v>0.004732913114149724</v>
       </c>
       <c r="O60" t="n">
         <v>0.00105</v>
       </c>
       <c r="P60" t="n">
-        <v>0.003023752350593102</v>
+        <v>0.002655164257037995</v>
       </c>
     </row>
     <row r="61">
@@ -3981,13 +3981,13 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>0.002342577135711258</v>
+        <v>0.002892039534025213</v>
       </c>
       <c r="O61" t="n">
         <v>0.00129</v>
       </c>
       <c r="P61" t="n">
-        <v>0.004427470786494277</v>
+        <v>0.005465954719307653</v>
       </c>
     </row>
     <row r="62">
@@ -4039,13 +4039,13 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>0.001588475647168958</v>
+        <v>0.002181586089491734</v>
       </c>
       <c r="O62" t="n">
         <v>0.00155</v>
       </c>
       <c r="P62" t="n">
-        <v>0.003780572040262119</v>
+        <v>0.005192174892990327</v>
       </c>
     </row>
     <row r="63">
@@ -4097,13 +4097,13 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>0.003327411060179274</v>
+        <v>0.004559931951564886</v>
       </c>
       <c r="O63" t="n">
         <v>0.000692</v>
       </c>
       <c r="P63" t="n">
-        <v>0.04292360267631263</v>
+        <v>0.05882312217518702</v>
       </c>
     </row>
     <row r="64">
@@ -4155,13 +4155,13 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>0.001945094208956509</v>
+        <v>0.002928490903019815</v>
       </c>
       <c r="O64" t="n">
         <v>0.000906</v>
       </c>
       <c r="P64" t="n">
-        <v>0.02684230008359983</v>
+        <v>0.04041317446167345</v>
       </c>
     </row>
     <row r="65">
@@ -4213,13 +4213,13 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>0.0008929003917464007</v>
+        <v>0.001620160598859471</v>
       </c>
       <c r="O65" t="n">
         <v>0.00116</v>
       </c>
       <c r="P65" t="n">
-        <v>0.01169699513187785</v>
+        <v>0.02122410384505908</v>
       </c>
     </row>
     <row r="66">
@@ -4271,13 +4271,13 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>0.0006527120270206987</v>
+        <v>0.001157927308541996</v>
       </c>
       <c r="O66" t="n">
         <v>0.00145</v>
       </c>
       <c r="P66" t="n">
-        <v>0.001932027599981268</v>
+        <v>0.003427464833284309</v>
       </c>
     </row>
     <row r="67">
@@ -4329,13 +4329,13 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>0.005985045538286245</v>
+        <v>0.0067072050419483</v>
       </c>
       <c r="O67" t="n">
         <v>0.000502</v>
       </c>
       <c r="P67" t="n">
-        <v>0.03483296503282595</v>
+        <v>0.03903593334413911</v>
       </c>
     </row>
     <row r="68">
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>0.003508574944278392</v>
+        <v>0.004607617370161844</v>
       </c>
       <c r="O68" t="n">
         <v>0.000636</v>
       </c>
       <c r="P68" t="n">
-        <v>0.006701378143571728</v>
+        <v>0.00880054917700912</v>
       </c>
     </row>
     <row r="69">
@@ -4445,13 +4445,13 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>0.00160987738241693</v>
+        <v>0.002620719202123667</v>
       </c>
       <c r="O69" t="n">
         <v>0.000793</v>
       </c>
       <c r="P69" t="n">
-        <v>0.004089088551339002</v>
+        <v>0.006656626773394115</v>
       </c>
     </row>
     <row r="70">
@@ -4503,13 +4503,13 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>0.001161981266542404</v>
+        <v>0.001906673719621003</v>
       </c>
       <c r="O70" t="n">
         <v>0.000965</v>
       </c>
       <c r="P70" t="n">
-        <v>0.00012084605172041</v>
+        <v>0.0001982940668405843</v>
       </c>
     </row>
     <row r="71">
@@ -4561,13 +4561,13 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>0.01213458429686433</v>
+        <v>0.01002496763554771</v>
       </c>
       <c r="O71" t="n">
         <v>0.000666</v>
       </c>
       <c r="P71" t="n">
-        <v>0.05897407968276065</v>
+        <v>0.0487213427087619</v>
       </c>
     </row>
     <row r="72">
@@ -4619,13 +4619,13 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>0.007250812182518062</v>
+        <v>0.007544609686096801</v>
       </c>
       <c r="O72" t="n">
         <v>0.000837</v>
       </c>
       <c r="P72" t="n">
-        <v>0.02051979847652612</v>
+        <v>0.02135124541165395</v>
       </c>
     </row>
     <row r="73">
@@ -4677,13 +4677,13 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>0.003193168617791195</v>
+        <v>0.004299167241697213</v>
       </c>
       <c r="O73" t="n">
         <v>0.00102</v>
       </c>
       <c r="P73" t="n">
-        <v>0.002171354660098013</v>
+        <v>0.002923433724354105</v>
       </c>
     </row>
     <row r="74">
@@ -4735,13 +4735,13 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>0.002197889213493849</v>
+        <v>0.00314675138957348</v>
       </c>
       <c r="O74" t="n">
         <v>0.00122</v>
       </c>
       <c r="P74" t="n">
-        <v>0.01052788933263554</v>
+        <v>0.01507293915605697</v>
       </c>
     </row>
     <row r="75">
@@ -4793,13 +4793,13 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>0.02679368559455907</v>
+        <v>0.0163997194988853</v>
       </c>
       <c r="O75" t="n">
         <v>0.00102</v>
       </c>
       <c r="P75" t="n">
-        <v>0.1529919447449323</v>
+        <v>0.09364239833863505</v>
       </c>
     </row>
     <row r="76">
@@ -4851,13 +4851,13 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>0.01579987700500354</v>
+        <v>0.01277267164694418</v>
       </c>
       <c r="O76" t="n">
         <v>0.00128</v>
       </c>
       <c r="P76" t="n">
-        <v>0.02907177368920652</v>
+        <v>0.02350171583037729</v>
       </c>
     </row>
     <row r="77">
@@ -4909,13 +4909,13 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>0.006655406789136072</v>
+        <v>0.007170798851062069</v>
       </c>
       <c r="O77" t="n">
         <v>0.00154</v>
       </c>
       <c r="P77" t="n">
-        <v>0.004412534701197216</v>
+        <v>0.004754239638254152</v>
       </c>
     </row>
     <row r="78">
@@ -4967,13 +4967,13 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>0.00425655145741065</v>
+        <v>0.005191000732592189</v>
       </c>
       <c r="O78" t="n">
         <v>0.00184</v>
       </c>
       <c r="P78" t="n">
-        <v>0.0003549963915480482</v>
+        <v>0.0004329294610981886</v>
       </c>
     </row>
     <row r="79">
@@ -5025,13 +5025,13 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>0.007099044378064386</v>
+        <v>0.009014187988310458</v>
       </c>
       <c r="O79" t="n">
         <v>0.00179</v>
       </c>
       <c r="P79" t="n">
-        <v>0.06240060008318594</v>
+        <v>0.07923471241724891</v>
       </c>
     </row>
     <row r="80">
@@ -5083,13 +5083,13 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>0.004174514438931827</v>
+        <v>0.005742358025198155</v>
       </c>
       <c r="O80" t="n">
         <v>0.00234</v>
       </c>
       <c r="P80" t="n">
-        <v>0.006303516802787059</v>
+        <v>0.008670960618049214</v>
       </c>
     </row>
     <row r="81">
@@ -5141,13 +5141,13 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>0.001896209286750992</v>
+        <v>0.003041379387829318</v>
       </c>
       <c r="O81" t="n">
         <v>0.003</v>
       </c>
       <c r="P81" t="n">
-        <v>0.0709182273244871</v>
+        <v>0.1137475891048165</v>
       </c>
     </row>
     <row r="82">
@@ -5199,13 +5199,13 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>0.001381377974381678</v>
+        <v>0.002216725969154688</v>
       </c>
       <c r="O82" t="n">
         <v>0.00386</v>
       </c>
       <c r="P82" t="n">
-        <v>0.004323713059814653</v>
+        <v>0.006938352283454173</v>
       </c>
     </row>
     <row r="83">
@@ -5257,13 +5257,13 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>0.01280390684894606</v>
+        <v>0.01354847973562715</v>
       </c>
       <c r="O83" t="n">
         <v>0.00129</v>
       </c>
       <c r="P83" t="n">
-        <v>0.01728527424607718</v>
+        <v>0.01829044764309665</v>
       </c>
     </row>
     <row r="84">
@@ -5315,13 +5315,13 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>0.007616659424098516</v>
+        <v>0.00921879096525647</v>
       </c>
       <c r="O84" t="n">
         <v>0.00165</v>
       </c>
       <c r="P84" t="n">
-        <v>0.03716929798960076</v>
+        <v>0.04498769991045157</v>
       </c>
     </row>
     <row r="85">
@@ -5373,13 +5373,13 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>0.003490207393337066</v>
+        <v>0.005051827443328101</v>
       </c>
       <c r="O85" t="n">
         <v>0.00205</v>
       </c>
       <c r="P85" t="n">
-        <v>0.002090634228608902</v>
+        <v>0.003026044638553532</v>
       </c>
     </row>
     <row r="86">
@@ -5431,13 +5431,13 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>0.002465938197505582</v>
+        <v>0.003683427891855945</v>
       </c>
       <c r="O86" t="n">
         <v>0.00252</v>
       </c>
       <c r="P86" t="n">
-        <v>0.0129461755369043</v>
+        <v>0.01933799643224371</v>
       </c>
     </row>
     <row r="87">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>0.02701192475969018</v>
+        <v>0.02142088338309945</v>
       </c>
       <c r="O87" t="n">
         <v>0.00172</v>
       </c>
       <c r="P87" t="n">
-        <v>0.1120994877527143</v>
+        <v>0.08889666603986271</v>
       </c>
     </row>
     <row r="88">
@@ -5547,13 +5547,13 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>0.01591625027484064</v>
+        <v>0.01551617206138805</v>
       </c>
       <c r="O88" t="n">
         <v>0.00217</v>
       </c>
       <c r="P88" t="n">
-        <v>0.1099812893991488</v>
+        <v>0.1072167489441914</v>
       </c>
     </row>
     <row r="89">
@@ -5605,13 +5605,13 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>0.007040363268793903</v>
+        <v>0.008531070219055447</v>
       </c>
       <c r="O89" t="n">
         <v>0.0026</v>
       </c>
       <c r="P89" t="n">
-        <v>0.02963992936162233</v>
+        <v>0.03591580562222343</v>
       </c>
     </row>
     <row r="90">
@@ -5663,13 +5663,13 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>0.00473379219908841</v>
+        <v>0.006217168047669126</v>
       </c>
       <c r="O90" t="n">
         <v>0.00317</v>
       </c>
       <c r="P90" t="n">
-        <v>0.01306526646948401</v>
+        <v>0.01715938381156679</v>
       </c>
     </row>
     <row r="91">
@@ -5721,13 +5721,13 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>0.06319542897044238</v>
+        <v>0.03716374195809647</v>
       </c>
       <c r="O91" t="n">
         <v>0.00267</v>
       </c>
       <c r="P91" t="n">
-        <v>0.01560927095569927</v>
+        <v>0.009179444263649828</v>
       </c>
     </row>
     <row r="92">
@@ -5779,13 +5779,13 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>0.03656816787447115</v>
+        <v>0.02788837774852133</v>
       </c>
       <c r="O92" t="n">
         <v>0.0033</v>
       </c>
       <c r="P92" t="n">
-        <v>0.06472565713781395</v>
+        <v>0.04936242861488276</v>
       </c>
     </row>
     <row r="93">
@@ -5837,13 +5837,13 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>0.01514177823865774</v>
+        <v>0.01484188483678377</v>
       </c>
       <c r="O93" t="n">
         <v>0.00398</v>
       </c>
       <c r="P93" t="n">
-        <v>0.03815728116141751</v>
+        <v>0.03740154978869509</v>
       </c>
     </row>
     <row r="94">
@@ -5895,13 +5895,13 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>0.009249433500443624</v>
+        <v>0.01046730914667735</v>
       </c>
       <c r="O94" t="n">
         <v>0.00484</v>
       </c>
       <c r="P94" t="n">
-        <v>0.004939197489236895</v>
+        <v>0.005589543084325705</v>
       </c>
     </row>
     <row r="95">
@@ -5953,13 +5953,13 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>1.641523992094802e-05</v>
+        <v>6.258947046335419e-05</v>
       </c>
       <c r="O95" t="n">
         <v>0.008330000000000001</v>
       </c>
       <c r="P95" t="n">
-        <v>8.355357119762541e-06</v>
+        <v>3.185804046584729e-05</v>
       </c>
     </row>
     <row r="96">
@@ -6011,13 +6011,13 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>1.04356343208453e-05</v>
+        <v>3.975123393057998e-05</v>
       </c>
       <c r="O96" t="n">
         <v>0.0148</v>
       </c>
       <c r="P96" t="n">
-        <v>1.429681901955806e-06</v>
+        <v>5.445919048489458e-06</v>
       </c>
     </row>
     <row r="97">
@@ -6069,13 +6069,13 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>5.014039677793434e-06</v>
+        <v>3.026068336853151e-05</v>
       </c>
       <c r="O97" t="n">
         <v>0.0246</v>
       </c>
       <c r="P97" t="n">
-        <v>0.0001213397602026011</v>
+        <v>0.0007323085375184626</v>
       </c>
     </row>
     <row r="98">
@@ -6127,13 +6127,13 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>4.118533645870434e-06</v>
+        <v>2.286883825759843e-05</v>
       </c>
       <c r="O98" t="n">
         <v>0.0323</v>
       </c>
       <c r="P98" t="n">
-        <v>1.536213049909672e-06</v>
+        <v>8.530076670084216e-06</v>
       </c>
     </row>
     <row r="99">
@@ -6185,13 +6185,13 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>2.699527050178446e-05</v>
+        <v>7.135536919224562e-05</v>
       </c>
       <c r="O99" t="n">
         <v>0.00529</v>
       </c>
       <c r="P99" t="n">
-        <v>4.643186526306927e-05</v>
+        <v>0.0001227312350106625</v>
       </c>
     </row>
     <row r="100">
@@ -6243,13 +6243,13 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>1.797740463726668e-05</v>
+        <v>5.552329977642051e-05</v>
       </c>
       <c r="O100" t="n">
         <v>0.00792</v>
       </c>
       <c r="P100" t="n">
-        <v>6.921300785347672e-06</v>
+        <v>2.13764704139219e-05</v>
       </c>
     </row>
     <row r="101">
@@ -6301,13 +6301,13 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>8.68050866802304e-06</v>
+        <v>4.596474415359151e-05</v>
       </c>
       <c r="O101" t="n">
         <v>0.014</v>
       </c>
       <c r="P101" t="n">
-        <v>2.100683097661576e-05</v>
+        <v>0.0001112346808516914</v>
       </c>
     </row>
     <row r="102">
@@ -6359,13 +6359,13 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>7.254091272957903e-06</v>
+        <v>3.70457961669903e-05</v>
       </c>
       <c r="O102" t="n">
         <v>0.021</v>
       </c>
       <c r="P102" t="n">
-        <v>1.675695084053276e-05</v>
+        <v>8.55757891457476e-05</v>
       </c>
     </row>
     <row r="103">
@@ -6417,13 +6417,13 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>4.620345798417961e-05</v>
+        <v>6.737643726528229e-05</v>
       </c>
       <c r="O103" t="n">
         <v>0.0065</v>
       </c>
       <c r="P103" t="n">
-        <v>2.804549899639702e-05</v>
+        <v>4.089749742002635e-05</v>
       </c>
     </row>
     <row r="104">
@@ -6475,13 +6475,13 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.141254871792041e-05</v>
+        <v>6.918966419441971e-05</v>
       </c>
       <c r="O104" t="n">
         <v>0.009350000000000001</v>
       </c>
       <c r="P104" t="n">
-        <v>0.0001476389789742259</v>
+        <v>0.0003251914217137726</v>
       </c>
     </row>
     <row r="105">
@@ -6533,13 +6533,13 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>1.598529591322435e-05</v>
+        <v>6.565563217352866e-05</v>
       </c>
       <c r="O105" t="n">
         <v>0.0137</v>
       </c>
       <c r="P105" t="n">
-        <v>2.861367968467159e-05</v>
+        <v>0.0001175235815906163</v>
       </c>
     </row>
     <row r="106">
@@ -6591,13 +6591,13 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>1.315891910789815e-05</v>
+        <v>5.638221593920293e-05</v>
       </c>
       <c r="O106" t="n">
         <v>0.0189</v>
       </c>
       <c r="P106" t="n">
-        <v>6.303122252683215e-05</v>
+        <v>0.0002700708143487821</v>
       </c>
     </row>
     <row r="107">
@@ -6649,13 +6649,13 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>7.682721207254539e-05</v>
+        <v>6.425223429559553e-05</v>
       </c>
       <c r="O107" t="n">
         <v>0.0106</v>
       </c>
       <c r="P107" t="n">
-        <v>5.523876548016013e-05</v>
+        <v>4.619735645853319e-05</v>
       </c>
     </row>
     <row r="108">
@@ -6707,13 +6707,13 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>5.603515037279544e-05</v>
+        <v>8.305636994466731e-05</v>
       </c>
       <c r="O108" t="n">
         <v>0.0138</v>
       </c>
       <c r="P108" t="n">
-        <v>7.564745300327385e-05</v>
+        <v>0.0001121260994253009</v>
       </c>
     </row>
     <row r="109">
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>2.881776658315652e-05</v>
+        <v>8.89555543689488e-05</v>
       </c>
       <c r="O109" t="n">
         <v>0.0206</v>
       </c>
       <c r="P109" t="n">
-        <v>0.001377489242674881</v>
+        <v>0.004252075498835752</v>
       </c>
     </row>
     <row r="110">
@@ -6823,13 +6823,13 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>2.311646356284823e-05</v>
+        <v>8.160455557731393e-05</v>
       </c>
       <c r="O110" t="n">
         <v>0.0252</v>
       </c>
       <c r="P110" t="n">
-        <v>1.442467326321729e-05</v>
+        <v>5.092124268024389e-05</v>
       </c>
     </row>
     <row r="111">
@@ -6881,13 +6881,13 @@
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.50429652721555e-05</v>
+        <v>9.548674733555622e-05</v>
       </c>
       <c r="O111" t="n">
         <v>0.00142</v>
       </c>
       <c r="P111" t="n">
-        <v>0.0001310606901178616</v>
+        <v>0.0003571204350349803</v>
       </c>
     </row>
     <row r="112">
@@ -6939,13 +6939,13 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>2.17995626209818e-05</v>
+        <v>6.231105418926554e-05</v>
       </c>
       <c r="O112" t="n">
         <v>0.00213</v>
       </c>
       <c r="P112" t="n">
-        <v>1.421331482888013e-05</v>
+        <v>4.062680733140113e-05</v>
       </c>
     </row>
     <row r="113">
@@ -6997,13 +6997,13 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>1.090063699650187e-05</v>
+        <v>4.666731633140001e-05</v>
       </c>
       <c r="O113" t="n">
         <v>0.00297</v>
       </c>
       <c r="P113" t="n">
-        <v>5.701033149170476e-06</v>
+        <v>2.440700644132221e-05</v>
       </c>
     </row>
     <row r="114">
@@ -7055,13 +7055,13 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>8.912415534567396e-06</v>
+        <v>3.569801172807375e-05</v>
       </c>
       <c r="O114" t="n">
         <v>0.00419</v>
       </c>
       <c r="P114" t="n">
-        <v>3.680827615776334e-06</v>
+        <v>1.474327884369446e-05</v>
       </c>
     </row>
     <row r="115">
@@ -7113,13 +7113,13 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>5.806636021058567e-05</v>
+        <v>0.0001132761041508567</v>
       </c>
       <c r="O115" t="n">
         <v>0.000963</v>
       </c>
       <c r="P115" t="n">
-        <v>3.36204225619291e-05</v>
+        <v>6.558686430334605e-05</v>
       </c>
     </row>
     <row r="116">
@@ -7171,13 +7171,13 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.787312773332901e-05</v>
+        <v>8.847332213648882e-05</v>
       </c>
       <c r="O116" t="n">
         <v>0.00143</v>
       </c>
       <c r="P116" t="n">
-        <v>0.001030149074346549</v>
+        <v>0.002406474362112496</v>
       </c>
     </row>
     <row r="117">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>1.926773073864003e-05</v>
+        <v>7.16565876710729e-05</v>
       </c>
       <c r="O117" t="n">
         <v>0.00201</v>
       </c>
       <c r="P117" t="n">
-        <v>8.497069255740254e-06</v>
+        <v>3.160055516294315e-05</v>
       </c>
     </row>
     <row r="118">
@@ -7287,13 +7287,13 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>1.56402004092904e-05</v>
+        <v>5.674684829110599e-05</v>
       </c>
       <c r="O118" t="n">
         <v>0.00269</v>
       </c>
       <c r="P118" t="n">
-        <v>0.0001540559740315104</v>
+        <v>0.000558956455667394</v>
       </c>
     </row>
     <row r="119">
@@ -7345,13 +7345,13 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>9.933198908574648e-05</v>
+        <v>0.0001134394344277906</v>
       </c>
       <c r="O119" t="n">
         <v>0.0012</v>
       </c>
       <c r="P119" t="n">
-        <v>7.737961949779651e-05</v>
+        <v>8.836931941924887e-05</v>
       </c>
     </row>
     <row r="120">
@@ -7403,13 +7403,13 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>6.910448494508778e-05</v>
+        <v>0.0001145614101361341</v>
       </c>
       <c r="O120" t="n">
         <v>0.00166</v>
       </c>
       <c r="P120" t="n">
-        <v>4.0149705753096e-05</v>
+        <v>6.656017928909393e-05</v>
       </c>
     </row>
     <row r="121">
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.487696849623839e-05</v>
+        <v>0.0001020600523587249</v>
       </c>
       <c r="O121" t="n">
         <v>0.00237</v>
       </c>
       <c r="P121" t="n">
-        <v>4.32474409353356e-06</v>
+        <v>1.265544649248189e-05</v>
       </c>
     </row>
     <row r="122">
@@ -7519,13 +7519,13 @@
         </is>
       </c>
       <c r="N122" t="n">
-        <v>2.845833733176529e-05</v>
+        <v>8.709986238453812e-05</v>
       </c>
       <c r="O122" t="n">
         <v>0.0032</v>
       </c>
       <c r="P122" t="n">
-        <v>2.370579499736049e-05</v>
+        <v>7.255418536632024e-05</v>
       </c>
     </row>
     <row r="123">
@@ -7577,13 +7577,13 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>0.0001696976447938595</v>
+        <v>0.0001248735039916708</v>
       </c>
       <c r="O123" t="n">
         <v>0.00171</v>
       </c>
       <c r="P123" t="n">
-        <v>3.343043602439033e-05</v>
+        <v>2.460008028635915e-05</v>
       </c>
     </row>
     <row r="124">
@@ -7635,13 +7635,13 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>0.0001233023377893123</v>
+        <v>0.000144449899006409</v>
       </c>
       <c r="O124" t="n">
         <v>0.0023</v>
       </c>
       <c r="P124" t="n">
-        <v>2.367404885554796e-05</v>
+        <v>2.773438060923053e-05</v>
       </c>
     </row>
     <row r="125">
@@ -7693,13 +7693,13 @@
         </is>
       </c>
       <c r="N125" t="n">
-        <v>6.409112220326811e-05</v>
+        <v>0.0001396189272330313</v>
       </c>
       <c r="O125" t="n">
         <v>0.00305</v>
       </c>
       <c r="P125" t="n">
-        <v>0.0001493323147336147</v>
+        <v>0.000325312100452963</v>
       </c>
     </row>
     <row r="126">
@@ -7751,13 +7751,13 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>5.128616314915616e-05</v>
+        <v>0.0001271549276491861</v>
       </c>
       <c r="O126" t="n">
         <v>0.00431</v>
       </c>
       <c r="P126" t="n">
-        <v>0.0001687314767607238</v>
+        <v>0.0004183397119658223</v>
       </c>
     </row>
     <row r="127">
@@ -7809,13 +7809,13 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>9.553525919879673e-05</v>
+        <v>0.0001891433999562068</v>
       </c>
       <c r="O127" t="n">
         <v>0.00101</v>
       </c>
       <c r="P127" t="n">
-        <v>0.0001069994903026523</v>
+        <v>0.0002118406079509517</v>
       </c>
     </row>
     <row r="128">
@@ -7867,13 +7867,13 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>6.061538508562827e-05</v>
+        <v>0.0001275565151531653</v>
       </c>
       <c r="O128" t="n">
         <v>0.0015</v>
       </c>
       <c r="P128" t="n">
-        <v>0.0001163815393644063</v>
+        <v>0.0002449085090940773</v>
       </c>
     </row>
     <row r="129">
@@ -7925,13 +7925,13 @@
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.01031386050098e-05</v>
+        <v>8.98646528580819e-05</v>
       </c>
       <c r="O129" t="n">
         <v>0.00214</v>
       </c>
       <c r="P129" t="n">
-        <v>1.962724637046639e-05</v>
+        <v>5.85917536634694e-05</v>
       </c>
     </row>
     <row r="130">
@@ -7983,13 +7983,13 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>2.463376087897379e-05</v>
+        <v>6.906197832972544e-05</v>
       </c>
       <c r="O130" t="n">
         <v>0.00295</v>
       </c>
       <c r="P130" t="n">
-        <v>5.173089784584495e-06</v>
+        <v>1.450301544924234e-05</v>
       </c>
     </row>
     <row r="131">
@@ -8041,13 +8041,13 @@
         </is>
       </c>
       <c r="N131" t="n">
-        <v>0.0001606782523726226</v>
+        <v>0.0002364778480726851</v>
       </c>
       <c r="O131" t="n">
         <v>0.00071</v>
       </c>
       <c r="P131" t="n">
-        <v>0.0001002632294805165</v>
+        <v>0.0001475621771973555</v>
       </c>
     </row>
     <row r="132">
@@ -8099,13 +8099,13 @@
         </is>
       </c>
       <c r="N132" t="n">
-        <v>0.0001055934749596727</v>
+        <v>0.000185724984439462</v>
       </c>
       <c r="O132" t="n">
         <v>0.001</v>
       </c>
       <c r="P132" t="n">
-        <v>9.292225796451199e-05</v>
+        <v>0.0001634379863067265</v>
       </c>
     </row>
     <row r="133">
@@ -8157,13 +8157,13 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>5.338332799320103e-05</v>
+        <v>0.0001394006068324903</v>
       </c>
       <c r="O133" t="n">
         <v>0.00139</v>
       </c>
       <c r="P133" t="n">
-        <v>1.633529836591951e-05</v>
+        <v>4.265658569074202e-05</v>
       </c>
     </row>
     <row r="134">
@@ -8215,13 +8215,13 @@
         </is>
       </c>
       <c r="N134" t="n">
-        <v>4.33244743234844e-05</v>
+        <v>0.0001104905658057946</v>
       </c>
       <c r="O134" t="n">
         <v>0.00188</v>
       </c>
       <c r="P134" t="n">
-        <v>6.628644571493113e-05</v>
+        <v>0.0001690505656828658</v>
       </c>
     </row>
     <row r="135">
@@ -8273,13 +8273,13 @@
         </is>
       </c>
       <c r="N135" t="n">
-        <v>0.0002808951727222102</v>
+        <v>0.0002644437629803952</v>
       </c>
       <c r="O135" t="n">
         <v>0.000885</v>
       </c>
       <c r="P135" t="n">
-        <v>0.0004999934074455341</v>
+        <v>0.0004707098981051034</v>
       </c>
     </row>
     <row r="136">
@@ -8331,13 +8331,13 @@
         </is>
       </c>
       <c r="N136" t="n">
-        <v>0.0001958436507016095</v>
+        <v>0.0002552590250940605</v>
       </c>
       <c r="O136" t="n">
         <v>0.00122</v>
       </c>
       <c r="P136" t="n">
-        <v>0.0002232617617998348</v>
+        <v>0.000290995288607229</v>
       </c>
     </row>
     <row r="137">
@@ -8389,13 +8389,13 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>9.88917019481367e-05</v>
+        <v>0.0002049424239141271</v>
       </c>
       <c r="O137" t="n">
         <v>0.00167</v>
       </c>
       <c r="P137" t="n">
-        <v>0.0004074338120263232</v>
+        <v>0.0008443627865262037</v>
       </c>
     </row>
     <row r="138">
@@ -8447,13 +8447,13 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>7.969730996828271e-05</v>
+        <v>0.0001719553003317692</v>
       </c>
       <c r="O138" t="n">
         <v>0.00222</v>
       </c>
       <c r="P138" t="n">
-        <v>0.0005538963042795649</v>
+        <v>0.001195089337305796</v>
       </c>
     </row>
     <row r="139">
@@ -8505,13 +8505,13 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>0.0004963181595409377</v>
+        <v>0.0003363103156821894</v>
       </c>
       <c r="O139" t="n">
         <v>0.00125</v>
       </c>
       <c r="P139" t="n">
-        <v>0.0004188925266525514</v>
+        <v>0.0002838459064357679</v>
       </c>
     </row>
     <row r="140">
@@ -8563,13 +8563,13 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>0.0003631732433095731</v>
+        <v>0.0003511381124944979</v>
       </c>
       <c r="O140" t="n">
         <v>0.00169</v>
       </c>
       <c r="P140" t="n">
-        <v>0.002978020595138499</v>
+        <v>0.002879332522454882</v>
       </c>
     </row>
     <row r="141">
@@ -8621,13 +8621,13 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>0.0001842217410982511</v>
+        <v>0.0002911353294553377</v>
       </c>
       <c r="O141" t="n">
         <v>0.00222</v>
       </c>
       <c r="P141" t="n">
-        <v>0.0005305586143629633</v>
+        <v>0.0008384697488313726</v>
       </c>
     </row>
     <row r="142">
@@ -8679,13 +8679,13 @@
         </is>
       </c>
       <c r="N142" t="n">
-        <v>0.0001434149266783937</v>
+        <v>0.000254466772189677</v>
       </c>
       <c r="O142" t="n">
         <v>0.00301</v>
       </c>
       <c r="P142" t="n">
-        <v>2.940005996907071e-05</v>
+        <v>5.216568829888378e-05</v>
       </c>
     </row>
     <row r="143">
@@ -8737,13 +8737,13 @@
         </is>
       </c>
       <c r="N143" t="n">
-        <v>0.0003032692679362675</v>
+        <v>0.0004787642225490063</v>
       </c>
       <c r="O143" t="n">
         <v>0.000925</v>
       </c>
       <c r="P143" t="n">
-        <v>0.000299326767453096</v>
+        <v>0.0004725402876558692</v>
       </c>
     </row>
     <row r="144">
@@ -8795,13 +8795,13 @@
         </is>
       </c>
       <c r="N144" t="n">
-        <v>0.0001899259837489734</v>
+        <v>0.0003236087213337656</v>
       </c>
       <c r="O144" t="n">
         <v>0.00137</v>
       </c>
       <c r="P144" t="n">
-        <v>0.0003874490068479056</v>
+        <v>0.0006601617915208819</v>
       </c>
     </row>
     <row r="145">
@@ -8853,13 +8853,13 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>9.311434434126528e-05</v>
+        <v>0.0002099076384379955</v>
       </c>
       <c r="O145" t="n">
         <v>0.00194</v>
       </c>
       <c r="P145" t="n">
-        <v>0.0001880909755693558</v>
+        <v>0.0004240134296447509</v>
       </c>
     </row>
     <row r="146">
@@ -8911,13 +8911,13 @@
         </is>
       </c>
       <c r="N146" t="n">
-        <v>7.579248449973442e-05</v>
+        <v>0.0001623946187833879</v>
       </c>
       <c r="O146" t="n">
         <v>0.00263</v>
       </c>
       <c r="P146" t="n">
-        <v>9.853022984965475e-05</v>
+        <v>0.0002111130044184043</v>
       </c>
     </row>
     <row r="147">
@@ -8969,13 +8969,13 @@
         </is>
       </c>
       <c r="N147" t="n">
-        <v>0.0005116335613323656</v>
+        <v>0.0006292113988394535</v>
       </c>
       <c r="O147" t="n">
         <v>0.000673</v>
       </c>
       <c r="P147" t="n">
-        <v>0.001023267122664731</v>
+        <v>0.001258422797678907</v>
       </c>
     </row>
     <row r="148">
@@ -9027,13 +9027,13 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>0.0003331657254872868</v>
+        <v>0.0004853194850216844</v>
       </c>
       <c r="O148" t="n">
         <v>0.00094</v>
       </c>
       <c r="P148" t="n">
-        <v>3.135089476835369e-06</v>
+        <v>4.566856354054051e-06</v>
       </c>
     </row>
     <row r="149">
@@ -9085,13 +9085,13 @@
         </is>
       </c>
       <c r="N149" t="n">
-        <v>0.0001654631037244487</v>
+        <v>0.0003298845068247379</v>
       </c>
       <c r="O149" t="n">
         <v>0.00128</v>
       </c>
       <c r="P149" t="n">
-        <v>0.0004732244766519233</v>
+        <v>0.0009434696895187503</v>
       </c>
     </row>
     <row r="150">
@@ -9143,13 +9143,13 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>0.0001330368628703171</v>
+        <v>0.0002612540544622967</v>
       </c>
       <c r="O150" t="n">
         <v>0.00169</v>
       </c>
       <c r="P150" t="n">
-        <v>8.993291930033438e-05</v>
+        <v>0.0001766077408165126</v>
       </c>
     </row>
     <row r="151">
@@ -9201,13 +9201,13 @@
         </is>
       </c>
       <c r="N151" t="n">
-        <v>0.0009307124306024965</v>
+        <v>0.0007982644612835734</v>
       </c>
       <c r="O151" t="n">
         <v>0.000855</v>
       </c>
       <c r="P151" t="n">
-        <v>0.004374348423831734</v>
+        <v>0.003751842968032795</v>
       </c>
     </row>
     <row r="152">
@@ -9259,13 +9259,13 @@
         </is>
       </c>
       <c r="N152" t="n">
-        <v>0.0006287908121526272</v>
+        <v>0.0007063828512276053</v>
       </c>
       <c r="O152" t="n">
         <v>0.00117</v>
       </c>
       <c r="P152" t="n">
-        <v>0.0001553113306016989</v>
+        <v>0.0001744765642532185</v>
       </c>
     </row>
     <row r="153">
@@ -9317,13 +9317,13 @@
         </is>
       </c>
       <c r="N153" t="n">
-        <v>0.0003105969153067807</v>
+        <v>0.0005016483404459899</v>
       </c>
       <c r="O153" t="n">
         <v>0.00154</v>
       </c>
       <c r="P153" t="n">
-        <v>0.00116163246324736</v>
+        <v>0.001876164793268002</v>
       </c>
     </row>
     <row r="154">
@@ -9375,13 +9375,13 @@
         </is>
       </c>
       <c r="N154" t="n">
-        <v>0.0002450907216899652</v>
+        <v>0.0004108260857081418</v>
       </c>
       <c r="O154" t="n">
         <v>0.00198</v>
       </c>
       <c r="P154" t="n">
-        <v>0.000119849362906393</v>
+        <v>0.0002008939559112813</v>
       </c>
     </row>
     <row r="155">
@@ -9433,13 +9433,13 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>0.001743426320551497</v>
+        <v>0.001137977754624998</v>
       </c>
       <c r="O155" t="n">
         <v>0.00122</v>
       </c>
       <c r="P155" t="n">
-        <v>0.03992446274062927</v>
+        <v>0.02605969058091245</v>
       </c>
     </row>
     <row r="156">
@@ -9491,13 +9491,13 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>0.001220283586534539</v>
+        <v>0.001067609789361892</v>
       </c>
       <c r="O156" t="n">
         <v>0.00165</v>
       </c>
       <c r="P156" t="n">
-        <v>6.345474649979601e-05</v>
+        <v>5.551570904681839e-05</v>
       </c>
     </row>
     <row r="157">
@@ -9549,13 +9549,13 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>0.000593044895368182</v>
+        <v>0.0007539450512548043</v>
       </c>
       <c r="O157" t="n">
         <v>0.00213</v>
       </c>
       <c r="P157" t="n">
-        <v>2.520440805314774e-06</v>
+        <v>3.204266467832919e-06</v>
       </c>
     </row>
     <row r="158">
@@ -9607,13 +9607,13 @@
         </is>
       </c>
       <c r="N158" t="n">
-        <v>0.0004478894677313171</v>
+        <v>0.00062802723347341</v>
       </c>
       <c r="O158" t="n">
         <v>0.00272</v>
       </c>
       <c r="P158" t="n">
-        <v>0.0004402753467798848</v>
+        <v>0.0006173507705043619</v>
       </c>
     </row>
     <row r="159">
@@ -9665,13 +9665,13 @@
         </is>
       </c>
       <c r="N159" t="n">
-        <v>0.0009460171165988499</v>
+        <v>0.00129838115985253</v>
       </c>
       <c r="O159" t="n">
         <v>0.0008899999999999999</v>
       </c>
       <c r="P159" t="n">
-        <v>0.0003538104016079698</v>
+        <v>0.0004855945537848461</v>
       </c>
     </row>
     <row r="160">
@@ -9723,13 +9723,13 @@
         </is>
       </c>
       <c r="N160" t="n">
-        <v>0.0006010169566688119</v>
+        <v>0.0008935257649550428</v>
       </c>
       <c r="O160" t="n">
         <v>0.00133</v>
       </c>
       <c r="P160" t="n">
-        <v>0.0009496067915367229</v>
+        <v>0.001411770708628968</v>
       </c>
     </row>
     <row r="161">
@@ -9781,13 +9781,13 @@
         </is>
       </c>
       <c r="N161" t="n">
-        <v>0.0002912293342786647</v>
+        <v>0.0005378372903365129</v>
       </c>
       <c r="O161" t="n">
         <v>0.00185</v>
       </c>
       <c r="P161" t="n">
-        <v>0.0001849306272669521</v>
+        <v>0.0003415266793636857</v>
       </c>
     </row>
     <row r="162">
@@ -9839,13 +9839,13 @@
         </is>
       </c>
       <c r="N162" t="n">
-        <v>0.0002319290688081917</v>
+        <v>0.0004141041194703312</v>
       </c>
       <c r="O162" t="n">
         <v>0.00245</v>
       </c>
       <c r="P162" t="n">
-        <v>0.001400851575601478</v>
+        <v>0.002501188881600801</v>
       </c>
     </row>
     <row r="163">
@@ -9897,13 +9897,13 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>0.001636281782979485</v>
+        <v>0.001816544402144781</v>
       </c>
       <c r="O163" t="n">
         <v>0.0006489999999999999</v>
       </c>
       <c r="P163" t="n">
-        <v>0.0005383367066002507</v>
+        <v>0.0005976431083056329</v>
       </c>
     </row>
     <row r="164">
@@ -9955,13 +9955,13 @@
         </is>
       </c>
       <c r="N164" t="n">
-        <v>0.00106316342018383</v>
+        <v>0.001375323235319193</v>
       </c>
       <c r="O164" t="n">
         <v>0.000903</v>
       </c>
       <c r="P164" t="n">
-        <v>0.0119074303060589</v>
+        <v>0.01540362023557496</v>
       </c>
     </row>
     <row r="165">
@@ -10013,13 +10013,13 @@
         </is>
       </c>
       <c r="N165" t="n">
-        <v>0.000519921833138341</v>
+        <v>0.0008581471359785934</v>
       </c>
       <c r="O165" t="n">
         <v>0.00123</v>
       </c>
       <c r="P165" t="n">
-        <v>0.002090085769216131</v>
+        <v>0.003449751486633945</v>
       </c>
     </row>
     <row r="166">
@@ -10071,13 +10071,13 @@
         </is>
       </c>
       <c r="N166" t="n">
-        <v>0.0004078884998438128</v>
+        <v>0.0006708468394482927</v>
       </c>
       <c r="O166" t="n">
         <v>0.00162</v>
       </c>
       <c r="P166" t="n">
-        <v>0.0002247465634139409</v>
+        <v>0.0003696366085360093</v>
       </c>
     </row>
     <row r="167">
@@ -10129,13 +10129,13 @@
         </is>
       </c>
       <c r="N167" t="n">
-        <v>0.003125766643669863</v>
+        <v>0.002561172308542983</v>
       </c>
       <c r="O167" t="n">
         <v>0.000847</v>
       </c>
       <c r="P167" t="n">
-        <v>0.2685033546912413</v>
+        <v>0.2200047013038423</v>
       </c>
     </row>
     <row r="168">
@@ -10187,13 +10187,13 @@
         </is>
       </c>
       <c r="N168" t="n">
-        <v>0.00207061320524822</v>
+        <v>0.002137969530849701</v>
       </c>
       <c r="O168" t="n">
         <v>0.00115</v>
       </c>
       <c r="P168" t="n">
-        <v>0.001716538347150774</v>
+        <v>0.001772376741074402</v>
       </c>
     </row>
     <row r="169">
@@ -10245,13 +10245,13 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>0.001000861613522084</v>
+        <v>0.001364841089344274</v>
       </c>
       <c r="O169" t="n">
         <v>0.00148</v>
       </c>
       <c r="P169" t="n">
-        <v>0.00047540926642299</v>
+        <v>0.0006482995174385304</v>
       </c>
     </row>
     <row r="170">
@@ -10303,13 +10303,13 @@
         </is>
       </c>
       <c r="N170" t="n">
-        <v>0.0007574388213296669</v>
+        <v>0.001081566356395948</v>
       </c>
       <c r="O170" t="n">
         <v>0.0019</v>
       </c>
       <c r="P170" t="n">
-        <v>0.001105860679141314</v>
+        <v>0.001579086880338084</v>
       </c>
     </row>
     <row r="171">
@@ -10361,13 +10361,13 @@
         </is>
       </c>
       <c r="N171" t="n">
-        <v>0.006321807239487821</v>
+        <v>0.004005558095974637</v>
       </c>
       <c r="O171" t="n">
         <v>0.00123</v>
       </c>
       <c r="P171" t="n">
-        <v>0.007080424108226359</v>
+        <v>0.004486225067491594</v>
       </c>
     </row>
     <row r="172">
@@ -10419,13 +10419,13 @@
         </is>
       </c>
       <c r="N172" t="n">
-        <v>0.004209203797568168</v>
+        <v>0.003464869995854617</v>
       </c>
       <c r="O172" t="n">
         <v>0.00163</v>
       </c>
       <c r="P172" t="n">
-        <v>0.008165855367282244</v>
+        <v>0.006721847791957956</v>
       </c>
     </row>
     <row r="173">
@@ -10477,13 +10477,13 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>0.001967721469917499</v>
+        <v>0.002165095150671986</v>
       </c>
       <c r="O173" t="n">
         <v>0.00208</v>
       </c>
       <c r="P173" t="n">
-        <v>0.003168031566567173</v>
+        <v>0.003485803192581897</v>
       </c>
     </row>
     <row r="174">
@@ -10535,13 +10535,13 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>0.001418409761647597</v>
+        <v>0.001724829753070949</v>
       </c>
       <c r="O174" t="n">
         <v>0.0027</v>
       </c>
       <c r="P174" t="n">
-        <v>6.623973586894275e-05</v>
+        <v>8.054954946841331e-05</v>
       </c>
     </row>
     <row r="175">
@@ -10593,13 +10593,13 @@
         </is>
       </c>
       <c r="N175" t="n">
-        <v>0.002923857415736789</v>
+        <v>0.003700418384057453</v>
       </c>
       <c r="O175" t="n">
         <v>0.000902</v>
       </c>
       <c r="P175" t="n">
-        <v>0.005759999109001474</v>
+        <v>0.007289824216593182</v>
       </c>
     </row>
     <row r="176">
@@ -10651,13 +10651,13 @@
         </is>
       </c>
       <c r="N176" t="n">
-        <v>0.001833420042453102</v>
+        <v>0.002504928960196376</v>
       </c>
       <c r="O176" t="n">
         <v>0.0013</v>
       </c>
       <c r="P176" t="n">
-        <v>0.00216343565009466</v>
+        <v>0.002955816173031724</v>
       </c>
     </row>
     <row r="177">
@@ -10709,13 +10709,13 @@
         </is>
       </c>
       <c r="N177" t="n">
-        <v>0.0008789812242095613</v>
+        <v>0.001422196562541992</v>
       </c>
       <c r="O177" t="n">
         <v>0.00182</v>
       </c>
       <c r="P177" t="n">
-        <v>0.0006785735050897813</v>
+        <v>0.001097935746282418</v>
       </c>
     </row>
     <row r="178">
@@ -10767,13 +10767,13 @@
         </is>
       </c>
       <c r="N178" t="n">
-        <v>0.0006681734187362529</v>
+        <v>0.001069916157044163</v>
       </c>
       <c r="O178" t="n">
         <v>0.00235</v>
       </c>
       <c r="P178" t="n">
-        <v>0.002078019332269746</v>
+        <v>0.003327439248407348</v>
       </c>
     </row>
     <row r="179">
@@ -10825,13 +10825,13 @@
         </is>
       </c>
       <c r="N179" t="n">
-        <v>0.005178001140387902</v>
+        <v>0.005447520113040707</v>
       </c>
       <c r="O179" t="n">
         <v>0.00066</v>
       </c>
       <c r="P179" t="n">
-        <v>0.01486086327291328</v>
+        <v>0.01563438272442683</v>
       </c>
     </row>
     <row r="180">
@@ -10883,13 +10883,13 @@
         </is>
       </c>
       <c r="N180" t="n">
-        <v>0.003297221175753811</v>
+        <v>0.003968237545060082</v>
       </c>
       <c r="O180" t="n">
         <v>0.000897</v>
       </c>
       <c r="P180" t="n">
-        <v>0.003158737886372151</v>
+        <v>0.003801571568167558</v>
       </c>
     </row>
     <row r="181">
@@ -10941,13 +10941,13 @@
         </is>
       </c>
       <c r="N181" t="n">
-        <v>0.001577654683844646</v>
+        <v>0.00230748828773449</v>
       </c>
       <c r="O181" t="n">
         <v>0.00121</v>
       </c>
       <c r="P181" t="n">
-        <v>0.001593431230683092</v>
+        <v>0.002330563170611835</v>
       </c>
     </row>
     <row r="182">
@@ -10999,13 +10999,13 @@
         </is>
       </c>
       <c r="N182" t="n">
-        <v>0.00119401371220278</v>
+        <v>0.00177624563695674</v>
       </c>
       <c r="O182" t="n">
         <v>0.00158</v>
       </c>
       <c r="P182" t="n">
-        <v>0.001516397414497531</v>
+        <v>0.00225583195893506</v>
       </c>
     </row>
     <row r="183">
@@ -11057,13 +11057,13 @@
         </is>
       </c>
       <c r="N183" t="n">
-        <v>0.01041212250483029</v>
+        <v>0.008294094765988304</v>
       </c>
       <c r="O183" t="n">
         <v>0.000871</v>
       </c>
       <c r="P183" t="n">
-        <v>0.03706715611719583</v>
+        <v>0.02952697736691836</v>
       </c>
     </row>
     <row r="184">
@@ -11115,13 +11115,13 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>0.00658001403160422</v>
+        <v>0.00643849922305826</v>
       </c>
       <c r="O184" t="n">
         <v>0.00113</v>
       </c>
       <c r="P184" t="n">
-        <v>0.02730705823115751</v>
+        <v>0.02671977177569178</v>
       </c>
     </row>
     <row r="185">
@@ -11173,13 +11173,13 @@
         </is>
       </c>
       <c r="N185" t="n">
-        <v>0.003116202495540777</v>
+        <v>0.0038132652853112</v>
       </c>
       <c r="O185" t="n">
         <v>0.00146</v>
       </c>
       <c r="P185" t="n">
-        <v>0.001698330360069724</v>
+        <v>0.002078229580494604</v>
       </c>
     </row>
     <row r="186">
@@ -11231,13 +11231,13 @@
         </is>
       </c>
       <c r="N186" t="n">
-        <v>0.002281709067430561</v>
+        <v>0.002977242458808494</v>
       </c>
       <c r="O186" t="n">
         <v>0.00184</v>
       </c>
       <c r="P186" t="n">
-        <v>0.005430467580484736</v>
+        <v>0.007085837051964216</v>
       </c>
     </row>
     <row r="187">
@@ -11289,13 +11289,13 @@
         </is>
       </c>
       <c r="N187" t="n">
-        <v>0.02257914366530406</v>
+        <v>0.01381288579858374</v>
       </c>
       <c r="O187" t="n">
         <v>0.0013</v>
       </c>
       <c r="P187" t="n">
-        <v>0.02596601521509967</v>
+        <v>0.0158848186683713</v>
       </c>
     </row>
     <row r="188">
@@ -11347,13 +11347,13 @@
         </is>
       </c>
       <c r="N188" t="n">
-        <v>0.01423269520917317</v>
+        <v>0.01114083478772426</v>
       </c>
       <c r="O188" t="n">
         <v>0.00166</v>
       </c>
       <c r="P188" t="n">
-        <v>0.008397290173412172</v>
+        <v>0.006573092524757316</v>
       </c>
     </row>
     <row r="189">
@@ -11405,13 +11405,13 @@
         </is>
       </c>
       <c r="N189" t="n">
-        <v>0.006347668891885381</v>
+        <v>0.006370679406046909</v>
       </c>
       <c r="O189" t="n">
         <v>0.00206</v>
       </c>
       <c r="P189" t="n">
-        <v>0.004310067177590173</v>
+        <v>0.004325691316705851</v>
       </c>
     </row>
     <row r="190">
@@ -11463,13 +11463,13 @@
         </is>
       </c>
       <c r="N190" t="n">
-        <v>0.004338199097327421</v>
+        <v>0.004883546579944224</v>
       </c>
       <c r="O190" t="n">
         <v>0.00261</v>
       </c>
       <c r="P190" t="n">
-        <v>0.004685255025113615</v>
+        <v>0.005274230306339762</v>
       </c>
     </row>
     <row r="191">
@@ -11521,13 +11521,13 @@
         </is>
       </c>
       <c r="N191" t="n">
-        <v>0.008240280719145229</v>
+        <v>0.009986199732780771</v>
       </c>
       <c r="O191" t="n">
         <v>0.000964</v>
       </c>
       <c r="P191" t="n">
-        <v>0.008240280719145229</v>
+        <v>0.009986199732780771</v>
       </c>
     </row>
     <row r="192">
@@ -11579,13 +11579,13 @@
         </is>
       </c>
       <c r="N192" t="n">
-        <v>0.005077285018179168</v>
+        <v>0.006578479732527809</v>
       </c>
       <c r="O192" t="n">
         <v>0.00132</v>
       </c>
       <c r="P192" t="n">
-        <v>0.004173528284943276</v>
+        <v>0.005407510340137859</v>
       </c>
     </row>
     <row r="193">
@@ -11637,13 +11637,13 @@
         </is>
       </c>
       <c r="N193" t="n">
-        <v>0.00238502574999439</v>
+        <v>0.003549134536496022</v>
       </c>
       <c r="O193" t="n">
         <v>0.00179</v>
       </c>
       <c r="P193" t="n">
-        <v>0.006105665919985638</v>
+        <v>0.009085784413429818</v>
       </c>
     </row>
     <row r="194">
@@ -11695,13 +11695,13 @@
         </is>
       </c>
       <c r="N194" t="n">
-        <v>0.00178083745535758</v>
+        <v>0.002689869450074669</v>
       </c>
       <c r="O194" t="n">
         <v>0.00228</v>
       </c>
       <c r="P194" t="n">
-        <v>0.003828800529018798</v>
+        <v>0.005783219317660539</v>
       </c>
     </row>
     <row r="195">
@@ -11753,13 +11753,13 @@
         </is>
       </c>
       <c r="N195" t="n">
-        <v>0.01481200685939001</v>
+        <v>0.015129860617025</v>
       </c>
       <c r="O195" t="n">
         <v>0.0006980000000000001</v>
       </c>
       <c r="P195" t="n">
-        <v>0.01821876843704972</v>
+        <v>0.01860972855894075</v>
       </c>
     </row>
     <row r="196">
@@ -11811,13 +11811,13 @@
         </is>
       </c>
       <c r="N196" t="n">
-        <v>0.009354098596728887</v>
+        <v>0.01073678887958141</v>
       </c>
       <c r="O196" t="n">
         <v>0.000923</v>
       </c>
       <c r="P196" t="n">
-        <v>0.002226275466021475</v>
+        <v>0.002555355753340376</v>
       </c>
     </row>
     <row r="197">
@@ -11869,13 +11869,13 @@
         </is>
       </c>
       <c r="N197" t="n">
-        <v>0.004368794564606366</v>
+        <v>0.00590195697804175</v>
       </c>
       <c r="O197" t="n">
         <v>0.0012</v>
       </c>
       <c r="P197" t="n">
-        <v>0.001227631272654389</v>
+        <v>0.001658449910829732</v>
       </c>
     </row>
     <row r="198">
@@ -11927,13 +11927,13 @@
         </is>
       </c>
       <c r="N198" t="n">
-        <v>0.00316606896411887</v>
+        <v>0.004461883355181323</v>
       </c>
       <c r="O198" t="n">
         <v>0.00155</v>
       </c>
       <c r="P198" t="n">
-        <v>0.004242532411919285</v>
+        <v>0.005978923695942974</v>
       </c>
     </row>
     <row r="199">
@@ -11985,13 +11985,13 @@
         </is>
       </c>
       <c r="N199" t="n">
-        <v>0.0313547219289492</v>
+        <v>0.02450574078182938</v>
       </c>
       <c r="O199" t="n">
         <v>0.000934</v>
       </c>
       <c r="P199" t="n">
-        <v>0.03762566631473904</v>
+        <v>0.02940688893819526</v>
       </c>
     </row>
     <row r="200">
@@ -12043,13 +12043,13 @@
         </is>
       </c>
       <c r="N200" t="n">
-        <v>0.01941914354950013</v>
+        <v>0.01823542568038825</v>
       </c>
       <c r="O200" t="n">
         <v>0.00118</v>
       </c>
       <c r="P200" t="n">
-        <v>0.003747894705053525</v>
+        <v>0.003519437156314932</v>
       </c>
     </row>
     <row r="201">
@@ -12101,13 +12101,13 @@
         </is>
       </c>
       <c r="N201" t="n">
-        <v>0.008895209634016497</v>
+        <v>0.01014640449374936</v>
       </c>
       <c r="O201" t="n">
         <v>0.00146</v>
       </c>
       <c r="P201" t="n">
-        <v>0.003611455111410698</v>
+        <v>0.004119440224462239</v>
       </c>
     </row>
     <row r="202">
@@ -12159,13 +12159,13 @@
         </is>
       </c>
       <c r="N202" t="n">
-        <v>0.006110737188359149</v>
+        <v>0.007622788375930826</v>
       </c>
       <c r="O202" t="n">
         <v>0.00184</v>
       </c>
       <c r="P202" t="n">
-        <v>0.001882107054014618</v>
+        <v>0.002347818819786694</v>
       </c>
     </row>
     <row r="203">
@@ -12217,13 +12217,13 @@
         </is>
       </c>
       <c r="N203" t="n">
-        <v>0.07380722855106515</v>
+        <v>0.04328876613317014</v>
       </c>
       <c r="O203" t="n">
         <v>0.00141</v>
       </c>
       <c r="P203" t="n">
-        <v>0.03978209618902412</v>
+        <v>0.02333264494577871</v>
       </c>
     </row>
     <row r="204">
@@ -12275,13 +12275,13 @@
         </is>
       </c>
       <c r="N204" t="n">
-        <v>0.04463682602438739</v>
+        <v>0.03337772970010584</v>
       </c>
       <c r="O204" t="n">
         <v>0.00174</v>
       </c>
       <c r="P204" t="n">
-        <v>0.02428243335726674</v>
+        <v>0.01815748495685758</v>
       </c>
     </row>
     <row r="205">
@@ -12333,13 +12333,13 @@
         </is>
       </c>
       <c r="N205" t="n">
-        <v>0.01881997125615011</v>
+        <v>0.0177122247383402</v>
       </c>
       <c r="O205" t="n">
         <v>0.00214</v>
       </c>
       <c r="P205" t="n">
-        <v>0.05683631319357334</v>
+        <v>0.05349091870978739</v>
       </c>
     </row>
     <row r="206">
@@ -12391,13 +12391,13 @@
         </is>
       </c>
       <c r="N206" t="n">
-        <v>0.01202941094224315</v>
+        <v>0.01303898371524329</v>
       </c>
       <c r="O206" t="n">
         <v>0.00261</v>
       </c>
       <c r="P206" t="n">
-        <v>0.005461352567778389</v>
+        <v>0.005919698606720454</v>
       </c>
     </row>
     <row r="207">
@@ -12449,13 +12449,13 @@
         </is>
       </c>
       <c r="N207" t="n">
-        <v>0.01824254454590671</v>
+        <v>0.02172919528652111</v>
       </c>
       <c r="O207" t="n">
         <v>0.00159</v>
       </c>
       <c r="P207" t="n">
-        <v>0.04797789215573464</v>
+        <v>0.05714778360355052</v>
       </c>
     </row>
     <row r="208">
@@ -12507,13 +12507,13 @@
         </is>
       </c>
       <c r="N208" t="n">
-        <v>0.01111917360816717</v>
+        <v>0.01391729401773442</v>
       </c>
       <c r="O208" t="n">
         <v>0.00222</v>
       </c>
       <c r="P208" t="n">
-        <v>0.002390622325755941</v>
+        <v>0.0029922182138129</v>
       </c>
     </row>
     <row r="209">
@@ -12565,13 +12565,13 @@
         </is>
       </c>
       <c r="N209" t="n">
-        <v>0.005143915252105254</v>
+        <v>0.007264762581270912</v>
       </c>
       <c r="O209" t="n">
         <v>0.00304</v>
       </c>
       <c r="P209" t="n">
-        <v>0.007510116268073671</v>
+        <v>0.01060655336865553</v>
       </c>
     </row>
     <row r="210">
@@ -12623,13 +12623,13 @@
         </is>
       </c>
       <c r="N210" t="n">
-        <v>0.00379609464805681</v>
+        <v>0.005567664617790665</v>
       </c>
       <c r="O210" t="n">
         <v>0.00402</v>
       </c>
       <c r="P210" t="n">
-        <v>0.001734815254161962</v>
+        <v>0.002544422730330334</v>
       </c>
     </row>
     <row r="211">
@@ -12681,13 +12681,13 @@
         </is>
       </c>
       <c r="N211" t="n">
-        <v>0.03315471833035469</v>
+        <v>0.03358273894544131</v>
       </c>
       <c r="O211" t="n">
         <v>0.00117</v>
       </c>
       <c r="P211" t="n">
-        <v>0.004011720917972918</v>
+        <v>0.004063511412398398</v>
       </c>
     </row>
     <row r="212">
@@ -12739,13 +12739,13 @@
         </is>
       </c>
       <c r="N212" t="n">
-        <v>0.02072319358331539</v>
+        <v>0.02312343997738701</v>
       </c>
       <c r="O212" t="n">
         <v>0.00154</v>
       </c>
       <c r="P212" t="n">
-        <v>0.008206384658992894</v>
+        <v>0.009156882231045257</v>
       </c>
     </row>
     <row r="213">
@@ -12797,13 +12797,13 @@
         </is>
       </c>
       <c r="N213" t="n">
-        <v>0.009574853938707358</v>
+        <v>0.01233353066110416</v>
       </c>
       <c r="O213" t="n">
         <v>0.00199</v>
       </c>
       <c r="P213" t="n">
-        <v>0.01206431596277127</v>
+        <v>0.01554024863299124</v>
       </c>
     </row>
     <row r="214">
@@ -12855,13 +12855,13 @@
         </is>
       </c>
       <c r="N214" t="n">
-        <v>0.006867361790782726</v>
+        <v>0.00943680132299635</v>
       </c>
       <c r="O214" t="n">
         <v>0.00257</v>
       </c>
       <c r="P214" t="n">
-        <v>0.002527189139008043</v>
+        <v>0.003472742886862657</v>
       </c>
     </row>
     <row r="215">
@@ -12913,13 +12913,13 @@
         </is>
       </c>
       <c r="N215" t="n">
-        <v>0.07237207158683255</v>
+        <v>0.05650283801701254</v>
       </c>
       <c r="O215" t="n">
         <v>0.00161</v>
       </c>
       <c r="P215" t="n">
-        <v>0.03198845564137999</v>
+        <v>0.02497425440351955</v>
       </c>
     </row>
     <row r="216">
@@ -12971,13 +12971,13 @@
         </is>
       </c>
       <c r="N216" t="n">
-        <v>0.04383564068868473</v>
+        <v>0.04036636400766188</v>
       </c>
       <c r="O216" t="n">
         <v>0.00198</v>
       </c>
       <c r="P216" t="n">
-        <v>0.01674521474307757</v>
+        <v>0.01541995105092684</v>
       </c>
     </row>
     <row r="217">
@@ -13029,13 +13029,13 @@
         </is>
       </c>
       <c r="N217" t="n">
-        <v>0.01968270183947989</v>
+        <v>0.0216311137099291</v>
       </c>
       <c r="O217" t="n">
         <v>0.00247</v>
       </c>
       <c r="P217" t="n">
-        <v>0.002676847450169265</v>
+        <v>0.002941831464550358</v>
       </c>
     </row>
     <row r="218">
@@ -13087,13 +13087,13 @@
         </is>
       </c>
       <c r="N218" t="n">
-        <v>0.01327361584337937</v>
+        <v>0.01626230044284462</v>
       </c>
       <c r="O218" t="n">
         <v>0.00303</v>
       </c>
       <c r="P218" t="n">
-        <v>0.001193298064319806</v>
+        <v>0.001461980809811731</v>
       </c>
     </row>
     <row r="219">
@@ -13145,13 +13145,13 @@
         </is>
       </c>
       <c r="N219" t="n">
-        <v>0.1775393609752425</v>
+        <v>0.1026679571759106</v>
       </c>
       <c r="O219" t="n">
         <v>0.00247</v>
       </c>
       <c r="P219" t="n">
-        <v>0.200619477902024</v>
+        <v>0.116014791608779</v>
       </c>
     </row>
     <row r="220">
@@ -13203,13 +13203,13 @@
         </is>
       </c>
       <c r="N220" t="n">
-        <v>0.1033505389906899</v>
+        <v>0.07602487221161429</v>
       </c>
       <c r="O220" t="n">
         <v>0.00298</v>
       </c>
       <c r="P220" t="n">
-        <v>0.006945156220174358</v>
+        <v>0.00510887141262048</v>
       </c>
     </row>
     <row r="221">
@@ -13261,13 +13261,13 @@
         </is>
       </c>
       <c r="N221" t="n">
-        <v>0.04385472612357387</v>
+        <v>0.0399766290152957</v>
       </c>
       <c r="O221" t="n">
         <v>0.00348</v>
       </c>
       <c r="P221" t="n">
-        <v>0.02973350431178309</v>
+        <v>0.02710415447237049</v>
       </c>
     </row>
     <row r="222">
@@ -13319,13 +13319,13 @@
         </is>
       </c>
       <c r="N222" t="n">
-        <v>0.02661896917203932</v>
+        <v>0.0285015636310508</v>
       </c>
       <c r="O222" t="n">
         <v>0.00447</v>
       </c>
       <c r="P222" t="n">
-        <v>0.003247514238988797</v>
+        <v>0.003477190762988197</v>
       </c>
     </row>
     <row r="223">
@@ -13377,13 +13377,13 @@
         </is>
       </c>
       <c r="N223" t="n">
-        <v>0.03023836404868541</v>
+        <v>0.03691274115539086</v>
       </c>
       <c r="O223" t="n">
         <v>0.0145</v>
       </c>
       <c r="P223" t="n">
-        <v>0.7589829376220038</v>
+        <v>0.9265098030003106</v>
       </c>
     </row>
     <row r="224">
@@ -13435,13 +13435,13 @@
         </is>
       </c>
       <c r="N224" t="n">
-        <v>0.01927520525286042</v>
+        <v>0.02422647074862189</v>
       </c>
       <c r="O224" t="n">
         <v>0.0201</v>
       </c>
       <c r="P224" t="n">
-        <v>0.07305302790834098</v>
+        <v>0.09181832413727696</v>
       </c>
     </row>
     <row r="225">
@@ -13493,13 +13493,13 @@
         </is>
       </c>
       <c r="N225" t="n">
-        <v>0.008605309620713457</v>
+        <v>0.01217658963213777</v>
       </c>
       <c r="O225" t="n">
         <v>0.0314</v>
       </c>
       <c r="P225" t="n">
-        <v>0.01067058392968469</v>
+        <v>0.01509897114385083</v>
       </c>
     </row>
     <row r="226">
@@ -13551,13 +13551,13 @@
         </is>
       </c>
       <c r="N226" t="n">
-        <v>0.006675470111685245</v>
+        <v>0.009926521546383021</v>
       </c>
       <c r="O226" t="n">
         <v>0.0346</v>
       </c>
       <c r="P226" t="n">
-        <v>0.03618104800533403</v>
+        <v>0.05380174678139597</v>
       </c>
     </row>
     <row r="227">
@@ -13609,13 +13609,13 @@
         </is>
       </c>
       <c r="N227" t="n">
-        <v>0.05580793145286667</v>
+        <v>0.05826587992777157</v>
       </c>
       <c r="O227" t="n">
         <v>0.0108</v>
       </c>
       <c r="P227" t="n">
-        <v>1.97560077343148</v>
+        <v>2.062612149443114</v>
       </c>
     </row>
     <row r="228">
@@ -13667,13 +13667,13 @@
         </is>
       </c>
       <c r="N228" t="n">
-        <v>0.03639169086604866</v>
+        <v>0.04083008568010548</v>
       </c>
       <c r="O228" t="n">
         <v>0.0139</v>
       </c>
       <c r="P228" t="n">
-        <v>0.121184330583942</v>
+        <v>0.1359641853147513</v>
       </c>
     </row>
     <row r="229">
@@ -13725,13 +13725,13 @@
         </is>
       </c>
       <c r="N229" t="n">
-        <v>0.01614009043939736</v>
+        <v>0.02089843975718731</v>
       </c>
       <c r="O229" t="n">
         <v>0.0193</v>
       </c>
       <c r="P229" t="n">
-        <v>0.01231488900526018</v>
+        <v>0.01594550953473392</v>
       </c>
     </row>
     <row r="230">
@@ -13783,13 +13783,13 @@
         </is>
       </c>
       <c r="N230" t="n">
-        <v>0.01132669078220129</v>
+        <v>0.0158886826865821</v>
       </c>
       <c r="O230" t="n">
         <v>0.031</v>
       </c>
       <c r="P230" t="n">
-        <v>0.06569480653676749</v>
+        <v>0.09215435958217616</v>
       </c>
     </row>
     <row r="231">
@@ -13841,13 +13841,13 @@
         </is>
       </c>
       <c r="N231" t="n">
-        <v>0.1255961133599264</v>
+        <v>0.1012467797730219</v>
       </c>
       <c r="O231" t="n">
         <v>0.0157</v>
       </c>
       <c r="P231" t="n">
-        <v>0.002449124210518564</v>
+        <v>0.001974312205573927</v>
       </c>
     </row>
     <row r="232">
@@ -13899,13 +13899,13 @@
         </is>
       </c>
       <c r="N232" t="n">
-        <v>0.07849050563514685</v>
+        <v>0.07286606496404399</v>
       </c>
       <c r="O232" t="n">
         <v>0.0196</v>
       </c>
       <c r="P232" t="n">
-        <v>0.1428527202559673</v>
+        <v>0.1326162382345601</v>
       </c>
     </row>
     <row r="233">
@@ -13957,13 +13957,13 @@
         </is>
       </c>
       <c r="N233" t="n">
-        <v>0.03213716333995258</v>
+        <v>0.03607737404732003</v>
       </c>
       <c r="O233" t="n">
         <v>0.0249</v>
       </c>
       <c r="P233" t="n">
-        <v>0.02056778453756965</v>
+        <v>0.02308951939028482</v>
       </c>
     </row>
     <row r="234">
@@ -14015,13 +14015,13 @@
         </is>
       </c>
       <c r="N234" t="n">
-        <v>0.02239642593488792</v>
+        <v>0.02810342175794115</v>
       </c>
       <c r="O234" t="n">
         <v>0.0286</v>
       </c>
       <c r="P234" t="n">
-        <v>0.04972006557545119</v>
+        <v>0.06238959630262935</v>
       </c>
     </row>
     <row r="235">
@@ -14073,13 +14073,13 @@
         </is>
       </c>
       <c r="N235" t="n">
-        <v>0.3230284610290063</v>
+        <v>0.1927285057613346</v>
       </c>
       <c r="O235" t="n">
         <v>0.027</v>
       </c>
       <c r="P235" t="n">
-        <v>0.1301804697946895</v>
+        <v>0.07766958782181785</v>
       </c>
     </row>
     <row r="236">
@@ -14131,13 +14131,13 @@
         </is>
       </c>
       <c r="N236" t="n">
-        <v>0.1686218641567249</v>
+        <v>0.1291045956478968</v>
       </c>
       <c r="O236" t="n">
         <v>0.0267</v>
       </c>
       <c r="P236" t="n">
-        <v>5.311588720936835</v>
+        <v>4.06679476290875</v>
       </c>
     </row>
     <row r="237">
@@ -14189,13 +14189,13 @@
         </is>
       </c>
       <c r="N237" t="n">
-        <v>0.06759103312863265</v>
+        <v>0.06434332291834498</v>
       </c>
       <c r="O237" t="n">
         <v>0.036</v>
       </c>
       <c r="P237" t="n">
-        <v>0.19871763739818</v>
+        <v>0.1891693693799342</v>
       </c>
     </row>
     <row r="238">
@@ -14247,13 +14247,13 @@
         </is>
       </c>
       <c r="N238" t="n">
-        <v>0.04510836313811455</v>
+        <v>0.04969052116068665</v>
       </c>
       <c r="O238" t="n">
         <v>0.0444</v>
       </c>
       <c r="P238" t="n">
-        <v>0.1087111551628561</v>
+        <v>0.1197541559972548</v>
       </c>
     </row>
     <row r="239">
@@ -14305,13 +14305,13 @@
         </is>
       </c>
       <c r="N239" t="n">
-        <v>0.0001032427188697112</v>
+        <v>0.0001719488262623907</v>
       </c>
       <c r="O239" t="n">
         <v>0.00402</v>
       </c>
       <c r="P239" t="n">
-        <v>3.272794188169846e-05</v>
+        <v>5.450777792517785e-05</v>
       </c>
     </row>
     <row r="240">
@@ -14363,13 +14363,13 @@
         </is>
       </c>
       <c r="N240" t="n">
-        <v>6.74523481446424e-05</v>
+        <v>0.0001199567462869765</v>
       </c>
       <c r="O240" t="n">
         <v>0.0072</v>
       </c>
       <c r="P240" t="n">
-        <v>4.31020504644265e-05</v>
+        <v>7.665236087737801e-05</v>
       </c>
     </row>
     <row r="241">
@@ -14421,13 +14421,13 @@
         </is>
       </c>
       <c r="N241" t="n">
-        <v>3.445858777818706e-05</v>
+        <v>8.399769240773826e-05</v>
       </c>
       <c r="O241" t="n">
         <v>0.00967</v>
       </c>
       <c r="P241" t="n">
-        <v>2.908304808478988e-06</v>
+        <v>7.08940523921311e-06</v>
       </c>
     </row>
     <row r="242">
@@ -14479,13 +14479,13 @@
         </is>
       </c>
       <c r="N242" t="n">
-        <v>2.781970815419026e-05</v>
+        <v>6.501205173145314e-05</v>
       </c>
       <c r="O242" t="n">
         <v>0.0169</v>
       </c>
       <c r="P242" t="n">
-        <v>6.092516085767667e-05</v>
+        <v>0.0001423763932918824</v>
       </c>
     </row>
     <row r="243">
@@ -14537,13 +14537,13 @@
         </is>
       </c>
       <c r="N243" t="n">
-        <v>0.000171071926999456</v>
+        <v>0.0002175451845747317</v>
       </c>
       <c r="O243" t="n">
         <v>0.00271</v>
       </c>
       <c r="P243" t="n">
-        <v>1.076042420826578e-05</v>
+        <v>1.368359210975062e-05</v>
       </c>
     </row>
     <row r="244">
@@ -14595,13 +14595,13 @@
         </is>
       </c>
       <c r="N244" t="n">
-        <v>0.0001174925622253488</v>
+        <v>0.0001757184881990186</v>
       </c>
       <c r="O244" t="n">
         <v>0.0043</v>
       </c>
       <c r="P244" t="n">
-        <v>7.6135180322026e-05</v>
+        <v>0.000113865580352964</v>
       </c>
     </row>
     <row r="245">
@@ -14653,13 +14653,13 @@
         </is>
       </c>
       <c r="N245" t="n">
-        <v>6.164941055474553e-05</v>
+        <v>0.0001316018827220882</v>
       </c>
       <c r="O245" t="n">
         <v>0.0068</v>
       </c>
       <c r="P245" t="n">
-        <v>2.940676883461362e-06</v>
+        <v>6.277409805843606e-06</v>
       </c>
     </row>
     <row r="246">
@@ -14711,13 +14711,13 @@
         </is>
       </c>
       <c r="N246" t="n">
-        <v>5.084985981417975e-05</v>
+        <v>0.0001069340554261115</v>
       </c>
       <c r="O246" t="n">
         <v>0.00996</v>
       </c>
       <c r="P246" t="n">
-        <v>1.342436299094345e-05</v>
+        <v>2.823059063249344e-05</v>
       </c>
     </row>
     <row r="247">
@@ -14769,13 +14769,13 @@
         </is>
       </c>
       <c r="N247" t="n">
-        <v>0.0003029223578357304</v>
+        <v>0.0002555144984071612</v>
       </c>
       <c r="O247" t="n">
         <v>0.00326</v>
       </c>
       <c r="P247" t="n">
-        <v>0.0004937634432722406</v>
+        <v>0.0004164886324036727</v>
       </c>
     </row>
     <row r="248">
@@ -14827,13 +14827,13 @@
         </is>
       </c>
       <c r="N248" t="n">
-        <v>0.0002179030133952031</v>
+        <v>0.0002458425747871892</v>
       </c>
       <c r="O248" t="n">
         <v>0.00481</v>
       </c>
       <c r="P248" t="n">
-        <v>3.55181911834181e-05</v>
+        <v>4.007233969031185e-05</v>
       </c>
     </row>
     <row r="249">
@@ -14885,13 +14885,13 @@
         </is>
       </c>
       <c r="N249" t="n">
-        <v>0.0001142297527638276</v>
+        <v>0.0001938646574078688</v>
       </c>
       <c r="O249" t="n">
         <v>0.00772</v>
       </c>
       <c r="P249" t="n">
-        <v>0.0005620103835980319</v>
+        <v>0.0009538141144467144</v>
       </c>
     </row>
     <row r="250">
@@ -14943,13 +14943,13 @@
         </is>
       </c>
       <c r="N250" t="n">
-        <v>9.189921824367423e-05</v>
+        <v>0.0001643726577318205</v>
       </c>
       <c r="O250" t="n">
         <v>0.0107</v>
       </c>
       <c r="P250" t="n">
-        <v>0.0002839685843729534</v>
+        <v>0.0005079115123913252</v>
       </c>
     </row>
     <row r="251">
@@ -15001,13 +15001,13 @@
         </is>
       </c>
       <c r="N251" t="n">
-        <v>0.0005288488018423084</v>
+        <v>0.0003374640145636208</v>
       </c>
       <c r="O251" t="n">
         <v>0.00449</v>
       </c>
       <c r="P251" t="n">
-        <v>0.0001845682318429656</v>
+        <v>0.0001177749410827036</v>
       </c>
     </row>
     <row r="252">
@@ -15059,13 +15059,13 @@
         </is>
       </c>
       <c r="N252" t="n">
-        <v>0.0004034205190187309</v>
+        <v>0.0003501045874825652</v>
       </c>
       <c r="O252" t="n">
         <v>0.00663</v>
       </c>
       <c r="P252" t="n">
-        <v>9.601408352645795e-05</v>
+        <v>8.332489182085052e-05</v>
       </c>
     </row>
     <row r="253">
@@ -15117,13 +15117,13 @@
         </is>
       </c>
       <c r="N253" t="n">
-        <v>0.0002102768317055697</v>
+        <v>0.0002782626692629756</v>
       </c>
       <c r="O253" t="n">
         <v>0.00959</v>
       </c>
       <c r="P253" t="n">
-        <v>1.970293913081188e-05</v>
+        <v>2.607321210994082e-05</v>
       </c>
     </row>
     <row r="254">
@@ -15175,13 +15175,13 @@
         </is>
       </c>
       <c r="N254" t="n">
-        <v>0.0001711656528615833</v>
+        <v>0.000253798910272699</v>
       </c>
       <c r="O254" t="n">
         <v>0.0136</v>
       </c>
       <c r="P254" t="n">
-        <v>0.0002704417315213017</v>
+        <v>0.0004010022782308645</v>
       </c>
     </row>
     <row r="255">
@@ -15233,13 +15233,13 @@
         </is>
       </c>
       <c r="N255" t="n">
-        <v>0.000259524214210442</v>
+        <v>0.0003643291543315205</v>
       </c>
       <c r="O255" t="n">
         <v>0.00199</v>
       </c>
       <c r="P255" t="n">
-        <v>2.076193713683536e-06</v>
+        <v>2.914633234652164e-06</v>
       </c>
     </row>
     <row r="256">
@@ -15291,13 +15291,13 @@
         </is>
       </c>
       <c r="N256" t="n">
-        <v>0.0001730946169490116</v>
+        <v>0.000259561792791148</v>
       </c>
       <c r="O256" t="n">
         <v>0.00323</v>
       </c>
       <c r="P256" t="n">
-        <v>0.0005504408818978568</v>
+        <v>0.0008254065010758507</v>
       </c>
     </row>
     <row r="257">
@@ -15349,13 +15349,13 @@
         </is>
       </c>
       <c r="N257" t="n">
-        <v>8.916417635279581e-05</v>
+        <v>0.0001725850791229999</v>
       </c>
       <c r="O257" t="n">
         <v>0.0051</v>
       </c>
       <c r="P257" t="n">
-        <v>6.883474414435837e-05</v>
+        <v>0.0001332356810829559</v>
       </c>
     </row>
     <row r="258">
@@ -15407,13 +15407,13 @@
         </is>
       </c>
       <c r="N258" t="n">
-        <v>7.337879233262136e-05</v>
+        <v>0.0001374668222280267</v>
       </c>
       <c r="O258" t="n">
         <v>0.00735</v>
       </c>
       <c r="P258" t="n">
-        <v>4.520133607689476e-05</v>
+        <v>8.467956249246445e-05</v>
       </c>
     </row>
     <row r="259">
@@ -15465,13 +15465,13 @@
         </is>
       </c>
       <c r="N259" t="n">
-        <v>0.0004416039044294665</v>
+        <v>0.0004878244815470131</v>
       </c>
       <c r="O259" t="n">
         <v>0.00139</v>
       </c>
       <c r="P259" t="n">
-        <v>0.0002592214919000968</v>
+        <v>0.0002863529706680967</v>
       </c>
     </row>
     <row r="260">
@@ -15523,13 +15523,13 @@
         </is>
       </c>
       <c r="N260" t="n">
-        <v>0.000306688865631519</v>
+        <v>0.0003941957513018823</v>
       </c>
       <c r="O260" t="n">
         <v>0.00211</v>
       </c>
       <c r="P260" t="n">
-        <v>0.0001340230342809738</v>
+        <v>0.0001722635433189225</v>
       </c>
     </row>
     <row r="261">
@@ -15581,13 +15581,13 @@
         </is>
       </c>
       <c r="N261" t="n">
-        <v>0.00015432243207853</v>
+        <v>0.000266817942425679</v>
       </c>
       <c r="O261" t="n">
         <v>0.00316</v>
       </c>
       <c r="P261" t="n">
-        <v>8.796378628476212e-05</v>
+        <v>0.000152086227182637</v>
       </c>
     </row>
     <row r="262">
@@ -15639,13 +15639,13 @@
         </is>
       </c>
       <c r="N262" t="n">
-        <v>0.0001280772090332672</v>
+        <v>0.0002201430836317623</v>
       </c>
       <c r="O262" t="n">
         <v>0.00461</v>
       </c>
       <c r="P262" t="n">
-        <v>0.0001767465484659087</v>
+        <v>0.0003037974554118319</v>
       </c>
     </row>
     <row r="263">
@@ -15697,13 +15697,13 @@
         </is>
       </c>
       <c r="N263" t="n">
-        <v>0.0007883842809780152</v>
+        <v>0.0006243946103049754</v>
       </c>
       <c r="O263" t="n">
         <v>0.00169</v>
       </c>
       <c r="P263" t="n">
-        <v>0.0004746073371487651</v>
+        <v>0.0003758855554035952</v>
       </c>
     </row>
     <row r="264">
@@ -15755,13 +15755,13 @@
         </is>
       </c>
       <c r="N264" t="n">
-        <v>0.0005702006308338672</v>
+        <v>0.0005767400734679683</v>
       </c>
       <c r="O264" t="n">
         <v>0.00243</v>
       </c>
       <c r="P264" t="n">
-        <v>0.001243037375217831</v>
+        <v>0.001257293360160171</v>
       </c>
     </row>
     <row r="265">
@@ -15813,13 +15813,13 @@
         </is>
       </c>
       <c r="N265" t="n">
-        <v>0.0002952066793896143</v>
+        <v>0.0004139346058680902</v>
       </c>
       <c r="O265" t="n">
         <v>0.00348</v>
       </c>
       <c r="P265" t="n">
-        <v>0.0003453918148858488</v>
+        <v>0.0004843034888656655</v>
       </c>
     </row>
     <row r="266">
@@ -15871,13 +15871,13 @@
         </is>
       </c>
       <c r="N266" t="n">
-        <v>0.0002398442036469133</v>
+        <v>0.0003535778151343464</v>
       </c>
       <c r="O266" t="n">
         <v>0.00499</v>
       </c>
       <c r="P266" t="n">
-        <v>0.0002662270660480738</v>
+        <v>0.0003924713747991245</v>
       </c>
     </row>
     <row r="267">
@@ -15929,13 +15929,13 @@
         </is>
       </c>
       <c r="N267" t="n">
-        <v>0.001457891532472741</v>
+        <v>0.0009159948039553337</v>
       </c>
       <c r="O267" t="n">
         <v>0.00227</v>
       </c>
       <c r="P267" t="n">
-        <v>0.001457891532472741</v>
+        <v>0.0009159948039553337</v>
       </c>
     </row>
     <row r="268">
@@ -15987,13 +15987,13 @@
         </is>
       </c>
       <c r="N268" t="n">
-        <v>0.001114390948825026</v>
+        <v>0.0009016768142499669</v>
       </c>
       <c r="O268" t="n">
         <v>0.00322</v>
       </c>
       <c r="P268" t="n">
-        <v>0.00109767508459265</v>
+        <v>0.0008881516620362174</v>
       </c>
     </row>
     <row r="269">
@@ -16045,13 +16045,13 @@
         </is>
       </c>
       <c r="N269" t="n">
-        <v>0.0005567478748583001</v>
+        <v>0.0006248015618121701</v>
       </c>
       <c r="O269" t="n">
         <v>0.00453</v>
       </c>
       <c r="P269" t="n">
-        <v>0.00066809744982996</v>
+        <v>0.0007497618741746041</v>
       </c>
     </row>
     <row r="270">
@@ -16103,13 +16103,13 @@
         </is>
       </c>
       <c r="N270" t="n">
-        <v>0.0004373964266695748</v>
+        <v>0.0005418554072473992</v>
       </c>
       <c r="O270" t="n">
         <v>0.00644</v>
       </c>
       <c r="P270" t="n">
-        <v>3.223611664554767e-05</v>
+        <v>3.993474351413332e-05</v>
       </c>
     </row>
     <row r="271">
@@ -16161,13 +16161,13 @@
         </is>
       </c>
       <c r="N271" t="n">
-        <v>0.0008025213932676923</v>
+        <v>0.001007689129198871</v>
       </c>
       <c r="O271" t="n">
         <v>0.00174</v>
       </c>
       <c r="P271" t="n">
-        <v>0.0005906557454450215</v>
+        <v>0.0007416591990903691</v>
       </c>
     </row>
     <row r="272">
@@ -16219,13 +16219,13 @@
         </is>
       </c>
       <c r="N272" t="n">
-        <v>0.000535091655410612</v>
+        <v>0.0007210487303699488</v>
       </c>
       <c r="O272" t="n">
         <v>0.00275</v>
       </c>
       <c r="P272" t="n">
-        <v>0.0005329512887889696</v>
+        <v>0.0007181645354484691</v>
       </c>
     </row>
     <row r="273">
@@ -16277,13 +16277,13 @@
         </is>
       </c>
       <c r="N273" t="n">
-        <v>0.0002714579021780195</v>
+        <v>0.0004464246784856577</v>
       </c>
       <c r="O273" t="n">
         <v>0.00408</v>
       </c>
       <c r="P273" t="n">
-        <v>0.0001750903469048226</v>
+        <v>0.0002879439176232492</v>
       </c>
     </row>
     <row r="274">
@@ -16335,13 +16335,13 @@
         </is>
       </c>
       <c r="N274" t="n">
-        <v>0.000221221323683554</v>
+        <v>0.0003586134337315176</v>
       </c>
       <c r="O274" t="n">
         <v>0.00641</v>
       </c>
       <c r="P274" t="n">
-        <v>0.0006636639710506619</v>
+        <v>0.001075840301194553</v>
       </c>
     </row>
     <row r="275">
@@ -16393,13 +16393,13 @@
         </is>
       </c>
       <c r="N275" t="n">
-        <v>0.001393755512546197</v>
+        <v>0.00142891390129448</v>
       </c>
       <c r="O275" t="n">
         <v>0.00122</v>
       </c>
       <c r="P275" t="n">
-        <v>0.0006271899806457889</v>
+        <v>0.000643011255582516</v>
       </c>
     </row>
     <row r="276">
@@ -16451,13 +16451,13 @@
         </is>
       </c>
       <c r="N276" t="n">
-        <v>0.0009568641339933756</v>
+        <v>0.00112617288386736</v>
       </c>
       <c r="O276" t="n">
         <v>0.00183</v>
       </c>
       <c r="P276" t="n">
-        <v>0.01071687830072581</v>
+        <v>0.01261313629931443</v>
       </c>
     </row>
     <row r="277">
@@ -16509,13 +16509,13 @@
         </is>
       </c>
       <c r="N277" t="n">
-        <v>0.000479008041749314</v>
+        <v>0.0007087528214831378</v>
       </c>
       <c r="O277" t="n">
         <v>0.0026</v>
       </c>
       <c r="P277" t="n">
-        <v>0.001417863803577969</v>
+        <v>0.002097908351590088</v>
       </c>
     </row>
     <row r="278">
@@ -16567,13 +16567,13 @@
         </is>
       </c>
       <c r="N278" t="n">
-        <v>0.0003898810768993625</v>
+        <v>0.0005815736824232919</v>
       </c>
       <c r="O278" t="n">
         <v>0.00381</v>
       </c>
       <c r="P278" t="n">
-        <v>0.000253812581061485</v>
+        <v>0.000378604467257563</v>
       </c>
     </row>
     <row r="279">
@@ -16625,13 +16625,13 @@
         </is>
       </c>
       <c r="N279" t="n">
-        <v>0.002622679217826259</v>
+        <v>0.002038923064014724</v>
       </c>
       <c r="O279" t="n">
         <v>0.0015</v>
       </c>
       <c r="P279" t="n">
-        <v>0.0007448408978626575</v>
+        <v>0.0005790541501801816</v>
       </c>
     </row>
     <row r="280">
@@ -16683,13 +16683,13 @@
         </is>
       </c>
       <c r="N280" t="n">
-        <v>0.001836248463674526</v>
+        <v>0.001754610286235478</v>
       </c>
       <c r="O280" t="n">
         <v>0.00214</v>
       </c>
       <c r="P280" t="n">
-        <v>0.002148410702499195</v>
+        <v>0.002052894034895509</v>
       </c>
     </row>
     <row r="281">
@@ -16741,13 +16741,13 @@
         </is>
       </c>
       <c r="N281" t="n">
-        <v>0.0009241618801994363</v>
+        <v>0.001138465483211651</v>
       </c>
       <c r="O281" t="n">
         <v>0.00303</v>
       </c>
       <c r="P281" t="n">
-        <v>6.422925067386083e-05</v>
+        <v>7.912335108320974e-05</v>
       </c>
     </row>
     <row r="282">
@@ -16799,13 +16799,13 @@
         </is>
       </c>
       <c r="N282" t="n">
-        <v>0.0007297936875627537</v>
+        <v>0.0009501472629627453</v>
       </c>
       <c r="O282" t="n">
         <v>0.00426</v>
       </c>
       <c r="P282" t="n">
-        <v>0.001933953272041297</v>
+        <v>0.002517890246851275</v>
       </c>
     </row>
     <row r="283">
@@ -16857,13 +16857,13 @@
         </is>
       </c>
       <c r="N283" t="n">
-        <v>0.005151594249610017</v>
+        <v>0.003214179173340242</v>
       </c>
       <c r="O283" t="n">
         <v>0.0021</v>
       </c>
       <c r="P283" t="n">
-        <v>0.002127608425088937</v>
+        <v>0.00132745599858952</v>
       </c>
     </row>
     <row r="284">
@@ -16915,13 +16915,13 @@
         </is>
       </c>
       <c r="N284" t="n">
-        <v>0.003785966682782667</v>
+        <v>0.002952409584033634</v>
       </c>
       <c r="O284" t="n">
         <v>0.00284</v>
       </c>
       <c r="P284" t="n">
-        <v>0.003615598182057447</v>
+        <v>0.002819551152752121</v>
       </c>
     </row>
     <row r="285">
@@ -16973,13 +16973,13 @@
         </is>
       </c>
       <c r="N285" t="n">
-        <v>0.001848261436402062</v>
+        <v>0.001857778551937351</v>
       </c>
       <c r="O285" t="n">
         <v>0.00399</v>
       </c>
       <c r="P285" t="n">
-        <v>0.001641256155525031</v>
+        <v>0.001649707354120367</v>
       </c>
     </row>
     <row r="286">
@@ -17031,13 +17031,13 @@
         </is>
       </c>
       <c r="N286" t="n">
-        <v>0.001358601137564585</v>
+        <v>0.001513589844641094</v>
       </c>
       <c r="O286" t="n">
         <v>0.00548</v>
       </c>
       <c r="P286" t="n">
-        <v>0.0006399011357929196</v>
+        <v>0.0007129008168259552</v>
       </c>
     </row>
     <row r="287">
@@ -17089,13 +17089,13 @@
         </is>
       </c>
       <c r="N287" t="n">
-        <v>0.002574801688244485</v>
+        <v>0.003055534100550709</v>
       </c>
       <c r="O287" t="n">
         <v>0.00171</v>
       </c>
       <c r="P287" t="n">
-        <v>0.001071117502309706</v>
+        <v>0.001271102185829095</v>
       </c>
     </row>
     <row r="288">
@@ -17147,13 +17147,13 @@
         </is>
       </c>
       <c r="N288" t="n">
-        <v>0.001677625589417224</v>
+        <v>0.002129632435841415</v>
       </c>
       <c r="O288" t="n">
         <v>0.00264</v>
       </c>
       <c r="P288" t="n">
-        <v>0.0003757881320294583</v>
+        <v>0.000477037665628477</v>
       </c>
     </row>
     <row r="289">
@@ -17205,13 +17205,13 @@
         </is>
       </c>
       <c r="N289" t="n">
-        <v>0.0008469429355974499</v>
+        <v>0.001254542805995594</v>
       </c>
       <c r="O289" t="n">
         <v>0.00393</v>
       </c>
       <c r="P289" t="n">
-        <v>0.0006860237778339345</v>
+        <v>0.001016179672856431</v>
       </c>
     </row>
     <row r="290">
@@ -17263,13 +17263,13 @@
         </is>
       </c>
       <c r="N290" t="n">
-        <v>0.0006581049850291557</v>
+        <v>0.0009794404358163184</v>
       </c>
       <c r="O290" t="n">
         <v>0.00562</v>
       </c>
       <c r="P290" t="n">
-        <v>0.000253370419236225</v>
+        <v>0.0003770845677892826</v>
       </c>
     </row>
     <row r="291">
@@ -17321,13 +17321,13 @@
         </is>
       </c>
       <c r="N291" t="n">
-        <v>0.004514646441314171</v>
+        <v>0.004499437475437598</v>
       </c>
       <c r="O291" t="n">
         <v>0.00119</v>
       </c>
       <c r="P291" t="n">
-        <v>0.001476289386309734</v>
+        <v>0.001471316054468094</v>
       </c>
     </row>
     <row r="292">
@@ -17379,13 +17379,13 @@
         </is>
       </c>
       <c r="N292" t="n">
-        <v>0.00303606370747755</v>
+        <v>0.003414173915384037</v>
       </c>
       <c r="O292" t="n">
         <v>0.00175</v>
       </c>
       <c r="P292" t="n">
-        <v>0.0030967849816271</v>
+        <v>0.003482457393691718</v>
       </c>
     </row>
     <row r="293">
@@ -17437,13 +17437,13 @@
         </is>
       </c>
       <c r="N293" t="n">
-        <v>0.001522160338357932</v>
+        <v>0.002045569289853391</v>
       </c>
       <c r="O293" t="n">
         <v>0.00252</v>
       </c>
       <c r="P293" t="n">
-        <v>0.001659154768810146</v>
+        <v>0.002229670525940196</v>
       </c>
     </row>
     <row r="294">
@@ -17495,13 +17495,13 @@
         </is>
       </c>
       <c r="N294" t="n">
-        <v>0.001180567154839569</v>
+        <v>0.001632848194908897</v>
       </c>
       <c r="O294" t="n">
         <v>0.00347</v>
       </c>
       <c r="P294" t="n">
-        <v>0.00717784830142458</v>
+        <v>0.009927717025046095</v>
       </c>
     </row>
     <row r="295">
@@ -17553,13 +17553,13 @@
         </is>
       </c>
       <c r="N295" t="n">
-        <v>0.008950051779156445</v>
+        <v>0.00694781292146913</v>
       </c>
       <c r="O295" t="n">
         <v>0.00148</v>
       </c>
       <c r="P295" t="n">
-        <v>0.0281926631043428</v>
+        <v>0.02188561070262776</v>
       </c>
     </row>
     <row r="296">
@@ -17611,13 +17611,13 @@
         </is>
       </c>
       <c r="N296" t="n">
-        <v>0.006127906027242374</v>
+        <v>0.005681933765861881</v>
       </c>
       <c r="O296" t="n">
         <v>0.00207</v>
       </c>
       <c r="P296" t="n">
-        <v>0.01170430051203293</v>
+        <v>0.01085249349279619</v>
       </c>
     </row>
     <row r="297">
@@ -17669,13 +17669,13 @@
         </is>
       </c>
       <c r="N297" t="n">
-        <v>0.002993161485622343</v>
+        <v>0.00340295664773611</v>
       </c>
       <c r="O297" t="n">
         <v>0.0029</v>
       </c>
       <c r="P297" t="n">
-        <v>0.004519673843289738</v>
+        <v>0.005138464538081526</v>
       </c>
     </row>
     <row r="298">
@@ -17727,13 +17727,13 @@
         </is>
       </c>
       <c r="N298" t="n">
-        <v>0.002235516484899706</v>
+        <v>0.002732888567673539</v>
       </c>
       <c r="O298" t="n">
         <v>0.00391</v>
       </c>
       <c r="P298" t="n">
-        <v>0.001325661275545526</v>
+        <v>0.001620602920630409</v>
       </c>
     </row>
     <row r="299">
@@ -17785,13 +17785,13 @@
         </is>
       </c>
       <c r="N299" t="n">
-        <v>0.01915152153850291</v>
+        <v>0.01171960739100324</v>
       </c>
       <c r="O299" t="n">
         <v>0.00211</v>
       </c>
       <c r="P299" t="n">
-        <v>0.3715395178469564</v>
+        <v>0.2273603833854629</v>
       </c>
     </row>
     <row r="300">
@@ -17843,13 +17843,13 @@
         </is>
       </c>
       <c r="N300" t="n">
-        <v>0.0128823879427185</v>
+        <v>0.009830085904637681</v>
       </c>
       <c r="O300" t="n">
         <v>0.0028</v>
       </c>
       <c r="P300" t="n">
-        <v>0.08875965292533043</v>
+        <v>0.06772929188295362</v>
       </c>
     </row>
     <row r="301">
@@ -17901,13 +17901,13 @@
         </is>
       </c>
       <c r="N301" t="n">
-        <v>0.006023786594534593</v>
+        <v>0.005739720643261094</v>
       </c>
       <c r="O301" t="n">
         <v>0.00374</v>
       </c>
       <c r="P301" t="n">
-        <v>0.01168614599339711</v>
+        <v>0.01113505804792652</v>
       </c>
     </row>
     <row r="302">
@@ -17959,13 +17959,13 @@
         </is>
       </c>
       <c r="N302" t="n">
-        <v>0.004236970514258815</v>
+        <v>0.004514495031948456</v>
       </c>
       <c r="O302" t="n">
         <v>0.00532</v>
       </c>
       <c r="P302" t="n">
-        <v>0.001008398982393598</v>
+        <v>0.001074449817603733</v>
       </c>
     </row>
     <row r="303">
@@ -18017,13 +18017,13 @@
         </is>
       </c>
       <c r="N303" t="n">
-        <v>0.007565244443535114</v>
+        <v>0.008788275621234853</v>
       </c>
       <c r="O303" t="n">
         <v>0.00172</v>
       </c>
       <c r="P303" t="n">
-        <v>0.02882358132986878</v>
+        <v>0.03348333011690479</v>
       </c>
     </row>
     <row r="304">
@@ -18075,13 +18075,13 @@
         </is>
       </c>
       <c r="N304" t="n">
-        <v>0.004939356209914027</v>
+        <v>0.006056806454012134</v>
       </c>
       <c r="O304" t="n">
         <v>0.00253</v>
       </c>
       <c r="P304" t="n">
-        <v>0.001210142271428937</v>
+        <v>0.001483917581232973</v>
       </c>
     </row>
     <row r="305">
@@ -18133,13 +18133,13 @@
         </is>
       </c>
       <c r="N305" t="n">
-        <v>0.002431064418243715</v>
+        <v>0.00338592887747964</v>
       </c>
       <c r="O305" t="n">
         <v>0.00373</v>
       </c>
       <c r="P305" t="n">
-        <v>0.003622285983183135</v>
+        <v>0.005045034027444664</v>
       </c>
     </row>
     <row r="306">
@@ -18191,13 +18191,13 @@
         </is>
       </c>
       <c r="N306" t="n">
-        <v>0.001838852535426301</v>
+        <v>0.002632033346749813</v>
       </c>
       <c r="O306" t="n">
         <v>0.00527</v>
       </c>
       <c r="P306" t="n">
-        <v>0.0007888677376978832</v>
+        <v>0.00112914230575567</v>
       </c>
     </row>
     <row r="307">
@@ -18249,13 +18249,13 @@
         </is>
       </c>
       <c r="N307" t="n">
-        <v>0.01373608722179813</v>
+        <v>0.01357256559362527</v>
       </c>
       <c r="O307" t="n">
         <v>0.00119</v>
       </c>
       <c r="P307" t="n">
-        <v>0.004093353992095843</v>
+        <v>0.004044624546900329</v>
       </c>
     </row>
     <row r="308">
@@ -18307,13 +18307,13 @@
         </is>
       </c>
       <c r="N308" t="n">
-        <v>0.009090089187782707</v>
+        <v>0.009957899026973468</v>
       </c>
       <c r="O308" t="n">
         <v>0.00171</v>
       </c>
       <c r="P308" t="n">
-        <v>0.01036270167407228</v>
+        <v>0.01135200489074975</v>
       </c>
     </row>
     <row r="309">
@@ -18365,13 +18365,13 @@
         </is>
       </c>
       <c r="N309" t="n">
-        <v>0.004393726337858448</v>
+        <v>0.00559727956884873</v>
       </c>
       <c r="O309" t="n">
         <v>0.00238</v>
       </c>
       <c r="P309" t="n">
-        <v>0.004437663601237033</v>
+        <v>0.005653252364537216</v>
       </c>
     </row>
     <row r="310">
@@ -18423,13 +18423,13 @@
         </is>
       </c>
       <c r="N310" t="n">
-        <v>0.003297706598282766</v>
+        <v>0.004416392788655531</v>
       </c>
       <c r="O310" t="n">
         <v>0.00322</v>
       </c>
       <c r="P310" t="n">
-        <v>0.0408915618187063</v>
+        <v>0.05476327057932858</v>
       </c>
     </row>
     <row r="311">
@@ -18481,13 +18481,13 @@
         </is>
       </c>
       <c r="N311" t="n">
-        <v>0.02857363431295638</v>
+        <v>0.02210746000182137</v>
       </c>
       <c r="O311" t="n">
         <v>0.00153</v>
       </c>
       <c r="P311" t="n">
-        <v>0.04686076027324845</v>
+        <v>0.03625623440298704</v>
       </c>
     </row>
     <row r="312">
@@ -18539,13 +18539,13 @@
         </is>
       </c>
       <c r="N312" t="n">
-        <v>0.01883849149823819</v>
+        <v>0.0171457503912104</v>
       </c>
       <c r="O312" t="n">
         <v>0.00205</v>
       </c>
       <c r="P312" t="n">
-        <v>0.01117122545845525</v>
+        <v>0.01016742998198776</v>
       </c>
     </row>
     <row r="313">
@@ -18597,13 +18597,13 @@
         </is>
       </c>
       <c r="N313" t="n">
-        <v>0.00884641831393687</v>
+        <v>0.009655638594067564</v>
       </c>
       <c r="O313" t="n">
         <v>0.0028</v>
       </c>
       <c r="P313" t="n">
-        <v>0.002751236095634367</v>
+        <v>0.003002903602755012</v>
       </c>
     </row>
     <row r="314">
@@ -18655,13 +18655,13 @@
         </is>
       </c>
       <c r="N314" t="n">
-        <v>0.006373274656449258</v>
+        <v>0.00759562656086739</v>
       </c>
       <c r="O314" t="n">
         <v>0.00371</v>
       </c>
       <c r="P314" t="n">
-        <v>1.848249650370285e-05</v>
+        <v>2.202731702651543e-05</v>
       </c>
     </row>
     <row r="315">
@@ -18713,13 +18713,13 @@
         </is>
       </c>
       <c r="N315" t="n">
-        <v>0.06631804181172747</v>
+        <v>0.03945563027807503</v>
       </c>
       <c r="O315" t="n">
         <v>0.00221</v>
       </c>
       <c r="P315" t="n">
-        <v>0.1226883773516958</v>
+        <v>0.07299291601443882</v>
       </c>
     </row>
     <row r="316">
@@ -18771,13 +18771,13 @@
         </is>
       </c>
       <c r="N316" t="n">
-        <v>0.04232115100797475</v>
+        <v>0.0314072005673919</v>
       </c>
       <c r="O316" t="n">
         <v>0.00282</v>
       </c>
       <c r="P316" t="n">
-        <v>0.06178888047164314</v>
+        <v>0.04585451282839217</v>
       </c>
     </row>
     <row r="317">
@@ -18829,13 +18829,13 @@
         </is>
       </c>
       <c r="N317" t="n">
-        <v>0.01894721280853532</v>
+        <v>0.01730907594196898</v>
       </c>
       <c r="O317" t="n">
         <v>0.00387</v>
       </c>
       <c r="P317" t="n">
-        <v>0.01629460301534038</v>
+        <v>0.01488580531009332</v>
       </c>
     </row>
     <row r="318">
@@ -18887,13 +18887,13 @@
         </is>
       </c>
       <c r="N318" t="n">
-        <v>0.01266887532671286</v>
+        <v>0.01325678404669047</v>
       </c>
       <c r="O318" t="n">
         <v>0.00518</v>
       </c>
       <c r="P318" t="n">
-        <v>0.01596278291165821</v>
+        <v>0.01670354789883</v>
       </c>
     </row>
     <row r="319">
@@ -18945,13 +18945,13 @@
         </is>
       </c>
       <c r="N319" t="n">
-        <v>0.01971591525140848</v>
+        <v>0.02310137811109282</v>
       </c>
       <c r="O319" t="n">
         <v>0.00176</v>
       </c>
       <c r="P319" t="n">
-        <v>0.02050455186146482</v>
+        <v>0.02402543323553653</v>
       </c>
     </row>
     <row r="320">
@@ -19003,13 +19003,13 @@
         </is>
       </c>
       <c r="N320" t="n">
-        <v>0.012585812232282</v>
+        <v>0.01531228505949194</v>
       </c>
       <c r="O320" t="n">
         <v>0.00262</v>
       </c>
       <c r="P320" t="n">
-        <v>0.001044622415279406</v>
+        <v>0.001270919659937831</v>
       </c>
     </row>
     <row r="321">
@@ -19061,13 +19061,13 @@
         </is>
       </c>
       <c r="N321" t="n">
-        <v>0.005966116070673514</v>
+        <v>0.00813728731944003</v>
       </c>
       <c r="O321" t="n">
         <v>0.00342</v>
       </c>
       <c r="P321" t="n">
-        <v>0.0353194071383872</v>
+        <v>0.04817274093108498</v>
       </c>
     </row>
     <row r="322">
@@ -19119,13 +19119,13 @@
         </is>
       </c>
       <c r="N322" t="n">
-        <v>0.004499195782972737</v>
+        <v>0.006443467318498435</v>
       </c>
       <c r="O322" t="n">
         <v>0.00485</v>
       </c>
       <c r="P322" t="n">
-        <v>0.008998391565945474</v>
+        <v>0.01288693463699687</v>
       </c>
     </row>
     <row r="323">
@@ -19177,13 +19177,13 @@
         </is>
       </c>
       <c r="N323" t="n">
-        <v>0.03619556141247765</v>
+        <v>0.03622696693219001</v>
       </c>
       <c r="O323" t="n">
         <v>0.00123</v>
       </c>
       <c r="P323" t="n">
-        <v>0.003246741858699245</v>
+        <v>0.003249558933817444</v>
       </c>
     </row>
     <row r="324">
@@ -19235,13 +19235,13 @@
         </is>
       </c>
       <c r="N324" t="n">
-        <v>0.02349266376264042</v>
+        <v>0.02565026645462343</v>
       </c>
       <c r="O324" t="n">
         <v>0.00171</v>
       </c>
       <c r="P324" t="n">
-        <v>0.003735333538259826</v>
+        <v>0.004078392366285126</v>
       </c>
     </row>
     <row r="325">
@@ -19293,13 +19293,13 @@
         </is>
       </c>
       <c r="N325" t="n">
-        <v>0.01107291568361967</v>
+        <v>0.01386068566916801</v>
       </c>
       <c r="O325" t="n">
         <v>0.00231</v>
       </c>
       <c r="P325" t="n">
-        <v>0.008016790954940638</v>
+        <v>0.01003513642447764</v>
       </c>
     </row>
     <row r="326">
@@ -19351,13 +19351,13 @@
         </is>
       </c>
       <c r="N326" t="n">
-        <v>0.008134743478983943</v>
+        <v>0.0109373902160995</v>
       </c>
       <c r="O326" t="n">
         <v>0.00299</v>
       </c>
       <c r="P326" t="n">
-        <v>0.007109765800631966</v>
+        <v>0.00955927904887096</v>
       </c>
     </row>
     <row r="327">
@@ -19409,13 +19409,13 @@
         </is>
       </c>
       <c r="N327" t="n">
-        <v>0.07832563330643738</v>
+        <v>0.06120264967026767</v>
       </c>
       <c r="O327" t="n">
         <v>0.0016</v>
       </c>
       <c r="P327" t="n">
-        <v>0.1276707822894929</v>
+        <v>0.09976031896253629</v>
       </c>
     </row>
     <row r="328">
@@ -19467,13 +19467,13 @@
         </is>
       </c>
       <c r="N328" t="n">
-        <v>0.0501089171525663</v>
+        <v>0.04559160893738655</v>
       </c>
       <c r="O328" t="n">
         <v>0.00212</v>
       </c>
       <c r="P328" t="n">
-        <v>0.03111763755174367</v>
+        <v>0.02831238915011705</v>
       </c>
     </row>
     <row r="329">
@@ -19525,13 +19525,13 @@
         </is>
       </c>
       <c r="N329" t="n">
-        <v>0.02279391250946819</v>
+        <v>0.02455923023009938</v>
       </c>
       <c r="O329" t="n">
         <v>0.00275</v>
       </c>
       <c r="P329" t="n">
-        <v>0.02267994294692085</v>
+        <v>0.02443643407894888</v>
       </c>
     </row>
     <row r="330">
@@ -19583,13 +19583,13 @@
         </is>
       </c>
       <c r="N330" t="n">
-        <v>0.01579200853518972</v>
+        <v>0.01904225188780962</v>
       </c>
       <c r="O330" t="n">
         <v>0.00358</v>
       </c>
       <c r="P330" t="n">
-        <v>0.003095233672897184</v>
+        <v>0.003732281370010685</v>
       </c>
     </row>
     <row r="331">
@@ -19641,13 +19641,13 @@
         </is>
       </c>
       <c r="N331" t="n">
-        <v>0.1890313766876019</v>
+        <v>0.1122509697186717</v>
       </c>
       <c r="O331" t="n">
         <v>0.00238</v>
       </c>
       <c r="P331" t="n">
-        <v>0.01706953331489046</v>
+        <v>0.01013626256559605</v>
       </c>
     </row>
     <row r="332">
@@ -19699,13 +19699,13 @@
         </is>
       </c>
       <c r="N332" t="n">
-        <v>0.1162686883049621</v>
+        <v>0.08584651590119799</v>
       </c>
       <c r="O332" t="n">
         <v>0.003</v>
       </c>
       <c r="P332" t="n">
-        <v>0.09464271228023913</v>
+        <v>0.06987906394357515</v>
       </c>
     </row>
     <row r="333">
@@ -19757,13 +19757,13 @@
         </is>
       </c>
       <c r="N333" t="n">
-        <v>0.04980786767417568</v>
+        <v>0.04508713202822852</v>
       </c>
       <c r="O333" t="n">
         <v>0.00386</v>
       </c>
       <c r="P333" t="n">
-        <v>0.1060907581459942</v>
+        <v>0.09603559122012674</v>
       </c>
     </row>
     <row r="334">
@@ -19815,13 +19815,13 @@
         </is>
       </c>
       <c r="N334" t="n">
-        <v>0.03116058785326233</v>
+        <v>0.03316428708130888</v>
       </c>
       <c r="O334" t="n">
         <v>0.00486</v>
       </c>
       <c r="P334" t="n">
-        <v>0.01726296567070733</v>
+        <v>0.01837301504304512</v>
       </c>
     </row>
     <row r="335">
@@ -19873,13 +19873,13 @@
         </is>
       </c>
       <c r="N335" t="n">
-        <v>0.03787621424379052</v>
+        <v>0.04721298507509341</v>
       </c>
       <c r="O335" t="n">
         <v>0.00244</v>
       </c>
       <c r="P335" t="n">
-        <v>0.01890023090765147</v>
+        <v>0.02355927955247161</v>
       </c>
     </row>
     <row r="336">
@@ -19931,13 +19931,13 @@
         </is>
       </c>
       <c r="N336" t="n">
-        <v>0.02417668774457914</v>
+        <v>0.03074416893133831</v>
       </c>
       <c r="O336" t="n">
         <v>0.00352</v>
       </c>
       <c r="P336" t="n">
-        <v>0.03940800102366399</v>
+        <v>0.05011299535808145</v>
       </c>
     </row>
     <row r="337">
@@ -19989,13 +19989,13 @@
         </is>
       </c>
       <c r="N337" t="n">
-        <v>0.01164132269301375</v>
+        <v>0.01651788446297539</v>
       </c>
       <c r="O337" t="n">
         <v>0.00471</v>
       </c>
       <c r="P337" t="n">
-        <v>0.004842790240293719</v>
+        <v>0.006871439936597762</v>
       </c>
     </row>
     <row r="338">
@@ -20047,13 +20047,13 @@
         </is>
       </c>
       <c r="N338" t="n">
-        <v>0.008592600896569972</v>
+        <v>0.01306701227734183</v>
       </c>
       <c r="O338" t="n">
         <v>0.00586</v>
       </c>
       <c r="P338" t="n">
-        <v>0.04098670627663876</v>
+        <v>0.06232964856292054</v>
       </c>
     </row>
     <row r="339">
@@ -20105,13 +20105,13 @@
         </is>
       </c>
       <c r="N339" t="n">
-        <v>0.06965740929032929</v>
+        <v>0.07431403285507933</v>
       </c>
       <c r="O339" t="n">
         <v>0.00175</v>
       </c>
       <c r="P339" t="n">
-        <v>0.04618286235948833</v>
+        <v>0.0492702037829176</v>
       </c>
     </row>
     <row r="340">
@@ -20163,13 +20163,13 @@
         </is>
       </c>
       <c r="N340" t="n">
-        <v>0.04471985744968079</v>
+        <v>0.05117768675409607</v>
       </c>
       <c r="O340" t="n">
         <v>0.00237</v>
       </c>
       <c r="P340" t="n">
-        <v>0.0237462443057805</v>
+        <v>0.02717535166642502</v>
       </c>
     </row>
     <row r="341">
@@ -20221,13 +20221,13 @@
         </is>
       </c>
       <c r="N341" t="n">
-        <v>0.0210597292685589</v>
+        <v>0.02755022844644583</v>
       </c>
       <c r="O341" t="n">
         <v>0.00305</v>
       </c>
       <c r="P341" t="n">
-        <v>0.04591020980545842</v>
+        <v>0.06005949801325192</v>
       </c>
     </row>
     <row r="342">
@@ -20279,13 +20279,13 @@
         </is>
       </c>
       <c r="N342" t="n">
-        <v>0.01545488933944147</v>
+        <v>0.02212102108338254</v>
       </c>
       <c r="O342" t="n">
         <v>0.00402</v>
       </c>
       <c r="P342" t="n">
-        <v>0.01591853601962472</v>
+        <v>0.02278465171588402</v>
       </c>
     </row>
     <row r="343">
@@ -20337,13 +20337,13 @@
         </is>
       </c>
       <c r="N343" t="n">
-        <v>0.1511415993456332</v>
+        <v>0.1264548285366329</v>
       </c>
       <c r="O343" t="n">
         <v>0.00235</v>
       </c>
       <c r="P343" t="n">
-        <v>0.1738128392474782</v>
+        <v>0.1454230528171278</v>
       </c>
     </row>
     <row r="344">
@@ -20395,13 +20395,13 @@
         </is>
       </c>
       <c r="N344" t="n">
-        <v>0.09403148345498777</v>
+        <v>0.09020771102750447</v>
       </c>
       <c r="O344" t="n">
         <v>0.003</v>
       </c>
       <c r="P344" t="n">
-        <v>0.04438286019075422</v>
+        <v>0.0425780396049821</v>
       </c>
     </row>
     <row r="345">
@@ -20453,13 +20453,13 @@
         </is>
       </c>
       <c r="N345" t="n">
-        <v>0.04328291471039049</v>
+        <v>0.04898812533960821</v>
       </c>
       <c r="O345" t="n">
         <v>0.00376</v>
       </c>
       <c r="P345" t="n">
-        <v>0.05453647253509201</v>
+        <v>0.06172503792790635</v>
       </c>
     </row>
     <row r="346">
@@ -20511,13 +20511,13 @@
         </is>
       </c>
       <c r="N346" t="n">
-        <v>0.03020099884241778</v>
+        <v>0.03874137774928914</v>
       </c>
       <c r="O346" t="n">
         <v>0.00477</v>
       </c>
       <c r="P346" t="n">
-        <v>0.011204570570537</v>
+        <v>0.01437305114498627</v>
       </c>
     </row>
     <row r="347">
@@ -20569,13 +20569,13 @@
         </is>
       </c>
       <c r="N347" t="n">
-        <v>0.3691377906139701</v>
+        <v>0.2342582210858711</v>
       </c>
       <c r="O347" t="n">
         <v>0.00376</v>
       </c>
       <c r="P347" t="n">
-        <v>2.805447208666173</v>
+        <v>1.78036248025262</v>
       </c>
     </row>
     <row r="348">
@@ -20627,13 +20627,13 @@
         </is>
       </c>
       <c r="N348" t="n">
-        <v>0.2211686444065523</v>
+        <v>0.1741368343401179</v>
       </c>
       <c r="O348" t="n">
         <v>0.00446</v>
       </c>
       <c r="P348" t="n">
-        <v>0.01216427544236038</v>
+        <v>0.009577525888706485</v>
       </c>
     </row>
     <row r="349">
@@ -20685,13 +20685,13 @@
         </is>
       </c>
       <c r="N349" t="n">
-        <v>0.09436404296530704</v>
+        <v>0.09050465497434805</v>
       </c>
       <c r="O349" t="n">
         <v>0.00563</v>
       </c>
       <c r="P349" t="n">
-        <v>0.0295359454481411</v>
+        <v>0.02832795700697094</v>
       </c>
     </row>
     <row r="350">
@@ -20743,13 +20743,13 @@
         </is>
       </c>
       <c r="N350" t="n">
-        <v>0.05957125074805292</v>
+        <v>0.06770891386214711</v>
       </c>
       <c r="O350" t="n">
         <v>0.00687</v>
       </c>
       <c r="P350" t="n">
-        <v>0.08399546355475461</v>
+        <v>0.09546956854562742</v>
       </c>
     </row>
     <row r="351">
@@ -20801,13 +20801,13 @@
         </is>
       </c>
       <c r="N351" t="n">
-        <v>0.07505940846712594</v>
+        <v>0.1031737723018416</v>
       </c>
       <c r="O351" t="n">
         <v>0.0147</v>
       </c>
       <c r="P351" t="n">
-        <v>0.06635251708493933</v>
+        <v>0.09120561471482799</v>
       </c>
     </row>
     <row r="352">
@@ -20859,13 +20859,13 @@
         </is>
       </c>
       <c r="N352" t="n">
-        <v>0.04764733005649646</v>
+        <v>0.06504061611337732</v>
       </c>
       <c r="O352" t="n">
         <v>0.0201</v>
       </c>
       <c r="P352" t="n">
-        <v>0.0605121091717505</v>
+        <v>0.08260158246398919</v>
       </c>
     </row>
     <row r="353">
@@ -20917,13 +20917,13 @@
         </is>
       </c>
       <c r="N353" t="n">
-        <v>0.02305358232834189</v>
+        <v>0.03508982759573559</v>
       </c>
       <c r="O353" t="n">
         <v>0.0289</v>
       </c>
       <c r="P353" t="n">
-        <v>0.2674215550087659</v>
+        <v>0.4070420001105328</v>
       </c>
     </row>
     <row r="354">
@@ -20975,13 +20975,13 @@
         </is>
       </c>
       <c r="N354" t="n">
-        <v>0.01742468754783425</v>
+        <v>0.02889198226037949</v>
       </c>
       <c r="O354" t="n">
         <v>0.034</v>
       </c>
       <c r="P354" t="n">
-        <v>0.07649437833499236</v>
+        <v>0.1268358021230659</v>
       </c>
     </row>
     <row r="355">
@@ -21033,13 +21033,13 @@
         </is>
       </c>
       <c r="N355" t="n">
-        <v>0.1340627414631023</v>
+        <v>0.1583009210423886</v>
       </c>
       <c r="O355" t="n">
         <v>0.0108</v>
       </c>
       <c r="P355" t="n">
-        <v>0.1110039499314487</v>
+        <v>0.1310731626230978</v>
       </c>
     </row>
     <row r="356">
@@ -21091,13 +21091,13 @@
         </is>
       </c>
       <c r="N356" t="n">
-        <v>0.08506631994649472</v>
+        <v>0.1056118363070006</v>
       </c>
       <c r="O356" t="n">
         <v>0.0148</v>
       </c>
       <c r="P356" t="n">
-        <v>0.2194711054619564</v>
+        <v>0.2724785376720615</v>
       </c>
     </row>
     <row r="357">
@@ -21149,13 +21149,13 @@
         </is>
       </c>
       <c r="N357" t="n">
-        <v>0.04448889407165839</v>
+        <v>0.06229522720823488</v>
       </c>
       <c r="O357" t="n">
         <v>0.0195</v>
       </c>
       <c r="P357" t="n">
-        <v>0.2927369229915122</v>
+        <v>0.4099025950301856</v>
       </c>
     </row>
     <row r="358">
@@ -21207,13 +21207,13 @@
         </is>
       </c>
       <c r="N358" t="n">
-        <v>0.03188613028983042</v>
+        <v>0.04964656784412168</v>
       </c>
       <c r="O358" t="n">
         <v>0.026</v>
       </c>
       <c r="P358" t="n">
-        <v>1.042676460477455</v>
+        <v>1.623442768502779</v>
       </c>
     </row>
     <row r="359">
@@ -21265,13 +21265,13 @@
         </is>
       </c>
       <c r="N359" t="n">
-        <v>0.2595223376537112</v>
+        <v>0.2483115918914844</v>
       </c>
       <c r="O359" t="n">
         <v>0.0148</v>
       </c>
       <c r="P359" t="n">
-        <v>0.3503551558325102</v>
+        <v>0.335220649053504</v>
       </c>
     </row>
     <row r="360">
@@ -21323,13 +21323,13 @@
         </is>
       </c>
       <c r="N360" t="n">
-        <v>0.1798439902673156</v>
+        <v>0.1904704769785682</v>
       </c>
       <c r="O360" t="n">
         <v>0.0185</v>
       </c>
       <c r="P360" t="n">
-        <v>0.7859182374681692</v>
+        <v>0.8323559843963432</v>
       </c>
     </row>
     <row r="361">
@@ -21381,13 +21381,13 @@
         </is>
       </c>
       <c r="N361" t="n">
-        <v>0.08489729783247728</v>
+        <v>0.1052043181544594</v>
       </c>
       <c r="O361" t="n">
         <v>0.0216</v>
       </c>
       <c r="P361" t="n">
-        <v>0.02844059477387989</v>
+        <v>0.03524344658174389</v>
       </c>
     </row>
     <row r="362">
@@ -21439,13 +21439,13 @@
         </is>
       </c>
       <c r="N362" t="n">
-        <v>0.06200070291068627</v>
+        <v>0.08724713484640904</v>
       </c>
       <c r="O362" t="n">
         <v>0.03</v>
       </c>
       <c r="P362" t="n">
-        <v>0.4116846673269569</v>
+        <v>0.579320975380156</v>
       </c>
     </row>
     <row r="363">
@@ -21497,13 +21497,13 @@
         </is>
       </c>
       <c r="N363" t="n">
-        <v>0.5890140905333485</v>
+        <v>0.4456424136635486</v>
       </c>
       <c r="O363" t="n">
         <v>0.0265</v>
       </c>
       <c r="P363" t="n">
-        <v>0.8953014176106897</v>
+        <v>0.6773764687685939</v>
       </c>
     </row>
     <row r="364">
@@ -21555,13 +21555,13 @@
         </is>
       </c>
       <c r="N364" t="n">
-        <v>0.3617190255829311</v>
+        <v>0.332564987373467</v>
       </c>
       <c r="O364" t="n">
         <v>0.0326</v>
       </c>
       <c r="P364" t="n">
-        <v>1.309422872610211</v>
+        <v>1.203885254291951</v>
       </c>
     </row>
     <row r="365">
@@ -21613,13 +21613,13 @@
         </is>
       </c>
       <c r="N365" t="n">
-        <v>0.1725233205757798</v>
+        <v>0.1893961903171691</v>
       </c>
       <c r="O365" t="n">
         <v>0.0374</v>
       </c>
       <c r="P365" t="n">
-        <v>0.005399979934021908</v>
+        <v>0.005928100756927392</v>
       </c>
     </row>
     <row r="366">
@@ -21671,13 +21671,13 @@
         </is>
       </c>
       <c r="N366" t="n">
-        <v>0.1154818132380157</v>
+        <v>0.1442644734362168</v>
       </c>
       <c r="O366" t="n">
         <v>0.0358</v>
       </c>
       <c r="P366" t="n">
-        <v>0.9377123234926876</v>
+        <v>1.17142752430208</v>
       </c>
     </row>
     <row r="367">
@@ -21729,13 +21729,13 @@
         </is>
       </c>
       <c r="N367" t="n">
-        <v>0.0003594045104134655</v>
+        <v>0.0004519013214351032</v>
       </c>
       <c r="O367" t="n">
         <v>0.0276</v>
       </c>
       <c r="P367" t="n">
-        <v>0.0001883279634566559</v>
+        <v>0.0002367962924319941</v>
       </c>
     </row>
     <row r="368">
@@ -21787,13 +21787,13 @@
         </is>
       </c>
       <c r="N368" t="n">
-        <v>0.0002653937027469027</v>
+        <v>0.0003476910394977051</v>
       </c>
       <c r="O368" t="n">
         <v>0.054</v>
       </c>
       <c r="P368" t="n">
-        <v>0.00289279135994124</v>
+        <v>0.003789832330524986</v>
       </c>
     </row>
     <row r="369">
@@ -21845,13 +21845,13 @@
         </is>
       </c>
       <c r="N369" t="n">
-        <v>0.0006232337232348142</v>
+        <v>0.0006220357104797091</v>
       </c>
       <c r="O369" t="n">
         <v>0.0191</v>
       </c>
       <c r="P369" t="n">
-        <v>0.0001682731052733998</v>
+        <v>0.0001679496418295215</v>
       </c>
     </row>
     <row r="370">
@@ -21903,13 +21903,13 @@
         </is>
       </c>
       <c r="N370" t="n">
-        <v>0.0004447153645493173</v>
+        <v>0.0005091964735829118</v>
       </c>
       <c r="O370" t="n">
         <v>0.0317</v>
       </c>
       <c r="P370" t="n">
-        <v>0.0001970089064953475</v>
+        <v>0.0002255740377972299</v>
       </c>
     </row>
     <row r="371">
@@ -21961,13 +21961,13 @@
         </is>
       </c>
       <c r="N371" t="n">
-        <v>0.001126008525884072</v>
+        <v>0.0008470866133254204</v>
       </c>
       <c r="O371" t="n">
         <v>0.0214</v>
       </c>
       <c r="P371" t="n">
-        <v>0.0007274015077211105</v>
+        <v>0.0005472179522082216</v>
       </c>
     </row>
     <row r="372">
@@ -22019,13 +22019,13 @@
         </is>
       </c>
       <c r="N372" t="n">
-        <v>0.0008230341378403946</v>
+        <v>0.0007623690337410861</v>
       </c>
       <c r="O372" t="n">
         <v>0.0336</v>
       </c>
       <c r="P372" t="n">
-        <v>0.0004534918099500575</v>
+        <v>0.0004200653375913385</v>
       </c>
     </row>
     <row r="373">
@@ -22077,13 +22077,13 @@
         </is>
       </c>
       <c r="N373" t="n">
-        <v>0.0004149995680698917</v>
+        <v>0.0005167095721693803</v>
       </c>
       <c r="O373" t="n">
         <v>0.0593</v>
       </c>
       <c r="P373" t="n">
-        <v>0.0007677492009292996</v>
+        <v>0.0009559127085133536</v>
       </c>
     </row>
     <row r="374">
@@ -22135,13 +22135,13 @@
         </is>
       </c>
       <c r="N374" t="n">
-        <v>0.002067243766612042</v>
+        <v>0.001264158519725372</v>
       </c>
       <c r="O374" t="n">
         <v>0.0315</v>
       </c>
       <c r="P374" t="n">
-        <v>0.002129261079610403</v>
+        <v>0.001302083275317134</v>
       </c>
     </row>
     <row r="375">
@@ -22193,13 +22193,13 @@
         </is>
       </c>
       <c r="N375" t="n">
-        <v>0.001609709418370187</v>
+        <v>0.001219669031638166</v>
       </c>
       <c r="O375" t="n">
         <v>0.0459</v>
       </c>
       <c r="P375" t="n">
-        <v>0.0003911593886639554</v>
+        <v>0.0002963795746880743</v>
       </c>
     </row>
     <row r="376">
@@ -22251,13 +22251,13 @@
         </is>
       </c>
       <c r="N376" t="n">
-        <v>0.0008071397020925287</v>
+        <v>0.0009474806622349622</v>
       </c>
       <c r="O376" t="n">
         <v>0.00518</v>
       </c>
       <c r="P376" t="n">
-        <v>0.008474966871971551</v>
+        <v>0.009948546953467103</v>
       </c>
     </row>
     <row r="377">
@@ -22309,13 +22309,13 @@
         </is>
       </c>
       <c r="N377" t="n">
-        <v>0.0005521196932791523</v>
+        <v>0.0006922716673529623</v>
       </c>
       <c r="O377" t="n">
         <v>0.00929</v>
       </c>
       <c r="P377" t="n">
-        <v>3.378972522868412e-05</v>
+        <v>4.236702604200129e-05</v>
       </c>
     </row>
     <row r="378">
@@ -22367,13 +22367,13 @@
         </is>
       </c>
       <c r="N378" t="n">
-        <v>0.0002902651909424567</v>
+        <v>0.0004329419200629092</v>
       </c>
       <c r="O378" t="n">
         <v>0.0143</v>
       </c>
       <c r="P378" t="n">
-        <v>1.70966197465107e-05</v>
+        <v>2.550027909170535e-05</v>
       </c>
     </row>
     <row r="379">
@@ -22425,13 +22425,13 @@
         </is>
       </c>
       <c r="N379" t="n">
-        <v>0.0002413907191051052</v>
+        <v>0.0003605990386676432</v>
       </c>
       <c r="O379" t="n">
         <v>0.0228</v>
       </c>
       <c r="P379" t="n">
-        <v>0.0002655297910156158</v>
+        <v>0.0003966589425344075</v>
       </c>
     </row>
     <row r="380">
@@ -22483,13 +22483,13 @@
         </is>
       </c>
       <c r="N380" t="n">
-        <v>0.001394139534180652</v>
+        <v>0.001347994289856401</v>
       </c>
       <c r="O380" t="n">
         <v>0.00346</v>
       </c>
       <c r="P380" t="n">
-        <v>0.00408482883514931</v>
+        <v>0.003949623269279255</v>
       </c>
     </row>
     <row r="381">
@@ -22541,13 +22541,13 @@
         </is>
       </c>
       <c r="N381" t="n">
-        <v>0.0009825260778905209</v>
+        <v>0.001082215353750413</v>
       </c>
       <c r="O381" t="n">
         <v>0.00547</v>
       </c>
       <c r="P381" t="n">
-        <v>0.0001080778685679573</v>
+        <v>0.0001190436889125455</v>
       </c>
     </row>
     <row r="382">
@@ -22599,13 +22599,13 @@
         </is>
       </c>
       <c r="N382" t="n">
-        <v>0.0005132050996882089</v>
+        <v>0.0006967181656850421</v>
       </c>
       <c r="O382" t="n">
         <v>0.00893</v>
       </c>
       <c r="P382" t="n">
-        <v>0.000461884589719388</v>
+        <v>0.0006270463491165379</v>
       </c>
     </row>
     <row r="383">
@@ -22657,13 +22657,13 @@
         </is>
       </c>
       <c r="N383" t="n">
-        <v>0.0004129594756198916</v>
+        <v>0.0005749552427676439</v>
       </c>
       <c r="O383" t="n">
         <v>0.0147</v>
       </c>
       <c r="P383" t="n">
-        <v>3.803356770459202e-06</v>
+        <v>5.29533778589e-06</v>
       </c>
     </row>
     <row r="384">
@@ -22715,13 +22715,13 @@
         </is>
       </c>
       <c r="N384" t="n">
-        <v>0.002618511979042425</v>
+        <v>0.001967020634917384</v>
       </c>
       <c r="O384" t="n">
         <v>0.00393</v>
       </c>
       <c r="P384" t="n">
-        <v>0.001471603732221843</v>
+        <v>0.00110546559682357</v>
       </c>
     </row>
     <row r="385">
@@ -22773,13 +22773,13 @@
         </is>
       </c>
       <c r="N385" t="n">
-        <v>0.001916692565548112</v>
+        <v>0.001732621026639671</v>
       </c>
       <c r="O385" t="n">
         <v>0.00624</v>
       </c>
       <c r="P385" t="n">
-        <v>0.01094431454927972</v>
+        <v>0.009893266062112523</v>
       </c>
     </row>
     <row r="386">
@@ -22831,13 +22831,13 @@
         </is>
       </c>
       <c r="N386" t="n">
-        <v>0.001011930764365246</v>
+        <v>0.001149152157523762</v>
       </c>
       <c r="O386" t="n">
         <v>0.00907</v>
       </c>
       <c r="P386" t="n">
-        <v>0.0008479979805380764</v>
+        <v>0.0009629895080049126</v>
       </c>
     </row>
     <row r="387">
@@ -22889,13 +22889,13 @@
         </is>
       </c>
       <c r="N387" t="n">
-        <v>0.0007806211465009353</v>
+        <v>0.0009477562803300388</v>
       </c>
       <c r="O387" t="n">
         <v>0.0147</v>
       </c>
       <c r="P387" t="n">
-        <v>0.001288024891726543</v>
+        <v>0.001563797862544564</v>
       </c>
     </row>
     <row r="388">
@@ -22947,13 +22947,13 @@
         </is>
       </c>
       <c r="N388" t="n">
-        <v>0.005190858262636759</v>
+        <v>0.00320292308047582</v>
       </c>
       <c r="O388" t="n">
         <v>0.00543</v>
       </c>
       <c r="P388" t="n">
-        <v>0.008305373220218815</v>
+        <v>0.005124676928761313</v>
       </c>
     </row>
     <row r="389">
@@ -23005,13 +23005,13 @@
         </is>
       </c>
       <c r="N389" t="n">
-        <v>0.003810317513264969</v>
+        <v>0.002884856225678033</v>
       </c>
       <c r="O389" t="n">
         <v>0.007900000000000001</v>
       </c>
       <c r="P389" t="n">
-        <v>0.003631232590141515</v>
+        <v>0.002749267983071165</v>
       </c>
     </row>
     <row r="390">
@@ -23063,13 +23063,13 @@
         </is>
       </c>
       <c r="N390" t="n">
-        <v>0.001856040463045104</v>
+        <v>0.001780022046038911</v>
       </c>
       <c r="O390" t="n">
         <v>0.0126</v>
       </c>
       <c r="P390" t="n">
-        <v>0.001176729653570596</v>
+        <v>0.00112853397718867</v>
       </c>
     </row>
     <row r="391">
@@ -23121,13 +23121,13 @@
         </is>
       </c>
       <c r="N391" t="n">
-        <v>0.001508351656912674</v>
+        <v>0.001584495224071406</v>
       </c>
       <c r="O391" t="n">
         <v>0.0191</v>
       </c>
       <c r="P391" t="n">
-        <v>0.05867487945390303</v>
+        <v>0.0616368642163777</v>
       </c>
     </row>
     <row r="392">
@@ -23179,13 +23179,13 @@
         </is>
       </c>
       <c r="N392" t="n">
-        <v>0.002389260078908444</v>
+        <v>0.002692577296153164</v>
       </c>
       <c r="O392" t="n">
         <v>0.00372</v>
       </c>
       <c r="P392" t="n">
-        <v>4.635164553082381e-05</v>
+        <v>5.223599954537139e-05</v>
       </c>
     </row>
     <row r="393">
@@ -23237,13 +23237,13 @@
         </is>
       </c>
       <c r="N393" t="n">
-        <v>0.001659244638836343</v>
+        <v>0.001973585623872072</v>
       </c>
       <c r="O393" t="n">
         <v>0.00601</v>
       </c>
       <c r="P393" t="n">
-        <v>0.005309582844276298</v>
+        <v>0.006315473996390631</v>
       </c>
     </row>
     <row r="394">
@@ -23295,13 +23295,13 @@
         </is>
       </c>
       <c r="N394" t="n">
-        <v>0.0008642685118613002</v>
+        <v>0.001184063613363866</v>
       </c>
       <c r="O394" t="n">
         <v>0.0103</v>
       </c>
       <c r="P394" t="n">
-        <v>0.0008262406973394029</v>
+        <v>0.001131964814375856</v>
       </c>
     </row>
     <row r="395">
@@ -23353,13 +23353,13 @@
         </is>
       </c>
       <c r="N395" t="n">
-        <v>0.0006683101805419938</v>
+        <v>0.0009377574809574051</v>
       </c>
       <c r="O395" t="n">
         <v>0.0165</v>
       </c>
       <c r="P395" t="n">
-        <v>0.0001898000912739262</v>
+        <v>0.000266323124591903</v>
       </c>
     </row>
     <row r="396">
@@ -23411,13 +23411,13 @@
         </is>
       </c>
       <c r="N396" t="n">
-        <v>0.00428974572784019</v>
+        <v>0.004079537005914375</v>
       </c>
       <c r="O396" t="n">
         <v>0.00251</v>
       </c>
       <c r="P396" t="n">
-        <v>0.001038118466137326</v>
+        <v>0.0009872479554312787</v>
       </c>
     </row>
     <row r="397">
@@ -23469,13 +23469,13 @@
         </is>
       </c>
       <c r="N397" t="n">
-        <v>0.002943381851892527</v>
+        <v>0.003136773136749294</v>
       </c>
       <c r="O397" t="n">
         <v>0.0039</v>
       </c>
       <c r="P397" t="n">
-        <v>0.003855830225979211</v>
+        <v>0.004109172809141575</v>
       </c>
     </row>
     <row r="398">
@@ -23527,13 +23527,13 @@
         </is>
       </c>
       <c r="N398" t="n">
-        <v>0.001518633427263099</v>
+        <v>0.001908466801437523</v>
       </c>
       <c r="O398" t="n">
         <v>0.00623</v>
       </c>
       <c r="P398" t="n">
-        <v>0.0008018384495949166</v>
+        <v>0.001007670471159012</v>
       </c>
     </row>
     <row r="399">
@@ -23585,13 +23585,13 @@
         </is>
       </c>
       <c r="N399" t="n">
-        <v>0.00120213503248857</v>
+        <v>0.001572179248853692</v>
       </c>
       <c r="O399" t="n">
         <v>0.00895</v>
       </c>
       <c r="P399" t="n">
-        <v>0.0009124204896588249</v>
+        <v>0.001193284049879952</v>
       </c>
     </row>
     <row r="400">
@@ -23643,13 +23643,13 @@
         </is>
       </c>
       <c r="N400" t="n">
-        <v>0.008291453994994223</v>
+        <v>0.006273654108040439</v>
       </c>
       <c r="O400" t="n">
         <v>0.00302</v>
       </c>
       <c r="P400" t="n">
-        <v>0.008457283074894108</v>
+        <v>0.006399127190201247</v>
       </c>
     </row>
     <row r="401">
@@ -23701,13 +23701,13 @@
         </is>
       </c>
       <c r="N401" t="n">
-        <v>0.005852204156548826</v>
+        <v>0.005214415531938287</v>
       </c>
       <c r="O401" t="n">
         <v>0.00444</v>
       </c>
       <c r="P401" t="n">
-        <v>0.001796626676060489</v>
+        <v>0.001600825568305054</v>
       </c>
     </row>
     <row r="402">
@@ -23759,13 +23759,13 @@
         </is>
       </c>
       <c r="N402" t="n">
-        <v>0.00300262894113068</v>
+        <v>0.003234495428657961</v>
       </c>
       <c r="O402" t="n">
         <v>0.00688</v>
       </c>
       <c r="P402" t="n">
-        <v>0.0001846616798795368</v>
+        <v>0.0001989214688624646</v>
       </c>
     </row>
     <row r="403">
@@ -23817,13 +23817,13 @@
         </is>
       </c>
       <c r="N403" t="n">
-        <v>0.002343834278866428</v>
+        <v>0.002717956261638487</v>
       </c>
       <c r="O403" t="n">
         <v>0.009639999999999999</v>
       </c>
       <c r="P403" t="n">
-        <v>0.004336093415902891</v>
+        <v>0.005028219084031201</v>
       </c>
     </row>
     <row r="404">
@@ -23875,13 +23875,13 @@
         </is>
       </c>
       <c r="N404" t="n">
-        <v>0.01769535643756008</v>
+        <v>0.01082814349713123</v>
       </c>
       <c r="O404" t="n">
         <v>0.00405</v>
       </c>
       <c r="P404" t="n">
-        <v>0.003839892346950538</v>
+        <v>0.002349707138877477</v>
       </c>
     </row>
     <row r="405">
@@ -23933,13 +23933,13 @@
         </is>
       </c>
       <c r="N405" t="n">
-        <v>0.01251579345755297</v>
+        <v>0.009313810752956852</v>
       </c>
       <c r="O405" t="n">
         <v>0.00574</v>
       </c>
       <c r="P405" t="n">
-        <v>0.03929959145671632</v>
+        <v>0.02924536576428452</v>
       </c>
     </row>
     <row r="406">
@@ -23991,13 +23991,13 @@
         </is>
       </c>
       <c r="N406" t="n">
-        <v>0.006041112008202391</v>
+        <v>0.005522526332564663</v>
       </c>
       <c r="O406" t="n">
         <v>0.008630000000000001</v>
       </c>
       <c r="P406" t="n">
-        <v>0.001528401338075205</v>
+        <v>0.00139719916213886</v>
       </c>
     </row>
     <row r="407">
@@ -24049,13 +24049,13 @@
         </is>
       </c>
       <c r="N407" t="n">
-        <v>0.004350204113039621</v>
+        <v>0.004443817880974265</v>
       </c>
       <c r="O407" t="n">
         <v>0.0128</v>
       </c>
       <c r="P407" t="n">
-        <v>0.07786865362340921</v>
+        <v>0.07954434006943933</v>
       </c>
     </row>
     <row r="408">
@@ -24107,13 +24107,13 @@
         </is>
       </c>
       <c r="N408" t="n">
-        <v>0.007368921192079061</v>
+        <v>0.008257187233030129</v>
       </c>
       <c r="O408" t="n">
         <v>0.00349</v>
       </c>
       <c r="P408" t="n">
-        <v>0.0109796925761978</v>
+        <v>0.01230320897721489</v>
       </c>
     </row>
     <row r="409">
@@ -24165,13 +24165,13 @@
         </is>
       </c>
       <c r="N409" t="n">
-        <v>0.004938486215659192</v>
+        <v>0.005792513503225456</v>
       </c>
       <c r="O409" t="n">
         <v>0.00568</v>
       </c>
       <c r="P409" t="n">
-        <v>5.382949975068519e-05</v>
+        <v>6.313839718515748e-05</v>
       </c>
     </row>
     <row r="410">
@@ -24223,13 +24223,13 @@
         </is>
       </c>
       <c r="N410" t="n">
-        <v>0.002528442993607295</v>
+        <v>0.003343758328916415</v>
       </c>
       <c r="O410" t="n">
         <v>0.008959999999999999</v>
       </c>
       <c r="P410" t="n">
-        <v>0.0009456376796091282</v>
+        <v>0.001250565615014739</v>
       </c>
     </row>
     <row r="411">
@@ -24281,13 +24281,13 @@
         </is>
       </c>
       <c r="N411" t="n">
-        <v>0.001898641621545463</v>
+        <v>0.00261020362979328</v>
       </c>
       <c r="O411" t="n">
         <v>0.0125</v>
       </c>
       <c r="P411" t="n">
-        <v>0.003417554918781833</v>
+        <v>0.004698366533627905</v>
       </c>
     </row>
     <row r="412">
@@ -24339,13 +24339,13 @@
         </is>
       </c>
       <c r="N412" t="n">
-        <v>0.01324969256056625</v>
+        <v>0.01271633247991983</v>
       </c>
       <c r="O412" t="n">
         <v>0.00239</v>
       </c>
       <c r="P412" t="n">
-        <v>0.05498622412634994</v>
+        <v>0.0527727797916673</v>
       </c>
     </row>
     <row r="413">
@@ -24397,13 +24397,13 @@
         </is>
       </c>
       <c r="N413" t="n">
-        <v>0.00904955384195898</v>
+        <v>0.009538625759800145</v>
       </c>
       <c r="O413" t="n">
         <v>0.0037</v>
       </c>
       <c r="P413" t="n">
-        <v>0.000798170648860782</v>
+        <v>0.0008413067920143728</v>
       </c>
     </row>
     <row r="414">
@@ -24455,13 +24455,13 @@
         </is>
       </c>
       <c r="N414" t="n">
-        <v>0.004453099839868338</v>
+        <v>0.005404318196838678</v>
       </c>
       <c r="O414" t="n">
         <v>0.00533</v>
       </c>
       <c r="P414" t="n">
-        <v>0.002471470411126928</v>
+        <v>0.002999396599245467</v>
       </c>
     </row>
     <row r="415">
@@ -24513,13 +24513,13 @@
         </is>
       </c>
       <c r="N415" t="n">
-        <v>0.003483593234218096</v>
+        <v>0.004485539350258467</v>
       </c>
       <c r="O415" t="n">
         <v>0.00763</v>
       </c>
       <c r="P415" t="n">
-        <v>0.003480109640983878</v>
+        <v>0.004481053810908208</v>
       </c>
     </row>
     <row r="416">
@@ -24571,13 +24571,13 @@
         </is>
       </c>
       <c r="N416" t="n">
-        <v>0.02701413823833502</v>
+        <v>0.02075572690668076</v>
       </c>
       <c r="O416" t="n">
         <v>0.00282</v>
       </c>
       <c r="P416" t="n">
-        <v>0.04862544882900303</v>
+        <v>0.03736030843202538</v>
       </c>
     </row>
     <row r="417">
@@ -24629,13 +24629,13 @@
         </is>
       </c>
       <c r="N417" t="n">
-        <v>0.01879953717474201</v>
+        <v>0.01667686189187368</v>
       </c>
       <c r="O417" t="n">
         <v>0.00418</v>
       </c>
       <c r="P417" t="n">
-        <v>0.008591388488857099</v>
+        <v>0.007621325884586271</v>
       </c>
     </row>
     <row r="418">
@@ -24687,13 +24687,13 @@
         </is>
       </c>
       <c r="N418" t="n">
-        <v>0.009165551589710778</v>
+        <v>0.009601892056881315</v>
       </c>
       <c r="O418" t="n">
         <v>0.00581</v>
       </c>
       <c r="P418" t="n">
-        <v>0.008001526537817509</v>
+        <v>0.008382451765657387</v>
       </c>
     </row>
     <row r="419">
@@ -24745,13 +24745,13 @@
         </is>
       </c>
       <c r="N419" t="n">
-        <v>0.006698578182012005</v>
+        <v>0.007751984146749543</v>
       </c>
       <c r="O419" t="n">
         <v>0.00908</v>
       </c>
       <c r="P419" t="n">
-        <v>0.0001621055920046905</v>
+        <v>0.0001875980163513389</v>
       </c>
     </row>
     <row r="420">
@@ -24803,13 +24803,13 @@
         </is>
       </c>
       <c r="N420" t="n">
-        <v>0.06210728798892526</v>
+        <v>0.03746489404198896</v>
       </c>
       <c r="O420" t="n">
         <v>0.00395</v>
       </c>
       <c r="P420" t="n">
-        <v>0.06769694390792853</v>
+        <v>0.04083673450576797</v>
       </c>
     </row>
     <row r="421">
@@ -24861,13 +24861,13 @@
         </is>
       </c>
       <c r="N421" t="n">
-        <v>0.04100827474909552</v>
+        <v>0.03037525381610815</v>
       </c>
       <c r="O421" t="n">
         <v>0.00557</v>
       </c>
       <c r="P421" t="n">
-        <v>0.02792663510413405</v>
+        <v>0.02068554784876965</v>
       </c>
     </row>
     <row r="422">
@@ -24919,13 +24919,13 @@
         </is>
       </c>
       <c r="N422" t="n">
-        <v>0.01926414032377587</v>
+        <v>0.01712816764690474</v>
       </c>
       <c r="O422" t="n">
         <v>0.00761</v>
       </c>
       <c r="P422" t="n">
-        <v>0.03698714942164966</v>
+        <v>0.03288608188205711</v>
       </c>
     </row>
     <row r="423">
@@ -24977,13 +24977,13 @@
         </is>
       </c>
       <c r="N423" t="n">
-        <v>0.01320108525010203</v>
+        <v>0.01352762156913163</v>
       </c>
       <c r="O423" t="n">
         <v>0.0104</v>
       </c>
       <c r="P423" t="n">
-        <v>0.04145140768532036</v>
+        <v>0.04247673172707331</v>
       </c>
     </row>
     <row r="424">
@@ -25035,13 +25035,13 @@
         </is>
       </c>
       <c r="N424" t="n">
-        <v>0.01914632352635401</v>
+        <v>0.02191374415155086</v>
       </c>
       <c r="O424" t="n">
         <v>0.00357</v>
       </c>
       <c r="P424" t="n">
-        <v>0.004518532352219545</v>
+        <v>0.005171643619766003</v>
       </c>
     </row>
     <row r="425">
@@ -25093,13 +25093,13 @@
         </is>
       </c>
       <c r="N425" t="n">
-        <v>0.01302368876916983</v>
+        <v>0.01538644370800455</v>
       </c>
       <c r="O425" t="n">
         <v>0.00554</v>
       </c>
       <c r="P425" t="n">
-        <v>0.1071849585702677</v>
+        <v>0.1266304317168775</v>
       </c>
     </row>
     <row r="426">
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="N426" t="n">
-        <v>0.00632425682053441</v>
+        <v>0.00830503183568318</v>
       </c>
       <c r="O426" t="n">
         <v>0.00825</v>
       </c>
       <c r="P426" t="n">
-        <v>0.001397660757338105</v>
+        <v>0.001835412035685983</v>
       </c>
     </row>
     <row r="427">
@@ -25209,13 +25209,13 @@
         </is>
       </c>
       <c r="N427" t="n">
-        <v>0.00473801769877784</v>
+        <v>0.006603043940685191</v>
       </c>
       <c r="O427" t="n">
         <v>0.0118</v>
       </c>
       <c r="P427" t="n">
-        <v>0.01454571433524797</v>
+        <v>0.02027134489790353</v>
       </c>
     </row>
     <row r="428">
@@ -25267,13 +25267,13 @@
         </is>
       </c>
       <c r="N428" t="n">
-        <v>0.03520788698803286</v>
+        <v>0.03476526736744383</v>
       </c>
       <c r="O428" t="n">
         <v>0.00239</v>
       </c>
       <c r="P428" t="n">
-        <v>0.0248567682135512</v>
+        <v>0.02454427876141535</v>
       </c>
     </row>
     <row r="429">
@@ -25325,13 +25325,13 @@
         </is>
       </c>
       <c r="N429" t="n">
-        <v>0.02418695310302268</v>
+        <v>0.02570401400157312</v>
       </c>
       <c r="O429" t="n">
         <v>0.00356</v>
       </c>
       <c r="P429" t="n">
-        <v>0.0167373715472917</v>
+        <v>0.0177871776890886</v>
       </c>
     </row>
     <row r="430">
@@ -25383,13 +25383,13 @@
         </is>
       </c>
       <c r="N430" t="n">
-        <v>0.01159418263576042</v>
+        <v>0.0140551999742023</v>
       </c>
       <c r="O430" t="n">
         <v>0.00507</v>
       </c>
       <c r="P430" t="n">
-        <v>0.003965210461430065</v>
+        <v>0.004806878391177188</v>
       </c>
     </row>
     <row r="431">
@@ -25441,13 +25441,13 @@
         </is>
       </c>
       <c r="N431" t="n">
-        <v>0.00872572837320147</v>
+        <v>0.01142776180648743</v>
       </c>
       <c r="O431" t="n">
         <v>0.0071</v>
       </c>
       <c r="P431" t="n">
-        <v>0.023733981175108</v>
+        <v>0.03108351211364581</v>
       </c>
     </row>
     <row r="432">
@@ -25499,13 +25499,13 @@
         </is>
       </c>
       <c r="N432" t="n">
-        <v>0.0765033351224035</v>
+        <v>0.05980689032279722</v>
       </c>
       <c r="O432" t="n">
         <v>0.00297</v>
       </c>
       <c r="P432" t="n">
-        <v>0.6502783485404298</v>
+        <v>0.5083585677437764</v>
       </c>
     </row>
     <row r="433">
@@ -25557,13 +25557,13 @@
         </is>
       </c>
       <c r="N433" t="n">
-        <v>0.05088496727850866</v>
+        <v>0.04573453147081762</v>
       </c>
       <c r="O433" t="n">
         <v>0.00399</v>
       </c>
       <c r="P433" t="n">
-        <v>0.03261726402552406</v>
+        <v>0.0293158346727941</v>
       </c>
     </row>
     <row r="434">
@@ -25615,13 +25615,13 @@
         </is>
       </c>
       <c r="N434" t="n">
-        <v>0.02406779671289504</v>
+        <v>0.02531267385533124</v>
       </c>
       <c r="O434" t="n">
         <v>0.00601</v>
       </c>
       <c r="P434" t="n">
-        <v>0.01306881361510201</v>
+        <v>0.01374478190344487</v>
       </c>
     </row>
     <row r="435">
@@ -25673,13 +25673,13 @@
         </is>
       </c>
       <c r="N435" t="n">
-        <v>0.01711222608686421</v>
+        <v>0.02019932629389374</v>
       </c>
       <c r="O435" t="n">
         <v>0.00827</v>
       </c>
       <c r="P435" t="n">
-        <v>0.008710123078213885</v>
+        <v>0.01028145708359191</v>
       </c>
     </row>
     <row r="436">
@@ -25731,13 +25731,13 @@
         </is>
       </c>
       <c r="N436" t="n">
-        <v>0.1813174810983431</v>
+        <v>0.1092844636190128</v>
       </c>
       <c r="O436" t="n">
         <v>0.00432</v>
       </c>
       <c r="P436" t="n">
-        <v>0.8213681893754944</v>
+        <v>0.495058620194128</v>
       </c>
     </row>
     <row r="437">
@@ -25789,13 +25789,13 @@
         </is>
       </c>
       <c r="N437" t="n">
-        <v>0.1163667996869693</v>
+        <v>0.08630899762111552</v>
       </c>
       <c r="O437" t="n">
         <v>0.00589</v>
       </c>
       <c r="P437" t="n">
-        <v>2.234242553989811</v>
+        <v>1.657132754325418</v>
       </c>
     </row>
     <row r="438">
@@ -25847,13 +25847,13 @@
         </is>
       </c>
       <c r="N438" t="n">
-        <v>0.05337704046515297</v>
+        <v>0.04773034201602722</v>
       </c>
       <c r="O438" t="n">
         <v>0.00743</v>
       </c>
       <c r="P438" t="n">
-        <v>0.009661244324192688</v>
+        <v>0.008639191904900928</v>
       </c>
     </row>
     <row r="439">
@@ -25905,13 +25905,13 @@
         </is>
       </c>
       <c r="N439" t="n">
-        <v>0.03383530688067319</v>
+        <v>0.03543445480703337</v>
       </c>
       <c r="O439" t="n">
         <v>0.011</v>
       </c>
       <c r="P439" t="n">
-        <v>0.04364754587606842</v>
+        <v>0.04571044670107306</v>
       </c>
     </row>
     <row r="440">
@@ -25963,13 +25963,13 @@
         </is>
       </c>
       <c r="N440" t="n">
-        <v>0.04240038717358142</v>
+        <v>0.05267862757587131</v>
       </c>
       <c r="O440" t="n">
         <v>0.00413</v>
       </c>
       <c r="P440" t="n">
-        <v>0.07080864657988097</v>
+        <v>0.08797330805170508</v>
       </c>
     </row>
     <row r="441">
@@ -26021,13 +26021,13 @@
         </is>
       </c>
       <c r="N441" t="n">
-        <v>0.02818681454603741</v>
+        <v>0.03541040383312816</v>
       </c>
       <c r="O441" t="n">
         <v>0.00594</v>
       </c>
       <c r="P441" t="n">
-        <v>0.06229286014674267</v>
+        <v>0.07825699247121325</v>
       </c>
     </row>
     <row r="442">
@@ -26079,13 +26079,13 @@
         </is>
       </c>
       <c r="N442" t="n">
-        <v>0.01337618826924938</v>
+        <v>0.01890324866691958</v>
       </c>
       <c r="O442" t="n">
         <v>0.009050000000000001</v>
       </c>
       <c r="P442" t="n">
-        <v>0.02247199629233896</v>
+        <v>0.03175745776042489</v>
       </c>
     </row>
     <row r="443">
@@ -26137,13 +26137,13 @@
         </is>
       </c>
       <c r="N443" t="n">
-        <v>0.0103691310160525</v>
+        <v>0.01574405024777525</v>
       </c>
       <c r="O443" t="n">
         <v>0.0125</v>
       </c>
       <c r="P443" t="n">
-        <v>0.04158021537437055</v>
+        <v>0.06313364149357875</v>
       </c>
     </row>
     <row r="444">
@@ -26195,13 +26195,13 @@
         </is>
       </c>
       <c r="N444" t="n">
-        <v>0.07690033658182976</v>
+        <v>0.08254216911680817</v>
       </c>
       <c r="O444" t="n">
         <v>0.00277</v>
       </c>
       <c r="P444" t="n">
-        <v>0.01330375822865655</v>
+        <v>0.01427979525720781</v>
       </c>
     </row>
     <row r="445">
@@ -26253,13 +26253,13 @@
         </is>
       </c>
       <c r="N445" t="n">
-        <v>0.05172529057944394</v>
+        <v>0.05880165133785443</v>
       </c>
       <c r="O445" t="n">
         <v>0.004</v>
       </c>
       <c r="P445" t="n">
-        <v>0.008379497073869919</v>
+        <v>0.009525867516732418</v>
       </c>
     </row>
     <row r="446">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="N446" t="n">
-        <v>0.0248944285301833</v>
+        <v>0.03226972376360865</v>
       </c>
       <c r="O446" t="n">
         <v>0.00568</v>
       </c>
       <c r="P446" t="n">
-        <v>0.03983108564829328</v>
+        <v>0.05163155802177384</v>
       </c>
     </row>
     <row r="447">
@@ -26369,13 +26369,13 @@
         </is>
       </c>
       <c r="N447" t="n">
-        <v>0.01833944639686099</v>
+        <v>0.02626542408695057</v>
       </c>
       <c r="O447" t="n">
         <v>0.00796</v>
       </c>
       <c r="P447" t="n">
-        <v>0.002475825263576234</v>
+        <v>0.003545832251738327</v>
       </c>
     </row>
     <row r="448">
@@ -26427,13 +26427,13 @@
         </is>
       </c>
       <c r="N448" t="n">
-        <v>0.1634281537532357</v>
+        <v>0.1386246196375893</v>
       </c>
       <c r="O448" t="n">
         <v>0.00364</v>
       </c>
       <c r="P448" t="n">
-        <v>0.1013254553270062</v>
+        <v>0.08594726417530536</v>
       </c>
     </row>
     <row r="449">
@@ -26485,13 +26485,13 @@
         </is>
       </c>
       <c r="N449" t="n">
-        <v>0.1075143049841617</v>
+        <v>0.1032653767764678</v>
       </c>
       <c r="O449" t="n">
         <v>0.00475</v>
       </c>
       <c r="P449" t="n">
-        <v>0.05988546787617809</v>
+        <v>0.05751881486449258</v>
       </c>
     </row>
     <row r="450">
@@ -26543,13 +26543,13 @@
         </is>
       </c>
       <c r="N450" t="n">
-        <v>0.05060599377340654</v>
+        <v>0.05723364749416696</v>
       </c>
       <c r="O450" t="n">
         <v>0.00657</v>
       </c>
       <c r="P450" t="n">
-        <v>0.004448266852682434</v>
+        <v>0.005030837614737276</v>
       </c>
     </row>
     <row r="451">
@@ -26601,13 +26601,13 @@
         </is>
       </c>
       <c r="N451" t="n">
-        <v>0.03494845471509769</v>
+        <v>0.04508609082488234</v>
       </c>
       <c r="O451" t="n">
         <v>0.009180000000000001</v>
       </c>
       <c r="P451" t="n">
-        <v>0.08073093039187568</v>
+        <v>0.1041488698054782</v>
       </c>
     </row>
     <row r="452">
@@ -26659,13 +26659,13 @@
         </is>
       </c>
       <c r="N452" t="n">
-        <v>0.3996497729185194</v>
+        <v>0.2629301467145199</v>
       </c>
       <c r="O452" t="n">
         <v>0.00535</v>
       </c>
       <c r="P452" t="n">
-        <v>0.02781562419512895</v>
+        <v>0.01829993821133058</v>
       </c>
     </row>
     <row r="453">
@@ -26717,13 +26717,13 @@
         </is>
       </c>
       <c r="N453" t="n">
-        <v>0.2513192240739497</v>
+        <v>0.1999903426717501</v>
       </c>
       <c r="O453" t="n">
         <v>0.00726</v>
       </c>
       <c r="P453" t="n">
-        <v>0.1613469418554757</v>
+        <v>0.1283937999952636</v>
       </c>
     </row>
     <row r="454">
@@ -26775,13 +26775,13 @@
         </is>
       </c>
       <c r="N454" t="n">
-        <v>0.1105460199321078</v>
+        <v>0.1071321354489712</v>
       </c>
       <c r="O454" t="n">
         <v>0.00885</v>
       </c>
       <c r="P454" t="n">
-        <v>0.1030288905767245</v>
+        <v>0.09984715023844118</v>
       </c>
     </row>
     <row r="455">
@@ -26833,13 +26833,13 @@
         </is>
       </c>
       <c r="N455" t="n">
-        <v>0.0697670791353717</v>
+        <v>0.08056672069533138</v>
       </c>
       <c r="O455" t="n">
         <v>0.0128</v>
       </c>
       <c r="P455" t="n">
-        <v>0.02790683165414868</v>
+        <v>0.03222668827813256</v>
       </c>
     </row>
     <row r="456">
@@ -26891,13 +26891,13 @@
         </is>
       </c>
       <c r="N456" t="n">
-        <v>0.08630099707096411</v>
+        <v>0.1170676566534595</v>
       </c>
       <c r="O456" t="n">
         <v>0.0109</v>
       </c>
       <c r="P456" t="n">
-        <v>1.018351765437377</v>
+        <v>1.381398348510823</v>
       </c>
     </row>
     <row r="457">
@@ -26949,13 +26949,13 @@
         </is>
       </c>
       <c r="N457" t="n">
-        <v>0.05527107275887796</v>
+        <v>0.07439120684928056</v>
       </c>
       <c r="O457" t="n">
         <v>0.0168</v>
       </c>
       <c r="P457" t="n">
-        <v>0.02691701243357357</v>
+        <v>0.03622851773559963</v>
       </c>
     </row>
     <row r="458">
@@ -27007,13 +27007,13 @@
         </is>
       </c>
       <c r="N458" t="n">
-        <v>0.02952804453536367</v>
+        <v>0.04400897351985007</v>
       </c>
       <c r="O458" t="n">
         <v>0.0229</v>
       </c>
       <c r="P458" t="n">
-        <v>0.1420298942150992</v>
+        <v>0.2116831626304788</v>
       </c>
     </row>
     <row r="459">
@@ -27065,13 +27065,13 @@
         </is>
       </c>
       <c r="N459" t="n">
-        <v>0.02372926199313414</v>
+        <v>0.03895648921076828</v>
       </c>
       <c r="O459" t="n">
         <v>0.0324</v>
       </c>
       <c r="P459" t="n">
-        <v>0.08898473247425302</v>
+        <v>0.146086834540381</v>
       </c>
     </row>
     <row r="460">
@@ -27123,13 +27123,13 @@
         </is>
       </c>
       <c r="N460" t="n">
-        <v>0.1534996950643792</v>
+        <v>0.1790421001135973</v>
       </c>
       <c r="O460" t="n">
         <v>0.00801</v>
       </c>
       <c r="P460" t="n">
-        <v>0.2440645151523629</v>
+        <v>0.2846769391806198</v>
       </c>
     </row>
     <row r="461">
@@ -27181,13 +27181,13 @@
         </is>
       </c>
       <c r="N461" t="n">
-        <v>0.1029344997934808</v>
+        <v>0.1255978981490663</v>
       </c>
       <c r="O461" t="n">
         <v>0.0103</v>
       </c>
       <c r="P461" t="n">
-        <v>0.3077741543825075</v>
+        <v>0.3755377154657082</v>
       </c>
     </row>
     <row r="462">
@@ -27239,13 +27239,13 @@
         </is>
       </c>
       <c r="N462" t="n">
-        <v>0.05340814388200235</v>
+        <v>0.07387602490231701</v>
       </c>
       <c r="O462" t="n">
         <v>0.0152</v>
       </c>
       <c r="P462" t="n">
-        <v>0.9720282186524427</v>
+        <v>1.34454365322217</v>
       </c>
     </row>
     <row r="463">
@@ -27297,13 +27297,13 @@
         </is>
       </c>
       <c r="N463" t="n">
-        <v>0.03998478618907994</v>
+        <v>0.06192674145815985</v>
       </c>
       <c r="O463" t="n">
         <v>0.0178</v>
       </c>
       <c r="P463" t="n">
-        <v>0.09156516037299306</v>
+        <v>0.1418122379391861</v>
       </c>
     </row>
     <row r="464">
@@ -27355,13 +27355,13 @@
         </is>
       </c>
       <c r="N464" t="n">
-        <v>0.2953332716163206</v>
+        <v>0.2824300698610038</v>
       </c>
       <c r="O464" t="n">
         <v>0.0114</v>
       </c>
       <c r="P464" t="n">
-        <v>0.3780265876688903</v>
+        <v>0.3615104894220849</v>
       </c>
     </row>
     <row r="465">
@@ -27413,13 +27413,13 @@
         </is>
       </c>
       <c r="N465" t="n">
-        <v>0.2034031906749232</v>
+        <v>0.2151701136059653</v>
       </c>
       <c r="O465" t="n">
         <v>0.0143</v>
       </c>
       <c r="P465" t="n">
-        <v>0.6285158591855126</v>
+        <v>0.6648756510424327</v>
       </c>
     </row>
     <row r="466">
@@ -27471,13 +27471,13 @@
         </is>
       </c>
       <c r="N466" t="n">
-        <v>0.1016444517507419</v>
+        <v>0.1252996174473123</v>
       </c>
       <c r="O466" t="n">
         <v>0.0192</v>
       </c>
       <c r="P466" t="n">
-        <v>0.2622426855169142</v>
+        <v>0.3232730130140657</v>
       </c>
     </row>
     <row r="467">
@@ -27529,13 +27529,13 @@
         </is>
       </c>
       <c r="N467" t="n">
-        <v>0.08412194514092636</v>
+        <v>0.1157056536039545</v>
       </c>
       <c r="O467" t="n">
         <v>0.0253</v>
       </c>
       <c r="P467" t="n">
-        <v>0.1152470648430691</v>
+        <v>0.1585167454374177</v>
       </c>
     </row>
     <row r="468">
@@ -27587,13 +27587,13 @@
         </is>
       </c>
       <c r="N468" t="n">
-        <v>0.616885346891033</v>
+        <v>0.4852599276745718</v>
       </c>
       <c r="O468" t="n">
         <v>0.0175</v>
       </c>
       <c r="P468" t="n">
-        <v>0.4583458127400376</v>
+        <v>0.3605481262622068</v>
       </c>
     </row>
     <row r="469">
@@ -27645,13 +27645,13 @@
         </is>
       </c>
       <c r="N469" t="n">
-        <v>0.4101149090117598</v>
+        <v>0.3815117950880288</v>
       </c>
       <c r="O469" t="n">
         <v>0.0202</v>
       </c>
       <c r="P469" t="n">
-        <v>0.1857820537823272</v>
+        <v>0.1728248431748771</v>
       </c>
     </row>
     <row r="470">
@@ -27703,13 +27703,13 @@
         </is>
       </c>
       <c r="N470" t="n">
-        <v>0.1924818766713606</v>
+        <v>0.2101683945125828</v>
       </c>
       <c r="O470" t="n">
         <v>0.0243</v>
       </c>
       <c r="P470" t="n">
-        <v>3.07971002674177</v>
+        <v>3.362694312201325</v>
       </c>
     </row>
     <row r="471">
@@ -27761,13 +27761,13 @@
         </is>
       </c>
       <c r="N471" t="n">
-        <v>0.1310404644523158</v>
+        <v>0.1654372101995316</v>
       </c>
       <c r="O471" t="n">
         <v>0.0334</v>
       </c>
       <c r="P471" t="n">
-        <v>0.5949237086135136</v>
+        <v>0.7510849343058736</v>
       </c>
     </row>
     <row r="472">
@@ -27819,13 +27819,13 @@
         </is>
       </c>
       <c r="N472" t="n">
-        <v>0.002939707422549171</v>
+        <v>0.003195295341807613</v>
       </c>
       <c r="O472" t="n">
         <v>0.018</v>
       </c>
       <c r="P472" t="n">
-        <v>0.004350766985372773</v>
+        <v>0.004729037105875267</v>
       </c>
     </row>
     <row r="473">
@@ -27877,13 +27877,13 @@
         </is>
       </c>
       <c r="N473" t="n">
-        <v>0.002058181446175927</v>
+        <v>0.002353279387137324</v>
       </c>
       <c r="O473" t="n">
         <v>0.0301</v>
       </c>
       <c r="P473" t="n">
-        <v>0.004713235511742873</v>
+        <v>0.005389009796544471</v>
       </c>
     </row>
     <row r="474">
@@ -27935,13 +27935,13 @@
         </is>
       </c>
       <c r="N474" t="n">
-        <v>0.001094560157022381</v>
+        <v>0.001426088902924399</v>
       </c>
       <c r="O474" t="n">
         <v>0.0526</v>
       </c>
       <c r="P474" t="n">
-        <v>0.0004640935065774898</v>
+        <v>0.0006046616948399452</v>
       </c>
     </row>
     <row r="475">
@@ -27993,13 +27993,13 @@
         </is>
       </c>
       <c r="N475" t="n">
-        <v>0.0008846512868227115</v>
+        <v>0.001193750562451962</v>
       </c>
       <c r="O475" t="n">
         <v>0.0881</v>
       </c>
       <c r="P475" t="n">
-        <v>0.002450484064498911</v>
+        <v>0.003306689057991934</v>
       </c>
     </row>
     <row r="476">
@@ -28051,13 +28051,13 @@
         </is>
       </c>
       <c r="N476" t="n">
-        <v>0.005304604209522082</v>
+        <v>0.004922290534749137</v>
       </c>
       <c r="O476" t="n">
         <v>0.0118</v>
       </c>
       <c r="P476" t="n">
-        <v>0.01098053071371071</v>
+        <v>0.01018914140693071</v>
       </c>
     </row>
     <row r="477">
@@ -28109,13 +28109,13 @@
         </is>
       </c>
       <c r="N477" t="n">
-        <v>0.003809570480691647</v>
+        <v>0.003898585467547895</v>
       </c>
       <c r="O477" t="n">
         <v>0.0191</v>
       </c>
       <c r="P477" t="n">
-        <v>0.001657163159100867</v>
+        <v>0.001695884678383334</v>
       </c>
     </row>
     <row r="478">
@@ -28167,13 +28167,13 @@
         </is>
       </c>
       <c r="N478" t="n">
-        <v>0.001937467025788947</v>
+        <v>0.002321469407219075</v>
       </c>
       <c r="O478" t="n">
         <v>0.0299</v>
       </c>
       <c r="P478" t="n">
-        <v>0.003409941965388547</v>
+        <v>0.004085786156705572</v>
       </c>
     </row>
     <row r="479">
@@ -28225,13 +28225,13 @@
         </is>
       </c>
       <c r="N479" t="n">
-        <v>0.001561471066537526</v>
+        <v>0.001972571077969984</v>
       </c>
       <c r="O479" t="n">
         <v>0.0499</v>
       </c>
       <c r="P479" t="n">
-        <v>0.001333496290823047</v>
+        <v>0.001684575700586366</v>
       </c>
     </row>
     <row r="480">
@@ -28283,13 +28283,13 @@
         </is>
       </c>
       <c r="N480" t="n">
-        <v>0.01044612645345231</v>
+        <v>0.00783186252205229</v>
       </c>
       <c r="O480" t="n">
         <v>0.0134</v>
       </c>
       <c r="P480" t="n">
-        <v>0.005306632238353775</v>
+        <v>0.003978586161202564</v>
       </c>
     </row>
     <row r="481">
@@ -28341,13 +28341,13 @@
         </is>
       </c>
       <c r="N481" t="n">
-        <v>0.007593842294913371</v>
+        <v>0.006597278974928318</v>
       </c>
       <c r="O481" t="n">
         <v>0.0207</v>
       </c>
       <c r="P481" t="n">
-        <v>0.001898460573728343</v>
+        <v>0.001649319743732079</v>
       </c>
     </row>
     <row r="482">
@@ -28399,13 +28399,13 @@
         </is>
       </c>
       <c r="N482" t="n">
-        <v>0.003800780288917172</v>
+        <v>0.003945551156545827</v>
       </c>
       <c r="O482" t="n">
         <v>0.032</v>
       </c>
       <c r="P482" t="n">
-        <v>0.006803396717161739</v>
+        <v>0.00706253657021703</v>
       </c>
     </row>
     <row r="483">
@@ -28457,13 +28457,13 @@
         </is>
       </c>
       <c r="N483" t="n">
-        <v>0.002988471653870796</v>
+        <v>0.003362941881968262</v>
       </c>
       <c r="O483" t="n">
         <v>0.049</v>
       </c>
       <c r="P483" t="n">
-        <v>0.001640670937975067</v>
+        <v>0.001846255093200576</v>
       </c>
     </row>
     <row r="484">
@@ -28515,13 +28515,13 @@
         </is>
       </c>
       <c r="N484" t="n">
-        <v>0.02240159852584528</v>
+        <v>0.01370021637059896</v>
       </c>
       <c r="O484" t="n">
         <v>0.0171</v>
       </c>
       <c r="P484" t="n">
-        <v>0.0479394208453089</v>
+        <v>0.02931846303308178</v>
       </c>
     </row>
     <row r="485">
@@ -28573,13 +28573,13 @@
         </is>
       </c>
       <c r="N485" t="n">
-        <v>0.01635405894920424</v>
+        <v>0.01203339814715406</v>
       </c>
       <c r="O485" t="n">
         <v>0.0247</v>
       </c>
       <c r="P485" t="n">
-        <v>0.003499768615129708</v>
+        <v>0.00257514720349097</v>
       </c>
     </row>
     <row r="486">
@@ -28631,13 +28631,13 @@
         </is>
       </c>
       <c r="N486" t="n">
-        <v>0.00795144319471478</v>
+        <v>0.007039577996084964</v>
       </c>
       <c r="O486" t="n">
         <v>0.0376</v>
       </c>
       <c r="P486" t="n">
-        <v>0.005470592917963768</v>
+        <v>0.004843229661306455</v>
       </c>
     </row>
     <row r="487">
@@ -28689,13 +28689,13 @@
         </is>
       </c>
       <c r="N487" t="n">
-        <v>0.005548384410533362</v>
+        <v>0.005540090397790896</v>
       </c>
       <c r="O487" t="n">
         <v>0.051</v>
       </c>
       <c r="P487" t="n">
-        <v>0.0002285934377139745</v>
+        <v>0.0002282517243889849</v>
       </c>
     </row>
     <row r="488">
@@ -28747,13 +28747,13 @@
         </is>
       </c>
       <c r="N488" t="n">
-        <v>0.00744068628004505</v>
+        <v>0.008110483865913261</v>
       </c>
       <c r="O488" t="n">
         <v>0.008659999999999999</v>
       </c>
       <c r="P488" t="n">
-        <v>0.002857223531537299</v>
+        <v>0.003114425804510693</v>
       </c>
     </row>
     <row r="489">
@@ -28805,13 +28805,13 @@
         </is>
       </c>
       <c r="N489" t="n">
-        <v>0.005223938634259974</v>
+        <v>0.005914028649654898</v>
       </c>
       <c r="O489" t="n">
         <v>0.0142</v>
       </c>
       <c r="P489" t="n">
-        <v>0.008776216905556754</v>
+        <v>0.009935568131420229</v>
       </c>
     </row>
     <row r="490">
@@ -28863,13 +28863,13 @@
         </is>
       </c>
       <c r="N490" t="n">
-        <v>0.002662202366730448</v>
+        <v>0.003392058120745353</v>
       </c>
       <c r="O490" t="n">
         <v>0.0217</v>
       </c>
       <c r="P490" t="n">
-        <v>0.0001195328862661971</v>
+        <v>0.0001523034096214663</v>
       </c>
     </row>
     <row r="491">
@@ -28921,13 +28921,13 @@
         </is>
       </c>
       <c r="N491" t="n">
-        <v>0.002095791715243704</v>
+        <v>0.0028002229128435</v>
       </c>
       <c r="O491" t="n">
         <v>0.0335</v>
       </c>
       <c r="P491" t="n">
-        <v>0.003730509253133793</v>
+        <v>0.004984396784861431</v>
       </c>
     </row>
     <row r="492">
@@ -28979,13 +28979,13 @@
         </is>
       </c>
       <c r="N492" t="n">
-        <v>0.0135467543530689</v>
+        <v>0.01274512062837104</v>
       </c>
       <c r="O492" t="n">
         <v>0.00584</v>
       </c>
       <c r="P492" t="n">
-        <v>0.01009233199303633</v>
+        <v>0.009495114868136428</v>
       </c>
     </row>
     <row r="493">
@@ -29037,13 +29037,13 @@
         </is>
       </c>
       <c r="N493" t="n">
-        <v>0.009603090101882903</v>
+        <v>0.009821001237005716</v>
       </c>
       <c r="O493" t="n">
         <v>0.009090000000000001</v>
       </c>
       <c r="P493" t="n">
-        <v>0.008902064524445452</v>
+        <v>0.0091040681467043</v>
       </c>
     </row>
     <row r="494">
@@ -29095,13 +29095,13 @@
         </is>
       </c>
       <c r="N494" t="n">
-        <v>0.004833491785207963</v>
+        <v>0.005669957708468303</v>
       </c>
       <c r="O494" t="n">
         <v>0.0138</v>
       </c>
       <c r="P494" t="n">
-        <v>0.002750256825783331</v>
+        <v>0.003226205936118464</v>
       </c>
     </row>
     <row r="495">
@@ -29153,13 +29153,13 @@
         </is>
       </c>
       <c r="N495" t="n">
-        <v>0.003845304169883475</v>
+        <v>0.004820227843281991</v>
       </c>
       <c r="O495" t="n">
         <v>0.0205</v>
       </c>
       <c r="P495" t="n">
-        <v>0.0006806188380693751</v>
+        <v>0.0008531803282609123</v>
       </c>
     </row>
     <row r="496">
@@ -29211,13 +29211,13 @@
         </is>
       </c>
       <c r="N496" t="n">
-        <v>0.02777354145254715</v>
+        <v>0.02115315094778678</v>
       </c>
       <c r="O496" t="n">
         <v>0.00669</v>
       </c>
       <c r="P496" t="n">
-        <v>0.0003943842886261695</v>
+        <v>0.0003003747434585723</v>
       </c>
     </row>
     <row r="497">
@@ -29269,13 +29269,13 @@
         </is>
       </c>
       <c r="N497" t="n">
-        <v>0.01998186981754107</v>
+        <v>0.01742576279285515</v>
       </c>
       <c r="O497" t="n">
         <v>0.00996</v>
       </c>
       <c r="P497" t="n">
-        <v>0.02877389253725914</v>
+        <v>0.02509309842171142</v>
       </c>
     </row>
     <row r="498">
@@ -29327,13 +29327,13 @@
         </is>
       </c>
       <c r="N498" t="n">
-        <v>0.009900503140684174</v>
+        <v>0.01009994582527876</v>
       </c>
       <c r="O498" t="n">
         <v>0.0149</v>
       </c>
       <c r="P498" t="n">
-        <v>0.009385676977368597</v>
+        <v>0.009574748642364267</v>
       </c>
     </row>
     <row r="499">
@@ -29385,13 +29385,13 @@
         </is>
       </c>
       <c r="N499" t="n">
-        <v>0.007293715680499491</v>
+        <v>0.008230929194348315</v>
       </c>
       <c r="O499" t="n">
         <v>0.0214</v>
       </c>
       <c r="P499" t="n">
-        <v>0.001298281391128909</v>
+        <v>0.001465105396594</v>
       </c>
     </row>
     <row r="500">
@@ -29443,13 +29443,13 @@
         </is>
       </c>
       <c r="N500" t="n">
-        <v>0.06333401725002909</v>
+        <v>0.03845132105690283</v>
       </c>
       <c r="O500" t="n">
         <v>0.008529999999999999</v>
       </c>
       <c r="P500" t="n">
-        <v>0.04319379976451984</v>
+        <v>0.02622380096080773</v>
       </c>
     </row>
     <row r="501">
@@ -29501,13 +29501,13 @@
         </is>
       </c>
       <c r="N501" t="n">
-        <v>0.043736683588638</v>
+        <v>0.03221038716083135</v>
       </c>
       <c r="O501" t="n">
         <v>0.0123</v>
       </c>
       <c r="P501" t="n">
-        <v>0.0178445669041643</v>
+        <v>0.01314183796161919</v>
       </c>
     </row>
     <row r="502">
@@ -29559,13 +29559,13 @@
         </is>
       </c>
       <c r="N502" t="n">
-        <v>0.02039849039782712</v>
+        <v>0.01793158835925563</v>
       </c>
       <c r="O502" t="n">
         <v>0.0175</v>
       </c>
       <c r="P502" t="n">
-        <v>0.0074454489952069</v>
+        <v>0.006545029751128305</v>
       </c>
     </row>
     <row r="503">
@@ -29617,13 +29617,13 @@
         </is>
       </c>
       <c r="N503" t="n">
-        <v>0.01446277034031232</v>
+        <v>0.01454915459051924</v>
       </c>
       <c r="O503" t="n">
         <v>0.0255</v>
       </c>
       <c r="P503" t="n">
-        <v>0.06074363542931174</v>
+        <v>0.0611064492801808</v>
       </c>
     </row>
     <row r="504">
@@ -29675,13 +29675,13 @@
         </is>
       </c>
       <c r="N504" t="n">
-        <v>0.01950252822540646</v>
+        <v>0.02191104504943347</v>
       </c>
       <c r="O504" t="n">
         <v>0.00745</v>
       </c>
       <c r="P504" t="n">
-        <v>0.0004797621943449988</v>
+        <v>0.0005390117082160634</v>
       </c>
     </row>
     <row r="505">
@@ -29733,13 +29733,13 @@
         </is>
       </c>
       <c r="N505" t="n">
-        <v>0.01345119697299965</v>
+        <v>0.01546872610397528</v>
       </c>
       <c r="O505" t="n">
         <v>0.0118</v>
       </c>
       <c r="P505" t="n">
-        <v>0.03766335152439901</v>
+        <v>0.04331243309113077</v>
       </c>
     </row>
     <row r="506">
@@ -29791,13 +29791,13 @@
         </is>
       </c>
       <c r="N506" t="n">
-        <v>0.006817480843320135</v>
+        <v>0.008714134792445845</v>
       </c>
       <c r="O506" t="n">
         <v>0.0178</v>
       </c>
       <c r="P506" t="n">
-        <v>0.009817172414380994</v>
+        <v>0.01254835410112202</v>
       </c>
     </row>
     <row r="507">
@@ -29849,13 +29849,13 @@
         </is>
       </c>
       <c r="N507" t="n">
-        <v>0.005322558325915159</v>
+        <v>0.00726273810539491</v>
       </c>
       <c r="O507" t="n">
         <v>0.0253</v>
       </c>
       <c r="P507" t="n">
-        <v>0.005482235075692614</v>
+        <v>0.007480620248556758</v>
       </c>
     </row>
     <row r="508">
@@ -29907,13 +29907,13 @@
         </is>
       </c>
       <c r="N508" t="n">
-        <v>0.03618982087447242</v>
+        <v>0.03522639504376289</v>
       </c>
       <c r="O508" t="n">
         <v>0.00496</v>
       </c>
       <c r="P508" t="n">
-        <v>0.002421099016502204</v>
+        <v>0.002356645828427738</v>
       </c>
     </row>
     <row r="509">
@@ -29965,13 +29965,13 @@
         </is>
       </c>
       <c r="N509" t="n">
-        <v>0.02514034034442485</v>
+        <v>0.02623276385254605</v>
       </c>
       <c r="O509" t="n">
         <v>0.00761</v>
       </c>
       <c r="P509" t="n">
-        <v>0.00248889369409806</v>
+        <v>0.002597043621402059</v>
       </c>
     </row>
     <row r="510">
@@ -30023,13 +30023,13 @@
         </is>
       </c>
       <c r="N510" t="n">
-        <v>0.01239247387574957</v>
+        <v>0.01464865701076814</v>
       </c>
       <c r="O510" t="n">
         <v>0.0112</v>
       </c>
       <c r="P510" t="n">
-        <v>0.001487096865089948</v>
+        <v>0.001757838841292177</v>
       </c>
     </row>
     <row r="511">
@@ -30081,13 +30081,13 @@
         </is>
       </c>
       <c r="N511" t="n">
-        <v>0.009442711414910791</v>
+        <v>0.01216074466759664</v>
       </c>
       <c r="O511" t="n">
         <v>0.0161</v>
       </c>
       <c r="P511" t="n">
-        <v>0.191687041722689</v>
+        <v>0.2468631167522117</v>
       </c>
     </row>
     <row r="512">
@@ -30139,13 +30139,13 @@
         </is>
       </c>
       <c r="N512" t="n">
-        <v>0.07742293618396623</v>
+        <v>0.06071398176983502</v>
       </c>
       <c r="O512" t="n">
         <v>0.00582</v>
       </c>
       <c r="P512" t="n">
-        <v>0.002074934689730295</v>
+        <v>0.001627134711431579</v>
       </c>
     </row>
     <row r="513">
@@ -30197,13 +30197,13 @@
         </is>
       </c>
       <c r="N513" t="n">
-        <v>0.05325534782510177</v>
+        <v>0.04735985181707537</v>
       </c>
       <c r="O513" t="n">
         <v>0.008399999999999999</v>
       </c>
       <c r="P513" t="n">
-        <v>0.005293581573815116</v>
+        <v>0.004707569270617292</v>
       </c>
     </row>
     <row r="514">
@@ -30255,13 +30255,13 @@
         </is>
       </c>
       <c r="N514" t="n">
-        <v>0.0256968486433537</v>
+        <v>0.02661854383228614</v>
       </c>
       <c r="O514" t="n">
         <v>0.0121</v>
       </c>
       <c r="P514" t="n">
-        <v>0.00346907456685275</v>
+        <v>0.003593503417358629</v>
       </c>
     </row>
     <row r="515">
@@ -30313,13 +30313,13 @@
         </is>
       </c>
       <c r="N515" t="n">
-        <v>0.01877410049393602</v>
+        <v>0.02180542807048663</v>
       </c>
       <c r="O515" t="n">
         <v>0.0166</v>
       </c>
       <c r="P515" t="n">
-        <v>0.005162877635832406</v>
+        <v>0.005996492719383823</v>
       </c>
     </row>
     <row r="516">
@@ -30371,13 +30371,13 @@
         </is>
       </c>
       <c r="N516" t="n">
-        <v>0.1862039453755153</v>
+        <v>0.1138797655265105</v>
       </c>
       <c r="O516" t="n">
         <v>0.00763</v>
       </c>
       <c r="P516" t="n">
-        <v>0.009812947921289656</v>
+        <v>0.006001463643247105</v>
       </c>
     </row>
     <row r="517">
@@ -30429,13 +30429,13 @@
         </is>
       </c>
       <c r="N517" t="n">
-        <v>0.1230866563221445</v>
+        <v>0.0916240459011049</v>
       </c>
       <c r="O517" t="n">
         <v>0.0106</v>
       </c>
       <c r="P517" t="n">
-        <v>0.01243175228853659</v>
+        <v>0.009254028636011595</v>
       </c>
     </row>
     <row r="518">
@@ -30487,13 +30487,13 @@
         </is>
       </c>
       <c r="N518" t="n">
-        <v>0.0557724492764708</v>
+        <v>0.04964896593795447</v>
       </c>
       <c r="O518" t="n">
         <v>0.0145</v>
       </c>
       <c r="P518" t="n">
-        <v>0.01979921949314713</v>
+        <v>0.01762538290797383</v>
       </c>
     </row>
     <row r="519">
@@ -30545,13 +30545,13 @@
         </is>
       </c>
       <c r="N519" t="n">
-        <v>0.03771980992687744</v>
+        <v>0.03921232482692106</v>
       </c>
       <c r="O519" t="n">
         <v>0.0195</v>
       </c>
       <c r="P519" t="n">
-        <v>0.000765712141515612</v>
+        <v>0.0007960101939864974</v>
       </c>
     </row>
     <row r="520">
@@ -30603,13 +30603,13 @@
         </is>
       </c>
       <c r="N520" t="n">
-        <v>0.04397903201678745</v>
+        <v>0.05393302013591111</v>
       </c>
       <c r="O520" t="n">
         <v>0.00829</v>
       </c>
       <c r="P520" t="n">
-        <v>0.01301779347696908</v>
+        <v>0.01596417396022969</v>
       </c>
     </row>
     <row r="521">
@@ -30661,13 +30661,13 @@
         </is>
       </c>
       <c r="N521" t="n">
-        <v>0.02983212117208041</v>
+        <v>0.03674062421017192</v>
       </c>
       <c r="O521" t="n">
         <v>0.0127</v>
       </c>
       <c r="P521" t="n">
-        <v>0.09665607259754053</v>
+        <v>0.119039622440957</v>
       </c>
     </row>
     <row r="522">
@@ -30719,13 +30719,13 @@
         </is>
       </c>
       <c r="N522" t="n">
-        <v>0.01508380414848866</v>
+        <v>0.0207437980680018</v>
       </c>
       <c r="O522" t="n">
         <v>0.0185</v>
       </c>
       <c r="P522" t="n">
-        <v>0.004962571564852769</v>
+        <v>0.006824709564372594</v>
       </c>
     </row>
     <row r="523">
@@ -30777,13 +30777,13 @@
         </is>
       </c>
       <c r="N523" t="n">
-        <v>0.01169988840910176</v>
+        <v>0.0176401276996038</v>
       </c>
       <c r="O523" t="n">
         <v>0.0262</v>
       </c>
       <c r="P523" t="n">
-        <v>0.4551256591140584</v>
+        <v>0.6862009675145878</v>
       </c>
     </row>
     <row r="524">
@@ -30835,13 +30835,13 @@
         </is>
       </c>
       <c r="N524" t="n">
-        <v>0.08061167944387841</v>
+        <v>0.08547481417670964</v>
       </c>
       <c r="O524" t="n">
         <v>0.00551</v>
       </c>
       <c r="P524" t="n">
-        <v>0.01281725703157667</v>
+        <v>0.01359049545409683</v>
       </c>
     </row>
     <row r="525">
@@ -30893,13 +30893,13 @@
         </is>
       </c>
       <c r="N525" t="n">
-        <v>0.05598500276399362</v>
+        <v>0.06249359283506898</v>
       </c>
       <c r="O525" t="n">
         <v>0.008189999999999999</v>
       </c>
       <c r="P525" t="n">
-        <v>0.01634762080708614</v>
+        <v>0.01824812910784014</v>
       </c>
     </row>
     <row r="526">
@@ -30951,13 +30951,13 @@
         </is>
       </c>
       <c r="N526" t="n">
-        <v>0.0277360323348798</v>
+        <v>0.03539405956399978</v>
       </c>
       <c r="O526" t="n">
         <v>0.0116</v>
       </c>
       <c r="P526" t="n">
-        <v>0.008015713344780261</v>
+        <v>0.01022888321399593</v>
       </c>
     </row>
     <row r="527">
@@ -31009,13 +31009,13 @@
         </is>
       </c>
       <c r="N527" t="n">
-        <v>0.02117800444734646</v>
+        <v>0.03009249322864996</v>
       </c>
       <c r="O527" t="n">
         <v>0.0169</v>
       </c>
       <c r="P527" t="n">
-        <v>0.008005285681096961</v>
+        <v>0.01137496244042969</v>
       </c>
     </row>
     <row r="528">
@@ -31067,13 +31067,13 @@
         </is>
       </c>
       <c r="N528" t="n">
-        <v>0.17198620987347</v>
+        <v>0.1463613875453723</v>
       </c>
       <c r="O528" t="n">
         <v>0.00666</v>
       </c>
       <c r="P528" t="n">
-        <v>0.04695223529545732</v>
+        <v>0.03995665879988664</v>
       </c>
     </row>
     <row r="529">
@@ -31125,13 +31125,13 @@
         </is>
       </c>
       <c r="N529" t="n">
-        <v>0.1166112284063806</v>
+        <v>0.1116436987614498</v>
       </c>
       <c r="O529" t="n">
         <v>0.009209999999999999</v>
       </c>
       <c r="P529" t="n">
-        <v>0.02600430393462286</v>
+        <v>0.02489654482380331</v>
       </c>
     </row>
     <row r="530">
@@ -31183,13 +31183,13 @@
         </is>
       </c>
       <c r="N530" t="n">
-        <v>0.05588305742758824</v>
+        <v>0.06261302739500088</v>
       </c>
       <c r="O530" t="n">
         <v>0.013</v>
       </c>
       <c r="P530" t="n">
-        <v>0.01737963085997994</v>
+        <v>0.01947265151984528</v>
       </c>
     </row>
     <row r="531">
@@ -31241,13 +31241,13 @@
         </is>
       </c>
       <c r="N531" t="n">
-        <v>0.04088924034151301</v>
+        <v>0.05244835481236849</v>
       </c>
       <c r="O531" t="n">
         <v>0.0183</v>
       </c>
       <c r="P531" t="n">
-        <v>0.01328900311099173</v>
+        <v>0.01704571531401976</v>
       </c>
     </row>
     <row r="532">
@@ -31299,13 +31299,13 @@
         </is>
       </c>
       <c r="N532" t="n">
-        <v>0.4154542691307381</v>
+        <v>0.2766135807362586</v>
       </c>
       <c r="O532" t="n">
         <v>0.009129999999999999</v>
       </c>
       <c r="P532" t="n">
-        <v>0.1034481130135538</v>
+        <v>0.06887678160332839</v>
       </c>
     </row>
     <row r="533">
@@ -31357,13 +31357,13 @@
         </is>
       </c>
       <c r="N533" t="n">
-        <v>0.2681487486050197</v>
+        <v>0.216144906507025</v>
       </c>
       <c r="O533" t="n">
         <v>0.0124</v>
       </c>
       <c r="P533" t="n">
-        <v>0.007588609585522057</v>
+        <v>0.006116900854148806</v>
       </c>
     </row>
     <row r="534">
@@ -31415,13 +31415,13 @@
         </is>
       </c>
       <c r="N534" t="n">
-        <v>0.1184139936903136</v>
+        <v>0.1146696025095785</v>
       </c>
       <c r="O534" t="n">
         <v>0.0163</v>
       </c>
       <c r="P534" t="n">
-        <v>0.005660188898396992</v>
+        <v>0.005481206999957854</v>
       </c>
     </row>
     <row r="535">
@@ -31473,13 +31473,13 @@
         </is>
       </c>
       <c r="N535" t="n">
-        <v>0.07966998802831229</v>
+        <v>0.09105495278576399</v>
       </c>
       <c r="O535" t="n">
         <v>0.0227</v>
       </c>
       <c r="P535" t="n">
-        <v>0.01529663770143596</v>
+        <v>0.01748255093486669</v>
       </c>
     </row>
     <row r="536">
@@ -31531,13 +31531,13 @@
         </is>
       </c>
       <c r="N536" t="n">
-        <v>0.09719774423988436</v>
+        <v>0.1294635473290438</v>
       </c>
       <c r="O536" t="n">
         <v>0.0196</v>
       </c>
       <c r="P536" t="n">
-        <v>0.00047918487910263</v>
+        <v>0.0006382552883321862</v>
       </c>
     </row>
     <row r="537">
@@ -31589,13 +31589,13 @@
         </is>
       </c>
       <c r="N537" t="n">
-        <v>0.06652859253821873</v>
+        <v>0.08710787032824355</v>
       </c>
       <c r="O537" t="n">
         <v>0.0293</v>
       </c>
       <c r="P537" t="n">
-        <v>0.4570514307375627</v>
+        <v>0.5984310691550332</v>
       </c>
     </row>
     <row r="538">
@@ -31647,13 +31647,13 @@
         </is>
       </c>
       <c r="N538" t="n">
-        <v>0.03384850963361225</v>
+        <v>0.05004516369405702</v>
       </c>
       <c r="O538" t="n">
         <v>0.0435</v>
       </c>
       <c r="P538" t="n">
-        <v>0.03208838713266441</v>
+        <v>0.04744281518196606</v>
       </c>
     </row>
     <row r="539">
@@ -31705,13 +31705,13 @@
         </is>
       </c>
       <c r="N539" t="n">
-        <v>0.0272395584044578</v>
+        <v>0.04505144464777291</v>
       </c>
       <c r="O539" t="n">
         <v>0.0672</v>
       </c>
       <c r="P539" t="n">
-        <v>0.3704579943006261</v>
+        <v>0.6126996472097115</v>
       </c>
     </row>
     <row r="540">
@@ -31763,13 +31763,13 @@
         </is>
       </c>
       <c r="N540" t="n">
-        <v>0.1703964148662304</v>
+        <v>0.1963922388019715</v>
       </c>
       <c r="O540" t="n">
         <v>0.0132</v>
       </c>
       <c r="P540" t="n">
-        <v>0.05197090653420026</v>
+        <v>0.05989963283460131</v>
       </c>
     </row>
     <row r="541">
@@ -31821,13 +31821,13 @@
         </is>
       </c>
       <c r="N541" t="n">
-        <v>0.1167253021323661</v>
+        <v>0.1393771279778824</v>
       </c>
       <c r="O541" t="n">
         <v>0.0195</v>
       </c>
       <c r="P541" t="n">
-        <v>0.08532619585875961</v>
+        <v>0.101884680551832</v>
       </c>
     </row>
     <row r="542">
@@ -31879,13 +31879,13 @@
         </is>
       </c>
       <c r="N542" t="n">
-        <v>0.06170432631085899</v>
+        <v>0.0844295315216148</v>
       </c>
       <c r="O542" t="n">
         <v>0.0265</v>
       </c>
       <c r="P542" t="n">
-        <v>0.01160041334644149</v>
+        <v>0.01587275192606358</v>
       </c>
     </row>
     <row r="543">
@@ -31937,13 +31937,13 @@
         </is>
       </c>
       <c r="N543" t="n">
-        <v>0.04908407817585914</v>
+        <v>0.07601264305244806</v>
       </c>
       <c r="O543" t="n">
         <v>0.0373</v>
       </c>
       <c r="P543" t="n">
-        <v>0.07068107257323716</v>
+        <v>0.1094582059955252</v>
       </c>
     </row>
     <row r="544">
@@ -31995,13 +31995,13 @@
         </is>
       </c>
       <c r="N544" t="n">
-        <v>0.3236115804586362</v>
+        <v>0.3071620137323754</v>
       </c>
       <c r="O544" t="n">
         <v>0.0168</v>
       </c>
       <c r="P544" t="n">
-        <v>0.1333279711489581</v>
+        <v>0.1265507496577387</v>
       </c>
     </row>
     <row r="545">
@@ -32053,13 +32053,13 @@
         </is>
       </c>
       <c r="N545" t="n">
-        <v>0.2258714388892092</v>
+        <v>0.2359627515930248</v>
       </c>
       <c r="O545" t="n">
         <v>0.0221</v>
       </c>
       <c r="P545" t="n">
-        <v>0.09080031843346209</v>
+        <v>0.09485702614039596</v>
       </c>
     </row>
     <row r="546">
@@ -32111,13 +32111,13 @@
         </is>
       </c>
       <c r="N546" t="n">
-        <v>0.1150015101588598</v>
+        <v>0.14045603107449</v>
       </c>
       <c r="O546" t="n">
         <v>0.0302</v>
       </c>
       <c r="P546" t="n">
-        <v>0.05428071279498182</v>
+        <v>0.06629524666715926</v>
       </c>
     </row>
     <row r="547">
@@ -32169,13 +32169,13 @@
         </is>
       </c>
       <c r="N547" t="n">
-        <v>0.08973004997859607</v>
+        <v>0.1254500299331008</v>
       </c>
       <c r="O547" t="n">
         <v>0.043</v>
       </c>
       <c r="P547" t="n">
-        <v>0.07151484983294107</v>
+        <v>0.09998367385668133</v>
       </c>
     </row>
     <row r="548">
@@ -32227,13 +32227,13 @@
         </is>
       </c>
       <c r="N548" t="n">
-        <v>0.6949285776369727</v>
+        <v>0.5510944323542804</v>
       </c>
       <c r="O548" t="n">
         <v>0.0236</v>
       </c>
       <c r="P548" t="n">
-        <v>0.3655324318370476</v>
+        <v>0.2898756714183515</v>
       </c>
     </row>
     <row r="549">
@@ -32285,13 +32285,13 @@
         </is>
       </c>
       <c r="N549" t="n">
-        <v>0.4705069434745501</v>
+        <v>0.4353653946813694</v>
       </c>
       <c r="O549" t="n">
         <v>0.0321</v>
       </c>
       <c r="P549" t="n">
-        <v>0.2408995550589697</v>
+        <v>0.2229070820768611</v>
       </c>
     </row>
     <row r="550">
@@ -32343,13 +32343,13 @@
         </is>
       </c>
       <c r="N550" t="n">
-        <v>0.2239123024547074</v>
+        <v>0.2436208425047444</v>
       </c>
       <c r="O550" t="n">
         <v>0.0433</v>
       </c>
       <c r="P550" t="n">
-        <v>0.1126278881347178</v>
+        <v>0.1225412837798864</v>
       </c>
     </row>
     <row r="551">
@@ -32401,13 +32401,13 @@
         </is>
       </c>
       <c r="N551" t="n">
-        <v>0.1624080993490856</v>
+        <v>0.2054014863465415</v>
       </c>
       <c r="O551" t="n">
         <v>0.0592</v>
       </c>
       <c r="P551" t="n">
-        <v>0.3053272267762809</v>
+        <v>0.386154794331498</v>
       </c>
     </row>
     <row r="552">
@@ -32459,13 +32459,13 @@
         </is>
       </c>
       <c r="N552" t="n">
-        <v>0.01083023282679067</v>
+        <v>0.01168209814103919</v>
       </c>
       <c r="O552" t="n">
         <v>0.149</v>
       </c>
       <c r="P552" t="n">
-        <v>0.01743667485113298</v>
+        <v>0.0188081780070731</v>
       </c>
     </row>
     <row r="553">
@@ -32517,13 +32517,13 @@
         </is>
       </c>
       <c r="N553" t="n">
-        <v>0.0070534741366227</v>
+        <v>0.00792100540990264</v>
       </c>
       <c r="O553" t="n">
         <v>0.295</v>
       </c>
       <c r="P553" t="n">
-        <v>0.01050967646356782</v>
+        <v>0.01180229806075493</v>
       </c>
     </row>
     <row r="554">
@@ -32575,13 +32575,13 @@
         </is>
       </c>
       <c r="N554" t="n">
-        <v>0.01998261099104881</v>
+        <v>0.01875410618930069</v>
       </c>
       <c r="O554" t="n">
         <v>0.0839</v>
       </c>
       <c r="P554" t="n">
-        <v>0.01224934053751292</v>
+        <v>0.01149626709404132</v>
       </c>
     </row>
     <row r="555">
@@ -32633,13 +32633,13 @@
         </is>
       </c>
       <c r="N555" t="n">
-        <v>0.01365497984991284</v>
+        <v>0.01383797023363863</v>
       </c>
       <c r="O555" t="n">
         <v>0.148</v>
       </c>
       <c r="P555" t="n">
-        <v>0.03714154519176293</v>
+        <v>0.03763927903549709</v>
       </c>
     </row>
     <row r="556">
@@ -32691,13 +32691,13 @@
         </is>
       </c>
       <c r="N556" t="n">
-        <v>0.04111983067735728</v>
+        <v>0.031498696217708</v>
       </c>
       <c r="O556" t="n">
         <v>0.101</v>
       </c>
       <c r="P556" t="n">
-        <v>0.001817496515939192</v>
+        <v>0.001392242372822694</v>
       </c>
     </row>
     <row r="557">
@@ -32749,13 +32749,13 @@
         </is>
       </c>
       <c r="N557" t="n">
-        <v>0.02946857850819495</v>
+        <v>0.02558027903918845</v>
       </c>
       <c r="O557" t="n">
         <v>0.194</v>
       </c>
       <c r="P557" t="n">
-        <v>0.02292655407937567</v>
+        <v>0.01990145709248861</v>
       </c>
     </row>
     <row r="558">
@@ -32807,13 +32807,13 @@
         </is>
       </c>
       <c r="N558" t="n">
-        <v>0.09389407633549952</v>
+        <v>0.05745387456705752</v>
       </c>
       <c r="O558" t="n">
         <v>0.126</v>
       </c>
       <c r="P558" t="n">
-        <v>0.05239289459520874</v>
+        <v>0.0320592620084181</v>
       </c>
     </row>
     <row r="559">
@@ -32865,13 +32865,13 @@
         </is>
       </c>
       <c r="N559" t="n">
-        <v>0.05907951537431741</v>
+        <v>0.04457262202782535</v>
       </c>
       <c r="O559" t="n">
         <v>0.204</v>
       </c>
       <c r="P559" t="n">
-        <v>0.1435632223595913</v>
+        <v>0.1083114715276156</v>
       </c>
     </row>
     <row r="560">
@@ -32923,13 +32923,13 @@
         </is>
       </c>
       <c r="N560" t="n">
-        <v>0.02170594051890221</v>
+        <v>0.02417612450325312</v>
       </c>
       <c r="O560" t="n">
         <v>0.0246</v>
       </c>
       <c r="P560" t="n">
-        <v>0.0005339661367649945</v>
+        <v>0.0005947326627800267</v>
       </c>
     </row>
     <row r="561">
@@ -32981,13 +32981,13 @@
         </is>
       </c>
       <c r="N561" t="n">
-        <v>0.01529226037613231</v>
+        <v>0.0172580945923014</v>
       </c>
       <c r="O561" t="n">
         <v>0.0448</v>
       </c>
       <c r="P561" t="n">
-        <v>0.001175974822924575</v>
+        <v>0.001327147474147977</v>
       </c>
     </row>
     <row r="562">
@@ -33039,13 +33039,13 @@
         </is>
       </c>
       <c r="N562" t="n">
-        <v>0.007916717580383922</v>
+        <v>0.009891958151266388</v>
       </c>
       <c r="O562" t="n">
         <v>0.081</v>
       </c>
       <c r="P562" t="n">
-        <v>0.004211693752764247</v>
+        <v>0.005262521736473719</v>
       </c>
     </row>
     <row r="563">
@@ -33097,13 +33097,13 @@
         </is>
       </c>
       <c r="N563" t="n">
-        <v>0.00595340333005928</v>
+        <v>0.008028056238214554</v>
       </c>
       <c r="O563" t="n">
         <v>0.109</v>
       </c>
       <c r="P563" t="n">
-        <v>0.01684813142406776</v>
+        <v>0.02271939915414719</v>
       </c>
     </row>
     <row r="564">
@@ -33155,13 +33155,13 @@
         </is>
       </c>
       <c r="N564" t="n">
-        <v>0.03915606005882975</v>
+        <v>0.03799717770395881</v>
       </c>
       <c r="O564" t="n">
         <v>0.0161</v>
       </c>
       <c r="P564" t="n">
-        <v>0.02353279209535668</v>
+        <v>0.02283630380007924</v>
       </c>
     </row>
     <row r="565">
@@ -33213,13 +33213,13 @@
         </is>
       </c>
       <c r="N565" t="n">
-        <v>0.02899226712170454</v>
+        <v>0.02980342354421572</v>
       </c>
       <c r="O565" t="n">
         <v>0.0252</v>
       </c>
       <c r="P565" t="n">
-        <v>0.002455645025208375</v>
+        <v>0.002524349974195072</v>
       </c>
     </row>
     <row r="566">
@@ -33271,13 +33271,13 @@
         </is>
       </c>
       <c r="N566" t="n">
-        <v>0.01440341336603284</v>
+        <v>0.01670919476789555</v>
       </c>
       <c r="O566" t="n">
         <v>0.0415</v>
       </c>
       <c r="P566" t="n">
-        <v>0.006135854093929991</v>
+        <v>0.007118116971123503</v>
       </c>
     </row>
     <row r="567">
@@ -33329,13 +33329,13 @@
         </is>
       </c>
       <c r="N567" t="n">
-        <v>0.01093555143667851</v>
+        <v>0.01394122766843604</v>
       </c>
       <c r="O567" t="n">
         <v>0.0613</v>
       </c>
       <c r="P567" t="n">
-        <v>0.03116632159453375</v>
+        <v>0.03973249885504272</v>
       </c>
     </row>
     <row r="568">
@@ -33387,13 +33387,13 @@
         </is>
       </c>
       <c r="N568" t="n">
-        <v>0.08544583198318506</v>
+        <v>0.06742438179666267</v>
       </c>
       <c r="O568" t="n">
         <v>0.0182</v>
       </c>
       <c r="P568" t="n">
-        <v>0.005289096999759155</v>
+        <v>0.004173569233213419</v>
       </c>
     </row>
     <row r="569">
@@ -33445,13 +33445,13 @@
         </is>
       </c>
       <c r="N569" t="n">
-        <v>0.05981761752181065</v>
+        <v>0.05289069944085037</v>
       </c>
       <c r="O569" t="n">
         <v>0.0279</v>
       </c>
       <c r="P569" t="n">
-        <v>0.02715719835490204</v>
+        <v>0.02401237754614607</v>
       </c>
     </row>
     <row r="570">
@@ -33503,13 +33503,13 @@
         </is>
       </c>
       <c r="N570" t="n">
-        <v>0.02982637123038528</v>
+        <v>0.03062665248616763</v>
       </c>
       <c r="O570" t="n">
         <v>0.042</v>
       </c>
       <c r="P570" t="n">
-        <v>0.02735078241826331</v>
+        <v>0.02808464032981572</v>
       </c>
     </row>
     <row r="571">
@@ -33561,13 +33561,13 @@
         </is>
       </c>
       <c r="N571" t="n">
-        <v>0.02141623115042195</v>
+        <v>0.02485902084358844</v>
       </c>
       <c r="O571" t="n">
         <v>0.06320000000000001</v>
       </c>
       <c r="P571" t="n">
-        <v>0.05418306481056754</v>
+        <v>0.06289332273427876</v>
       </c>
     </row>
     <row r="572">
@@ -33619,13 +33619,13 @@
         </is>
       </c>
       <c r="N572" t="n">
-        <v>0.2018625055328381</v>
+        <v>0.1260623251487698</v>
       </c>
       <c r="O572" t="n">
         <v>0.0238</v>
       </c>
       <c r="P572" t="n">
-        <v>0.2058997556434948</v>
+        <v>0.1285835716517452</v>
       </c>
     </row>
     <row r="573">
@@ -33677,13 +33677,13 @@
         </is>
       </c>
       <c r="N573" t="n">
-        <v>0.1347097442337849</v>
+        <v>0.1012573725145192</v>
       </c>
       <c r="O573" t="n">
         <v>0.0355</v>
       </c>
       <c r="P573" t="n">
-        <v>0.5900286797439778</v>
+        <v>0.443507291613594</v>
       </c>
     </row>
     <row r="574">
@@ -33735,13 +33735,13 @@
         </is>
       </c>
       <c r="N574" t="n">
-        <v>0.06320513063403074</v>
+        <v>0.0563870058207013</v>
       </c>
       <c r="O574" t="n">
         <v>0.0491</v>
       </c>
       <c r="P574" t="n">
-        <v>0.03564769367759334</v>
+        <v>0.03180227128287553</v>
       </c>
     </row>
     <row r="575">
@@ -33793,13 +33793,13 @@
         </is>
       </c>
       <c r="N575" t="n">
-        <v>0.0430768204475331</v>
+        <v>0.04452576001324563</v>
       </c>
       <c r="O575" t="n">
         <v>0.0828</v>
       </c>
       <c r="P575" t="n">
-        <v>0.02769839554776378</v>
+        <v>0.02863006368851694</v>
       </c>
     </row>
     <row r="576">
@@ -33851,13 +33851,13 @@
         </is>
       </c>
       <c r="N576" t="n">
-        <v>0.04684617486302862</v>
+        <v>0.05683860255781429</v>
       </c>
       <c r="O576" t="n">
         <v>0.021</v>
       </c>
       <c r="P576" t="n">
-        <v>0.002005016284137625</v>
+        <v>0.002432692189474452</v>
       </c>
     </row>
     <row r="577">
@@ -33909,13 +33909,13 @@
         </is>
       </c>
       <c r="N577" t="n">
-        <v>0.0325716158112335</v>
+        <v>0.03932963820054915</v>
       </c>
       <c r="O577" t="n">
         <v>0.0356</v>
       </c>
       <c r="P577" t="n">
-        <v>0.1576466205263701</v>
+        <v>0.1903554488906579</v>
       </c>
     </row>
     <row r="578">
@@ -33967,13 +33967,13 @@
         </is>
       </c>
       <c r="N578" t="n">
-        <v>0.01687841312434538</v>
+        <v>0.02286856195303614</v>
       </c>
       <c r="O578" t="n">
         <v>0.0523</v>
       </c>
       <c r="P578" t="n">
-        <v>0.008321057670302274</v>
+        <v>0.01127420104284681</v>
       </c>
     </row>
     <row r="579">
@@ -34025,13 +34025,13 @@
         </is>
       </c>
       <c r="N579" t="n">
-        <v>0.01293210177603699</v>
+        <v>0.01948866807442794</v>
       </c>
       <c r="O579" t="n">
         <v>0.0786</v>
       </c>
       <c r="P579" t="n">
-        <v>0.1224670038190703</v>
+        <v>0.1845576866648326</v>
       </c>
     </row>
     <row r="580">
@@ -34083,13 +34083,13 @@
         </is>
       </c>
       <c r="N580" t="n">
-        <v>0.08617897453207496</v>
+        <v>0.09086962463535983</v>
       </c>
       <c r="O580" t="n">
         <v>0.0131</v>
       </c>
       <c r="P580" t="n">
-        <v>0.01232359335808672</v>
+        <v>0.01299435632285646</v>
       </c>
     </row>
     <row r="581">
@@ -34141,13 +34141,13 @@
         </is>
       </c>
       <c r="N581" t="n">
-        <v>0.06010618120150801</v>
+        <v>0.06625365746635659</v>
       </c>
       <c r="O581" t="n">
         <v>0.0207</v>
       </c>
       <c r="P581" t="n">
-        <v>0.06791998475770405</v>
+        <v>0.07486663293698294</v>
       </c>
     </row>
     <row r="582">
@@ -34199,13 +34199,13 @@
         </is>
       </c>
       <c r="N582" t="n">
-        <v>0.03049759976533098</v>
+        <v>0.03836615149855713</v>
       </c>
       <c r="O582" t="n">
         <v>0.032</v>
       </c>
       <c r="P582" t="n">
-        <v>0.009179777529364623</v>
+        <v>0.0115482116010657</v>
       </c>
     </row>
     <row r="583">
@@ -34257,13 +34257,13 @@
         </is>
       </c>
       <c r="N583" t="n">
-        <v>0.02406804621634127</v>
+        <v>0.03404008085434593</v>
       </c>
       <c r="O583" t="n">
         <v>0.0468</v>
       </c>
       <c r="P583" t="n">
-        <v>0.0223351468887647</v>
+        <v>0.03158919503283302</v>
       </c>
     </row>
     <row r="584">
@@ -34315,13 +34315,13 @@
         </is>
       </c>
       <c r="N584" t="n">
-        <v>0.1818389816016147</v>
+        <v>0.1553588823679833</v>
       </c>
       <c r="O584" t="n">
         <v>0.0155</v>
       </c>
       <c r="P584" t="n">
-        <v>0.02636665233223413</v>
+        <v>0.02252703794335758</v>
       </c>
     </row>
     <row r="585">
@@ -34373,13 +34373,13 @@
         </is>
       </c>
       <c r="N585" t="n">
-        <v>0.1282535327595989</v>
+        <v>0.1219354608845115</v>
       </c>
       <c r="O585" t="n">
         <v>0.0224</v>
       </c>
       <c r="P585" t="n">
-        <v>0.04322144053998485</v>
+        <v>0.04109225031808036</v>
       </c>
     </row>
     <row r="586">
@@ -34431,13 +34431,13 @@
         </is>
       </c>
       <c r="N586" t="n">
-        <v>0.0614513141259605</v>
+        <v>0.06839807837257325</v>
       </c>
       <c r="O586" t="n">
         <v>0.0338</v>
       </c>
       <c r="P586" t="n">
-        <v>0.04664154742160402</v>
+        <v>0.0519141414847831</v>
       </c>
     </row>
     <row r="587">
@@ -34489,13 +34489,13 @@
         </is>
       </c>
       <c r="N587" t="n">
-        <v>0.04602628560377064</v>
+        <v>0.05876120476174193</v>
       </c>
       <c r="O587" t="n">
         <v>0.0521</v>
       </c>
       <c r="P587" t="n">
-        <v>0.0002959490164322453</v>
+        <v>0.0003778345466180006</v>
       </c>
     </row>
     <row r="588">
@@ -34547,13 +34547,13 @@
         </is>
       </c>
       <c r="N588" t="n">
-        <v>0.438762351825157</v>
+        <v>0.2967868753955951</v>
       </c>
       <c r="O588" t="n">
         <v>0.0202</v>
       </c>
       <c r="P588" t="n">
-        <v>4.607004694164148</v>
+        <v>3.116262191653748</v>
       </c>
     </row>
     <row r="589">
@@ -34605,13 +34605,13 @@
         </is>
       </c>
       <c r="N589" t="n">
-        <v>0.2927910432657058</v>
+        <v>0.2365283339009051</v>
       </c>
       <c r="O589" t="n">
         <v>0.029</v>
       </c>
       <c r="P589" t="n">
-        <v>0.1654269394451238</v>
+        <v>0.1336385086540114</v>
       </c>
     </row>
     <row r="590">
@@ -34663,13 +34663,13 @@
         </is>
       </c>
       <c r="N590" t="n">
-        <v>0.1291323556041742</v>
+        <v>0.1253997172693846</v>
       </c>
       <c r="O590" t="n">
         <v>0.0416</v>
       </c>
       <c r="P590" t="n">
-        <v>0.01820766214018855</v>
+        <v>0.01768136013498323</v>
       </c>
     </row>
     <row r="591">
@@ -34721,13 +34721,13 @@
         </is>
       </c>
       <c r="N591" t="n">
-        <v>0.08786339983431463</v>
+        <v>0.1004312606676396</v>
       </c>
       <c r="O591" t="n">
         <v>0.0585</v>
       </c>
       <c r="P591" t="n">
-        <v>0.009752837381608924</v>
+        <v>0.011147869934108</v>
       </c>
     </row>
     <row r="592">
@@ -34779,13 +34779,13 @@
         </is>
       </c>
       <c r="N592" t="n">
-        <v>0.1080441066971854</v>
+        <v>0.1415391774630606</v>
       </c>
       <c r="O592" t="n">
         <v>0.0529</v>
       </c>
       <c r="P592" t="n">
-        <v>0.5812772940308574</v>
+        <v>0.7614807747512659</v>
       </c>
     </row>
     <row r="593">
@@ -34837,13 +34837,13 @@
         </is>
       </c>
       <c r="N593" t="n">
-        <v>0.07170443427093767</v>
+        <v>0.09244412641136833</v>
       </c>
       <c r="O593" t="n">
         <v>0.08690000000000001</v>
       </c>
       <c r="P593" t="n">
-        <v>0.03040268013087757</v>
+        <v>0.03919630959842017</v>
       </c>
     </row>
     <row r="594">
@@ -34895,13 +34895,13 @@
         </is>
       </c>
       <c r="N594" t="n">
-        <v>0.04045533924794087</v>
+        <v>0.0590074117752252</v>
       </c>
       <c r="O594" t="n">
         <v>0.143</v>
       </c>
       <c r="P594" t="n">
-        <v>0.09871102776497571</v>
+        <v>0.1439780847315495</v>
       </c>
     </row>
     <row r="595">
@@ -34953,13 +34953,13 @@
         </is>
       </c>
       <c r="N595" t="n">
-        <v>0.03384841824101971</v>
+        <v>0.05597982093050089</v>
       </c>
       <c r="O595" t="n">
         <v>0.167</v>
       </c>
       <c r="P595" t="n">
-        <v>0.07920529868398611</v>
+        <v>0.1309927809773721</v>
       </c>
     </row>
     <row r="596">
@@ -35011,13 +35011,13 @@
         </is>
       </c>
       <c r="N596" t="n">
-        <v>0.1841382876080649</v>
+        <v>0.2098189057829399</v>
       </c>
       <c r="O596" t="n">
         <v>0.0308</v>
       </c>
       <c r="P596" t="n">
-        <v>0.1114036640028793</v>
+        <v>0.1269404379986787</v>
       </c>
     </row>
     <row r="597">
@@ -35069,13 +35069,13 @@
         </is>
       </c>
       <c r="N597" t="n">
-        <v>0.1278870175064381</v>
+        <v>0.1503799321464519</v>
       </c>
       <c r="O597" t="n">
         <v>0.049</v>
       </c>
       <c r="P597" t="n">
-        <v>0.013428136838176</v>
+        <v>0.01578989287537745</v>
       </c>
     </row>
     <row r="598">
@@ -35127,13 +35127,13 @@
         </is>
       </c>
       <c r="N598" t="n">
-        <v>0.07110542184651324</v>
+        <v>0.09650566340837077</v>
       </c>
       <c r="O598" t="n">
         <v>0.0762</v>
       </c>
       <c r="P598" t="n">
-        <v>0.5283132843195933</v>
+        <v>0.7170370791241948</v>
       </c>
     </row>
     <row r="599">
@@ -35185,13 +35185,13 @@
         </is>
       </c>
       <c r="N599" t="n">
-        <v>0.0573070853356507</v>
+        <v>0.08934062953606928</v>
       </c>
       <c r="O599" t="n">
         <v>0.108</v>
       </c>
       <c r="P599" t="n">
-        <v>0.01083103912843798</v>
+        <v>0.01688537898231709</v>
       </c>
     </row>
     <row r="600">
@@ -35243,13 +35243,13 @@
         </is>
       </c>
       <c r="N600" t="n">
-        <v>0.353193293889826</v>
+        <v>0.3327954759910039</v>
       </c>
       <c r="O600" t="n">
         <v>0.0384</v>
       </c>
       <c r="P600" t="n">
-        <v>0.5227260749569425</v>
+        <v>0.4925373044666858</v>
       </c>
     </row>
     <row r="601">
@@ -35301,13 +35301,13 @@
         </is>
       </c>
       <c r="N601" t="n">
-        <v>0.2596613864225238</v>
+        <v>0.2664886690896395</v>
       </c>
       <c r="O601" t="n">
         <v>0.0554</v>
       </c>
       <c r="P601" t="n">
-        <v>0.0425844673732939</v>
+        <v>0.04370414173070088</v>
       </c>
     </row>
     <row r="602">
@@ -35359,13 +35359,13 @@
         </is>
       </c>
       <c r="N602" t="n">
-        <v>0.1292918032489941</v>
+        <v>0.15708452775427</v>
       </c>
       <c r="O602" t="n">
         <v>0.0871</v>
       </c>
       <c r="P602" t="n">
-        <v>0.08623763276707908</v>
+        <v>0.1047753800120981</v>
       </c>
     </row>
     <row r="603">
@@ -35417,13 +35417,13 @@
         </is>
       </c>
       <c r="N603" t="n">
-        <v>0.1004704079816481</v>
+        <v>0.1411776054797859</v>
       </c>
       <c r="O603" t="n">
         <v>0.132</v>
       </c>
       <c r="P603" t="n">
-        <v>0.1095127446999964</v>
+        <v>0.1538835899729667</v>
       </c>
     </row>
     <row r="604">
@@ -35475,13 +35475,13 @@
         </is>
       </c>
       <c r="N604" t="n">
-        <v>0.7750358164653013</v>
+        <v>0.6155779919461345</v>
       </c>
       <c r="O604" t="n">
         <v>0.0563</v>
       </c>
       <c r="P604" t="n">
-        <v>6.394045485838736</v>
+        <v>5.07851843355561</v>
       </c>
     </row>
     <row r="605">
@@ -35533,13 +35533,13 @@
         </is>
       </c>
       <c r="N605" t="n">
-        <v>0.5231332428071784</v>
+        <v>0.4826715151637223</v>
       </c>
       <c r="O605" t="n">
         <v>0.0673</v>
       </c>
       <c r="P605" t="n">
-        <v>0.7585432020704087</v>
+        <v>0.6998736969873973</v>
       </c>
     </row>
     <row r="606">
@@ -35591,13 +35591,13 @@
         </is>
       </c>
       <c r="N606" t="n">
-        <v>0.2550202301408697</v>
+        <v>0.2770881485484285</v>
       </c>
       <c r="O606" t="n">
         <v>0.128</v>
       </c>
       <c r="P606" t="n">
-        <v>0.3723295360056698</v>
+        <v>0.4045486968807056</v>
       </c>
     </row>
     <row r="607">
@@ -35649,13 +35649,13 @@
         </is>
       </c>
       <c r="N607" t="n">
-        <v>0.1951740918522493</v>
+        <v>0.2470610675025578</v>
       </c>
       <c r="O607" t="n">
         <v>0.144</v>
       </c>
       <c r="P607" t="n">
-        <v>0.7358063262829797</v>
+        <v>0.9314202244846428</v>
       </c>
     </row>
     <row r="608">
@@ -35707,13 +35707,13 @@
         </is>
       </c>
       <c r="N608" t="n">
-        <v>0.06069118508476293</v>
+        <v>0.0754760926032676</v>
       </c>
       <c r="O608" t="n">
         <v>0.153</v>
       </c>
       <c r="P608" t="n">
-        <v>0.01808597315525935</v>
+        <v>0.02249187559577374</v>
       </c>
     </row>
     <row r="609">
@@ -35765,13 +35765,13 @@
         </is>
       </c>
       <c r="N609" t="n">
-        <v>0.04272398114641203</v>
+        <v>0.05245895576242386</v>
       </c>
       <c r="O609" t="n">
         <v>0.245</v>
       </c>
       <c r="P609" t="n">
-        <v>0.04486018020373263</v>
+        <v>0.05508190355054506</v>
       </c>
     </row>
     <row r="610">
@@ -35823,13 +35823,13 @@
         </is>
       </c>
       <c r="N610" t="n">
-        <v>0.1085765616695588</v>
+        <v>0.1182501752469956</v>
       </c>
       <c r="O610" t="n">
         <v>0.0808</v>
       </c>
       <c r="P610" t="n">
-        <v>0.1400637645537308</v>
+        <v>0.1525427260686243</v>
       </c>
     </row>
     <row r="611">
@@ -35881,13 +35881,13 @@
         </is>
       </c>
       <c r="N611" t="n">
-        <v>0.07724095231910753</v>
+        <v>0.08700963330992356</v>
       </c>
       <c r="O611" t="n">
         <v>0.138</v>
       </c>
       <c r="P611" t="n">
-        <v>0.8419263802782722</v>
+        <v>0.9484050030781669</v>
       </c>
     </row>
     <row r="612">
@@ -35939,13 +35939,13 @@
         </is>
       </c>
       <c r="N612" t="n">
-        <v>0.2397134058172726</v>
+        <v>0.2105437548460909</v>
       </c>
       <c r="O612" t="n">
         <v>0.115</v>
       </c>
       <c r="P612" t="n">
-        <v>0.3140245616206271</v>
+        <v>0.275812318848379</v>
       </c>
     </row>
     <row r="613">
@@ -35997,13 +35997,13 @@
         </is>
       </c>
       <c r="N613" t="n">
-        <v>0.1724746306369163</v>
+        <v>0.1669733390730174</v>
       </c>
       <c r="O613" t="n">
         <v>0.167</v>
       </c>
       <c r="P613" t="n">
-        <v>0.06847242836285576</v>
+        <v>0.06628841561198792</v>
       </c>
     </row>
     <row r="614">
@@ -36055,13 +36055,13 @@
         </is>
       </c>
       <c r="N614" t="n">
-        <v>0.5283067195354283</v>
+        <v>0.3821947804596274</v>
       </c>
       <c r="O614" t="n">
         <v>0.156</v>
       </c>
       <c r="P614" t="n">
-        <v>0.766044743326371</v>
+        <v>0.5541824316664598</v>
       </c>
     </row>
     <row r="615">
@@ -36113,13 +36113,13 @@
         </is>
       </c>
       <c r="N615" t="n">
-        <v>0.3684209313088839</v>
+        <v>0.3101129721591273</v>
       </c>
       <c r="O615" t="n">
         <v>0.212</v>
       </c>
       <c r="P615" t="n">
-        <v>0.4826314200146379</v>
+        <v>0.4062479935284567</v>
       </c>
     </row>
     <row r="616">
@@ -36171,13 +36171,13 @@
         </is>
       </c>
       <c r="N616" t="n">
-        <v>0.1251291044330332</v>
+        <v>0.1609850725113201</v>
       </c>
       <c r="O616" t="n">
         <v>0.161</v>
       </c>
       <c r="P616" t="n">
-        <v>0.2252323879794597</v>
+        <v>0.2897731305203762</v>
       </c>
     </row>
     <row r="617">
@@ -36229,13 +36229,13 @@
         </is>
       </c>
       <c r="N617" t="n">
-        <v>0.2132233061874722</v>
+        <v>0.2387200151970311</v>
       </c>
       <c r="O617" t="n">
         <v>0.117</v>
       </c>
       <c r="P617" t="n">
-        <v>0.5287937993449311</v>
+        <v>0.5920256376886371</v>
       </c>
     </row>
     <row r="618">
@@ -36287,13 +36287,13 @@
         </is>
       </c>
       <c r="N618" t="n">
-        <v>0.1534662617503765</v>
+        <v>0.1768828584356639</v>
       </c>
       <c r="O618" t="n">
         <v>0.189</v>
       </c>
       <c r="P618" t="n">
-        <v>0.1780208636304367</v>
+        <v>0.2051841157853701</v>
       </c>
     </row>
     <row r="619">
@@ -36345,13 +36345,13 @@
         </is>
       </c>
       <c r="N619" t="n">
-        <v>0.3787648254923683</v>
+        <v>0.3550005816205461</v>
       </c>
       <c r="O619" t="n">
         <v>0.122</v>
       </c>
       <c r="P619" t="n">
-        <v>0.01511271653714549</v>
+        <v>0.01416452320665979</v>
       </c>
     </row>
     <row r="620">
@@ -36403,13 +36403,13 @@
         </is>
       </c>
       <c r="N620" t="n">
-        <v>0.293506404215258</v>
+        <v>0.297592802839911</v>
       </c>
       <c r="O620" t="n">
         <v>0.203</v>
       </c>
       <c r="P620" t="n">
-        <v>0.6016881286412789</v>
+        <v>0.6100652458218175</v>
       </c>
     </row>
     <row r="621">
@@ -36461,13 +36461,13 @@
         </is>
       </c>
       <c r="N621" t="n">
-        <v>0.8986168302433417</v>
+        <v>0.7109453461952596</v>
       </c>
       <c r="O621" t="n">
         <v>0.159</v>
       </c>
       <c r="P621" t="n">
-        <v>13.83869918574746</v>
+        <v>10.948558331407</v>
       </c>
     </row>
     <row r="622">
@@ -36519,13 +36519,13 @@
         </is>
       </c>
       <c r="N622" t="n">
-        <v>0.6162818810615412</v>
+        <v>0.5599156173334521</v>
       </c>
       <c r="O622" t="n">
         <v>0.218</v>
       </c>
       <c r="P622" t="n">
-        <v>5.873166326516488</v>
+        <v>5.335995833187798</v>
       </c>
     </row>
     <row r="623">
@@ -36577,13 +36577,13 @@
         </is>
       </c>
       <c r="N623" t="n">
-        <v>0.2899390990790227</v>
+        <v>0.3108065725546383</v>
       </c>
       <c r="O623" t="n">
         <v>0.238</v>
       </c>
       <c r="P623" t="n">
-        <v>1.02058562875816</v>
+        <v>1.094039135392327</v>
       </c>
     </row>
   </sheetData>
